--- a/Bulk Loads/6521/new_formatted.xlsx
+++ b/Bulk Loads/6521/new_formatted.xlsx
@@ -44,7 +44,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00002060"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -69,12 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -506,7 +513,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>
@@ -654,13 +661,13 @@
           <t>INSECT CONTROL</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>0.4</v>
       </c>
       <c r="T9" t="inlineStr">
@@ -681,7 +688,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n"/>
+      <c r="F10" s="6" t="n"/>
       <c r="G10" t="n">
         <v>10</v>
       </c>
@@ -706,7 +713,7 @@
           <t>LIQUOR STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n"/>
+      <c r="F11" s="6" t="n"/>
       <c r="T11" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -725,13 +732,13 @@
           <t>LIQUOR COLD ROOM</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
@@ -754,7 +761,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n"/>
+      <c r="F13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -770,7 +777,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n"/>
+      <c r="F14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -784,7 +791,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n"/>
+      <c r="F15" s="6" t="n"/>
       <c r="K15" t="n">
         <v>50</v>
       </c>
@@ -806,13 +813,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>6</v>
       </c>
       <c r="R16" t="n">
@@ -841,7 +848,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n"/>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -857,7 +864,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n"/>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -871,7 +878,7 @@
           <t>LIQUOR STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
       <c r="T19" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -890,7 +897,7 @@
           <t>WINE STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n"/>
+      <c r="F20" s="6" t="n"/>
       <c r="T20" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER 186 BOTTLES</t>
@@ -909,13 +916,13 @@
           <t>REACH-IN ULTRA LOW TEMP FREEZER</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>6.5</v>
       </c>
       <c r="T21" t="inlineStr">
@@ -936,13 +943,13 @@
           <t>HOLDING FREEZER</t>
         </is>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
@@ -965,7 +972,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n"/>
+      <c r="F23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -981,7 +988,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n"/>
+      <c r="F24" s="6" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -995,7 +1002,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n"/>
+      <c r="F25" s="6" t="n"/>
       <c r="K25" t="n">
         <v>50</v>
       </c>
@@ -1017,13 +1024,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>6</v>
       </c>
       <c r="R26" t="n">
@@ -1052,7 +1059,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n"/>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1068,7 +1075,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n"/>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1082,7 +1089,7 @@
           <t>DAY FREEZER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n"/>
+      <c r="F29" s="6" t="n"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -1101,13 +1108,13 @@
           <t>REACH-IN ULTRA LOW TEMP FREEZER</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>6.5</v>
       </c>
       <c r="T30" t="inlineStr">
@@ -1128,7 +1135,7 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n"/>
+      <c r="F31" s="6" t="n"/>
       <c r="T31" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -1147,7 +1154,7 @@
           <t>DUNNAGE RACK</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n"/>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1163,7 +1170,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n"/>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1177,7 +1184,7 @@
           <t>HIGH-DENSITY SHELVING</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n"/>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1191,7 +1198,7 @@
           <t>DUNNAGE RACK</t>
         </is>
       </c>
-      <c r="F35" s="5" t="n"/>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1205,7 +1212,7 @@
           <t>HIGH-DENSITY SHELVING</t>
         </is>
       </c>
-      <c r="F36" s="5" t="n"/>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1221,7 +1228,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n"/>
+      <c r="F37" s="6" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1237,7 +1244,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n"/>
+      <c r="F38" s="6" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1251,13 +1258,13 @@
           <t>KEG COOLER</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
@@ -1278,7 +1285,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n"/>
+      <c r="F40" s="6" t="n"/>
       <c r="K40" t="n">
         <v>50</v>
       </c>
@@ -1300,13 +1307,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>6</v>
       </c>
       <c r="R41" t="n">
@@ -1333,7 +1340,7 @@
           <t>KEG RACK</t>
         </is>
       </c>
-      <c r="F42" s="5" t="n"/>
+      <c r="F42" s="6" t="n"/>
       <c r="T42" t="inlineStr">
         <is>
           <t>DOUBLE DECK</t>
@@ -1354,7 +1361,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n"/>
+      <c r="F43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1368,13 +1375,13 @@
           <t>BEER SYSTEM</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="6" t="n">
         <v>8.6</v>
       </c>
       <c r="R44" t="n">
@@ -1401,13 +1408,13 @@
           <t>KEG LIFTER</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="6" t="n">
         <v>8</v>
       </c>
       <c r="T45" t="inlineStr">
@@ -1428,7 +1435,7 @@
           <t>UTILITY RACK</t>
         </is>
       </c>
-      <c r="F46" s="5" t="n"/>
+      <c r="F46" s="6" t="n"/>
       <c r="T46" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -1449,7 +1456,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n"/>
+      <c r="F47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1465,7 +1472,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n"/>
+      <c r="F48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1479,7 +1486,7 @@
           <t>DUMBWAITER</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n"/>
+      <c r="F49" s="6" t="n"/>
       <c r="T49" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -1498,7 +1505,7 @@
           <t>SHELVING UNIT</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n"/>
+      <c r="F50" s="6" t="n"/>
       <c r="T50" t="inlineStr">
         <is>
           <t>FIXED TWO TIER</t>
@@ -1517,7 +1524,7 @@
           <t>MOP SINK</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n"/>
+      <c r="F51" s="6" t="n"/>
       <c r="K51" t="n">
         <v>50</v>
       </c>
@@ -1539,7 +1546,7 @@
           <t>HOSE BIBB</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n"/>
+      <c r="F52" s="6" t="n"/>
       <c r="G52" t="n">
         <v>15</v>
       </c>
@@ -1566,7 +1573,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n"/>
+      <c r="F53" s="6" t="n"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1580,7 +1587,7 @@
           <t>WALL SHELF</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n"/>
+      <c r="F54" s="6" t="n"/>
       <c r="T54" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -1599,7 +1606,7 @@
           <t>MOP RACK</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n"/>
+      <c r="F55" s="6" t="n"/>
       <c r="T55" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
@@ -1620,7 +1627,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n"/>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1636,7 +1643,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n"/>
+      <c r="F57" s="6" t="n"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1652,7 +1659,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n"/>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1692,13 +1699,13 @@
           <t>WORK SURFACE</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60" s="6" t="n">
         <v>20</v>
       </c>
       <c r="T60" t="inlineStr">
@@ -1719,7 +1726,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F61" s="5" t="n"/>
+      <c r="F61" s="6" t="n"/>
       <c r="T61" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1738,13 +1745,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D62" t="n">
+      <c r="D62" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
@@ -1765,7 +1772,7 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F63" s="5" t="n"/>
+      <c r="F63" s="6" t="n"/>
       <c r="T63" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -1786,7 +1793,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F64" s="5" t="n"/>
+      <c r="F64" s="6" t="n"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1802,7 +1809,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F65" s="5" t="n"/>
+      <c r="F65" s="6" t="n"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1816,13 +1823,13 @@
           <t>WORK SURFACE</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="6" t="n">
         <v>20</v>
       </c>
       <c r="T66" t="inlineStr">
@@ -1843,7 +1850,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F67" s="5" t="n"/>
+      <c r="F67" s="6" t="n"/>
       <c r="T67" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1864,7 +1871,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n"/>
+      <c r="F68" s="6" t="n"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1880,7 +1887,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n"/>
+      <c r="F69" s="6" t="n"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1894,13 +1901,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T70" t="inlineStr">
@@ -1921,7 +1928,7 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F71" s="5" t="n"/>
+      <c r="F71" s="6" t="n"/>
       <c r="T71" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -1946,7 +1953,7 @@
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" s="5" t="n">
+      <c r="F72" s="6" t="n">
         <v>20</v>
       </c>
       <c r="T72" t="inlineStr">
@@ -1967,7 +1974,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n"/>
+      <c r="F73" s="6" t="n"/>
       <c r="T73" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -1988,7 +1995,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F74" s="5" t="n"/>
+      <c r="F74" s="6" t="n"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2002,13 +2009,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D75" t="n">
+      <c r="D75" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
       </c>
-      <c r="F75" s="5" t="n">
+      <c r="F75" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
@@ -2029,7 +2036,7 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F76" s="5" t="n"/>
+      <c r="F76" s="6" t="n"/>
       <c r="T76" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -2048,7 +2055,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F77" s="5" t="n"/>
+      <c r="F77" s="6" t="n"/>
       <c r="T77" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2069,7 +2076,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n"/>
+      <c r="F78" s="6" t="n"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2085,7 +2092,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F79" s="5" t="n"/>
+      <c r="F79" s="6" t="n"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2101,7 +2108,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F80" s="5" t="n"/>
+      <c r="F80" s="6" t="n"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2115,13 +2122,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
       </c>
-      <c r="F81" s="5" t="n">
+      <c r="F81" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
@@ -2148,7 +2155,7 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" s="5" t="n">
+      <c r="F82" s="6" t="n">
         <v>20</v>
       </c>
       <c r="T82" t="inlineStr">
@@ -2169,7 +2176,7 @@
           <t>WALL CABINET</t>
         </is>
       </c>
-      <c r="F83" s="5" t="n"/>
+      <c r="F83" s="6" t="n"/>
       <c r="T83" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -2190,7 +2197,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F84" s="5" t="n"/>
+      <c r="F84" s="6" t="n"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2204,7 +2211,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F85" s="5" t="n"/>
+      <c r="F85" s="6" t="n"/>
       <c r="T85" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2223,13 +2230,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" s="5" t="n">
+      <c r="F86" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T86" t="inlineStr">
@@ -2250,7 +2257,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F87" s="5" t="n"/>
+      <c r="F87" s="6" t="n"/>
       <c r="T87" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2271,7 +2278,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F88" s="5" t="n"/>
+      <c r="F88" s="6" t="n"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2287,7 +2294,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F89" s="5" t="n"/>
+      <c r="F89" s="6" t="n"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2301,13 +2308,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
-      <c r="F90" s="5" t="n">
+      <c r="F90" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T90" t="inlineStr">
@@ -2328,7 +2335,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F91" s="5" t="n"/>
+      <c r="F91" s="6" t="n"/>
       <c r="T91" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2347,13 +2354,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D92" t="n">
+      <c r="D92" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
-      <c r="F92" s="5" t="n">
+      <c r="F92" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T92" t="inlineStr">
@@ -2374,7 +2381,7 @@
           <t>CHAIR</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n"/>
+      <c r="F93" s="6" t="n"/>
       <c r="T93" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
@@ -2395,7 +2402,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n"/>
+      <c r="F94" s="6" t="n"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2409,13 +2416,13 @@
           <t>COMPUTER</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
-      <c r="F95" s="5" t="n">
+      <c r="F95" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T95" t="inlineStr">
@@ -2436,13 +2443,13 @@
           <t>PRINTER / FAX MACHINE</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
-      <c r="F96" s="5" t="n">
+      <c r="F96" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T96" t="inlineStr">
@@ -2465,7 +2472,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F97" s="5" t="n"/>
+      <c r="F97" s="6" t="n"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2481,7 +2488,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F98" s="5" t="n"/>
+      <c r="F98" s="6" t="n"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2499,7 +2506,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F99" s="5" t="n"/>
+      <c r="F99" s="6" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
@@ -2539,13 +2546,13 @@
           <t>INSECT CONTROL</t>
         </is>
       </c>
-      <c r="D101" t="n">
+      <c r="D101" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
       </c>
-      <c r="F101" s="5" t="n">
+      <c r="F101" s="6" t="n">
         <v>0.4</v>
       </c>
       <c r="T101" t="inlineStr">
@@ -2566,13 +2573,13 @@
           <t>DAY FREEZER</t>
         </is>
       </c>
-      <c r="D102" t="n">
+      <c r="D102" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
       </c>
-      <c r="F102" s="5" t="n">
+      <c r="F102" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T102" t="inlineStr">
@@ -2593,7 +2600,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F103" s="5" t="n"/>
+      <c r="F103" s="6" t="n"/>
       <c r="K103" t="n">
         <v>50</v>
       </c>
@@ -2615,13 +2622,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" s="5" t="n">
+      <c r="F104" s="6" t="n">
         <v>6</v>
       </c>
       <c r="R104" t="n">
@@ -2650,7 +2657,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F105" s="5" t="n"/>
+      <c r="F105" s="6" t="n"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2664,7 +2671,7 @@
           <t>DAY FREEZER STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F106" s="5" t="n"/>
+      <c r="F106" s="6" t="n"/>
       <c r="T106" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -2683,7 +2690,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F107" s="5" t="n"/>
+      <c r="F107" s="6" t="n"/>
       <c r="G107" t="n">
         <v>10</v>
       </c>
@@ -2708,7 +2715,7 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F108" s="5" t="n"/>
+      <c r="F108" s="6" t="n"/>
       <c r="T108" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -2729,7 +2736,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F109" s="5" t="n"/>
+      <c r="F109" s="6" t="n"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2747,7 +2754,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F110" s="5" t="n"/>
+      <c r="F110" s="6" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
@@ -2787,13 +2794,13 @@
           <t>SLICER CART</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
       </c>
-      <c r="F112" s="5" t="n">
+      <c r="F112" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T112" t="inlineStr">
@@ -2814,13 +2821,13 @@
           <t>FOOD SLICER</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
       </c>
-      <c r="F113" s="5" t="n">
+      <c r="F113" s="6" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2836,13 +2843,13 @@
           <t>KNIFE SANITIZER</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="F114" s="5" t="n">
+      <c r="F114" s="6" t="n">
         <v>0.3</v>
       </c>
       <c r="T114" t="inlineStr">
@@ -2863,13 +2870,13 @@
           <t>MEAT PREPARATION TABLE WITH SINK</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E115" t="n">
         <v>1</v>
       </c>
-      <c r="F115" s="5" t="n">
+      <c r="F115" s="6" t="n">
         <v>10</v>
       </c>
       <c r="G115" t="n">
@@ -2901,7 +2908,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F116" s="5" t="n"/>
+      <c r="F116" s="6" t="n"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2915,7 +2922,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F117" s="5" t="n"/>
+      <c r="F117" s="6" t="n"/>
       <c r="T117" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -2934,13 +2941,13 @@
           <t>MEAT GRINDER</t>
         </is>
       </c>
-      <c r="D118" t="n">
+      <c r="D118" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E118" t="n">
         <v>1</v>
       </c>
-      <c r="F118" s="5" t="n">
+      <c r="F118" s="6" t="n">
         <v>4.2</v>
       </c>
     </row>
@@ -2956,13 +2963,13 @@
           <t>VACUUM PACKAGING MACHINE</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
       </c>
-      <c r="F119" s="5" t="n">
+      <c r="F119" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T119" t="inlineStr">
@@ -2985,7 +2992,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F120" s="5" t="n"/>
+      <c r="F120" s="6" t="n"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2999,7 +3006,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F121" s="5" t="n"/>
+      <c r="F121" s="6" t="n"/>
       <c r="K121" t="n">
         <v>50</v>
       </c>
@@ -3021,13 +3028,13 @@
           <t>AIR PURIFIER</t>
         </is>
       </c>
-      <c r="D122" t="n">
+      <c r="D122" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
       </c>
-      <c r="F122" s="5" t="n">
+      <c r="F122" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="T122" t="inlineStr">
@@ -3048,7 +3055,7 @@
           <t>UNDER COUNTER UTILITY RACK</t>
         </is>
       </c>
-      <c r="F123" s="5" t="n"/>
+      <c r="F123" s="6" t="n"/>
       <c r="T123" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -3067,7 +3074,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F124" s="5" t="n"/>
+      <c r="F124" s="6" t="n"/>
       <c r="T124" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #167</t>
@@ -3086,13 +3093,13 @@
           <t>PORTION SCALE</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125" s="5" t="n">
+      <c r="F125" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3110,7 +3117,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F126" s="5" t="n"/>
+      <c r="F126" s="6" t="n"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3124,13 +3131,13 @@
           <t>EVAPORATOR COIL</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
       </c>
-      <c r="F127" s="5" t="n">
+      <c r="F127" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J127" t="n">
@@ -3154,7 +3161,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F128" s="5" t="n"/>
+      <c r="F128" s="6" t="n"/>
       <c r="T128" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -3173,7 +3180,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F129" s="5" t="n"/>
+      <c r="F129" s="6" t="n"/>
       <c r="G129" t="n">
         <v>15</v>
       </c>
@@ -3204,13 +3211,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D130" t="n">
+      <c r="D130" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E130" t="n">
         <v>1</v>
       </c>
-      <c r="F130" s="5" t="n">
+      <c r="F130" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R130" t="n">
@@ -3239,7 +3246,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F131" s="5" t="n"/>
+      <c r="F131" s="6" t="n"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3253,7 +3260,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F132" s="5" t="n"/>
+      <c r="F132" s="6" t="n"/>
       <c r="T132" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3272,7 +3279,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F133" s="5" t="n"/>
+      <c r="F133" s="6" t="n"/>
       <c r="T133" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -3293,7 +3300,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F134" s="5" t="n"/>
+      <c r="F134" s="6" t="n"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3309,7 +3316,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F135" s="5" t="n"/>
+      <c r="F135" s="6" t="n"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3325,7 +3332,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F136" s="5" t="n"/>
+      <c r="F136" s="6" t="n"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3341,7 +3348,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F137" s="5" t="n"/>
+      <c r="F137" s="6" t="n"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3357,7 +3364,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F138" s="5" t="n"/>
+      <c r="F138" s="6" t="n"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3373,7 +3380,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F139" s="5" t="n"/>
+      <c r="F139" s="6" t="n"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3389,7 +3396,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F140" s="5" t="n"/>
+      <c r="F140" s="6" t="n"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3405,7 +3412,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F141" s="5" t="n"/>
+      <c r="F141" s="6" t="n"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3419,13 +3426,13 @@
           <t>MEAT COLD ROOM</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
       </c>
-      <c r="F142" s="5" t="n">
+      <c r="F142" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T142" t="inlineStr">
@@ -3446,7 +3453,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F143" s="5" t="n"/>
+      <c r="F143" s="6" t="n"/>
       <c r="K143" t="n">
         <v>50</v>
       </c>
@@ -3468,13 +3475,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
       </c>
-      <c r="F144" s="5" t="n">
+      <c r="F144" s="6" t="n">
         <v>6</v>
       </c>
       <c r="R144" t="n">
@@ -3501,7 +3508,7 @@
           <t>MEAT COLD STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F145" s="5" t="n"/>
+      <c r="F145" s="6" t="n"/>
       <c r="T145" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -3524,7 +3531,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F146" s="5" t="n"/>
+      <c r="F146" s="6" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -3566,7 +3573,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F148" s="5" t="n"/>
+      <c r="F148" s="6" t="n"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3580,7 +3587,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F149" s="5" t="n"/>
+      <c r="F149" s="6" t="n"/>
       <c r="G149" t="n">
         <v>15</v>
       </c>
@@ -3611,7 +3618,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F150" s="5" t="n"/>
+      <c r="F150" s="6" t="n"/>
       <c r="T150" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -3630,7 +3637,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F151" s="5" t="n"/>
+      <c r="F151" s="6" t="n"/>
       <c r="T151" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -3649,13 +3656,13 @@
           <t>FISH PREPARATION TABLE WITH MIXER RECESS</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E152" t="n">
         <v>1</v>
       </c>
-      <c r="F152" s="5" t="n">
+      <c r="F152" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T152" t="inlineStr">
@@ -3676,7 +3683,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F153" s="5" t="n"/>
+      <c r="F153" s="6" t="n"/>
       <c r="T153" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -3697,7 +3704,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F154" s="5" t="n"/>
+      <c r="F154" s="6" t="n"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3711,7 +3718,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F155" s="5" t="n"/>
+      <c r="F155" s="6" t="n"/>
       <c r="K155" t="n">
         <v>50</v>
       </c>
@@ -3733,7 +3740,7 @@
           <t>FISH SINK WITH RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F156" s="5" t="n"/>
+      <c r="F156" s="6" t="n"/>
       <c r="J156" t="n">
         <v>40</v>
       </c>
@@ -3755,7 +3762,7 @@
           <t>PRE-RINSE UNIT</t>
         </is>
       </c>
-      <c r="F157" s="5" t="n"/>
+      <c r="F157" s="6" t="n"/>
       <c r="G157" t="n">
         <v>15</v>
       </c>
@@ -3783,7 +3790,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F158" s="5" t="n"/>
+      <c r="F158" s="6" t="n"/>
       <c r="T158" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -3802,13 +3809,13 @@
           <t>AIR PURIFIER</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E159" t="n">
         <v>1</v>
       </c>
-      <c r="F159" s="5" t="n">
+      <c r="F159" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="T159" t="inlineStr">
@@ -3831,7 +3838,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F160" s="5" t="n"/>
+      <c r="F160" s="6" t="n"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3845,13 +3852,13 @@
           <t>FOOD PROCESSOR</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E161" t="n">
         <v>1</v>
       </c>
-      <c r="F161" s="5" t="n">
+      <c r="F161" s="6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3867,13 +3874,13 @@
           <t>EVAPORATOR COIL</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E162" t="n">
         <v>1</v>
       </c>
-      <c r="F162" s="5" t="n">
+      <c r="F162" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J162" t="n">
@@ -3897,13 +3904,13 @@
           <t>VACUUM PACKAGING MACHINE</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
       </c>
-      <c r="F163" s="5" t="n">
+      <c r="F163" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T163" t="inlineStr">
@@ -3924,13 +3931,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D164" t="n">
+      <c r="D164" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
       </c>
-      <c r="F164" s="5" t="n">
+      <c r="F164" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R164" t="n">
@@ -3959,7 +3966,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F165" s="5" t="n"/>
+      <c r="F165" s="6" t="n"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3973,7 +3980,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F166" s="5" t="n"/>
+      <c r="F166" s="6" t="n"/>
       <c r="T166" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #167</t>
@@ -3992,13 +3999,13 @@
           <t>PORTION SCALE</t>
         </is>
       </c>
-      <c r="D167" t="n">
+      <c r="D167" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E167" t="n">
         <v>1</v>
       </c>
-      <c r="F167" s="5" t="n">
+      <c r="F167" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4014,7 +4021,7 @@
           <t>UNDER COUNTER UTILITY RACK</t>
         </is>
       </c>
-      <c r="F168" s="5" t="n"/>
+      <c r="F168" s="6" t="n"/>
       <c r="T168" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -4033,13 +4040,13 @@
           <t>KNIFE SANITIZER</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
       </c>
-      <c r="F169" s="5" t="n">
+      <c r="F169" s="6" t="n">
         <v>0.3</v>
       </c>
       <c r="T169" t="inlineStr">
@@ -4062,7 +4069,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F170" s="5" t="n"/>
+      <c r="F170" s="6" t="n"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4076,13 +4083,13 @@
           <t>PLANETARY MIXER</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
       </c>
-      <c r="F171" s="5" t="n">
+      <c r="F171" s="6" t="n">
         <v>3.3</v>
       </c>
       <c r="T171" t="inlineStr">
@@ -4103,7 +4110,7 @@
           <t>MIXER UTENSIL RACK</t>
         </is>
       </c>
-      <c r="F172" s="5" t="n"/>
+      <c r="F172" s="6" t="n"/>
       <c r="T172" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4124,7 +4131,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F173" s="5" t="n"/>
+      <c r="F173" s="6" t="n"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4140,7 +4147,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F174" s="5" t="n"/>
+      <c r="F174" s="6" t="n"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4158,7 +4165,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F175" s="5" t="n"/>
+      <c r="F175" s="6" t="n"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4172,13 +4179,13 @@
           <t>FISH COLD ROOM</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
       </c>
-      <c r="F176" s="5" t="n">
+      <c r="F176" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T176" t="inlineStr">
@@ -4199,7 +4206,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F177" s="5" t="n"/>
+      <c r="F177" s="6" t="n"/>
       <c r="K177" t="n">
         <v>50</v>
       </c>
@@ -4221,13 +4228,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E178" t="n">
         <v>1</v>
       </c>
-      <c r="F178" s="5" t="n">
+      <c r="F178" s="6" t="n">
         <v>6</v>
       </c>
       <c r="R178" t="n">
@@ -4256,7 +4263,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F179" s="5" t="n"/>
+      <c r="F179" s="6" t="n"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4272,7 +4279,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F180" s="5" t="n"/>
+      <c r="F180" s="6" t="n"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4286,7 +4293,7 @@
           <t>FISH COLD STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F181" s="5" t="n"/>
+      <c r="F181" s="6" t="n"/>
       <c r="T181" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -4305,7 +4312,7 @@
           <t>UTILITY RACK</t>
         </is>
       </c>
-      <c r="F182" s="5" t="n"/>
+      <c r="F182" s="6" t="n"/>
       <c r="T182" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -4324,13 +4331,13 @@
           <t>REACH-IN ULTRA LOW TEMP FREEZER</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
       </c>
-      <c r="F183" s="5" t="n">
+      <c r="F183" s="6" t="n">
         <v>6.5</v>
       </c>
       <c r="T183" t="inlineStr">
@@ -4351,7 +4358,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F184" s="5" t="n"/>
+      <c r="F184" s="6" t="n"/>
       <c r="G184" t="n">
         <v>10</v>
       </c>
@@ -4380,7 +4387,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F185" s="5" t="n"/>
+      <c r="F185" s="6" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
@@ -4420,7 +4427,7 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F187" s="5" t="n"/>
+      <c r="F187" s="6" t="n"/>
       <c r="G187" t="n">
         <v>20</v>
       </c>
@@ -4442,13 +4449,13 @@
           <t>ICE MACHINE</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E188" t="n">
         <v>1</v>
       </c>
-      <c r="F188" s="5" t="n">
+      <c r="F188" s="6" t="n">
         <v>6.6</v>
       </c>
       <c r="G188" t="n">
@@ -4484,7 +4491,7 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F189" s="5" t="n"/>
+      <c r="F189" s="6" t="n"/>
       <c r="T189" t="inlineStr">
         <is>
           <t>454 KG.</t>
@@ -4503,7 +4510,7 @@
           <t>ICE TRANSPORT CART</t>
         </is>
       </c>
-      <c r="F190" s="5" t="n"/>
+      <c r="F190" s="6" t="n"/>
       <c r="T190" t="inlineStr">
         <is>
           <t>80 KG. MOBILE</t>
@@ -4524,7 +4531,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F191" s="5" t="n"/>
+      <c r="F191" s="6" t="n"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4538,7 +4545,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F192" s="5" t="n"/>
+      <c r="F192" s="6" t="n"/>
       <c r="K192" t="n">
         <v>50</v>
       </c>
@@ -4560,7 +4567,7 @@
           <t>ICE BIN</t>
         </is>
       </c>
-      <c r="F193" s="5" t="n"/>
+      <c r="F193" s="6" t="n"/>
       <c r="J193" t="n">
         <v>25</v>
       </c>
@@ -4582,13 +4589,13 @@
           <t>ICE MACHINE</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E194" t="n">
         <v>1</v>
       </c>
-      <c r="F194" s="5" t="n">
+      <c r="F194" s="6" t="n">
         <v>5.2</v>
       </c>
       <c r="G194" t="n">
@@ -4626,7 +4633,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F195" s="5" t="n"/>
+      <c r="F195" s="6" t="n"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4642,7 +4649,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F196" s="5" t="n"/>
+      <c r="F196" s="6" t="n"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4656,7 +4663,7 @@
           <t>ICE TRANSPORT CART</t>
         </is>
       </c>
-      <c r="F197" s="5" t="n"/>
+      <c r="F197" s="6" t="n"/>
       <c r="T197" t="inlineStr">
         <is>
           <t>114KG. MOBILE</t>
@@ -4675,13 +4682,13 @@
           <t>ICE MACHINE</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E198" t="n">
         <v>1</v>
       </c>
-      <c r="F198" s="5" t="n">
+      <c r="F198" s="6" t="n">
         <v>15.8</v>
       </c>
       <c r="G198" t="n">
@@ -4717,7 +4724,7 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F199" s="5" t="n"/>
+      <c r="F199" s="6" t="n"/>
       <c r="G199" t="n">
         <v>20</v>
       </c>
@@ -4739,7 +4746,7 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F200" s="5" t="n"/>
+      <c r="F200" s="6" t="n"/>
       <c r="G200" t="n">
         <v>20</v>
       </c>
@@ -4768,7 +4775,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F201" s="5" t="n"/>
+      <c r="F201" s="6" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
@@ -4814,7 +4821,7 @@
       <c r="E203" t="n">
         <v>3</v>
       </c>
-      <c r="F203" s="5" t="n">
+      <c r="F203" s="6" t="n">
         <v>3.4</v>
       </c>
       <c r="J203" t="n">
@@ -4833,7 +4840,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F204" s="5" t="n"/>
+      <c r="F204" s="6" t="n"/>
       <c r="K204" t="n">
         <v>50</v>
       </c>
@@ -4855,13 +4862,13 @@
           <t>PRODUCE PREPARATION TABLE WITH SINKS AND MIXER RECESS</t>
         </is>
       </c>
-      <c r="D205" t="n">
+      <c r="D205" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
       </c>
-      <c r="F205" s="5" t="n">
+      <c r="F205" s="6" t="n">
         <v>20</v>
       </c>
       <c r="G205" t="n">
@@ -4894,7 +4901,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F206" s="5" t="n"/>
+      <c r="F206" s="6" t="n"/>
       <c r="T206" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -4913,7 +4920,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F207" s="5" t="n"/>
+      <c r="F207" s="6" t="n"/>
       <c r="G207" t="n">
         <v>10</v>
       </c>
@@ -4938,13 +4945,13 @@
           <t>FOOD PROCESSOR</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E208" t="n">
         <v>1</v>
       </c>
-      <c r="F208" s="5" t="n">
+      <c r="F208" s="6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -4960,7 +4967,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F209" s="5" t="n"/>
+      <c r="F209" s="6" t="n"/>
       <c r="K209" t="n">
         <v>50</v>
       </c>
@@ -4982,13 +4989,13 @@
           <t>VEGETABLE CUTTER</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E210" t="n">
         <v>1</v>
       </c>
-      <c r="F210" s="5" t="n">
+      <c r="F210" s="6" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -5006,7 +5013,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F211" s="5" t="n"/>
+      <c r="F211" s="6" t="n"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5022,7 +5029,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F212" s="5" t="n"/>
+      <c r="F212" s="6" t="n"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5036,13 +5043,13 @@
           <t>VEGETABLE SLICER</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E213" t="n">
         <v>1</v>
       </c>
-      <c r="F213" s="5" t="n">
+      <c r="F213" s="6" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -5058,13 +5065,13 @@
           <t>AIR PURIFIER</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
       </c>
-      <c r="F214" s="5" t="n">
+      <c r="F214" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="T214" t="inlineStr">
@@ -5085,13 +5092,13 @@
           <t>PLANETARY MIXER</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E215" t="n">
         <v>1</v>
       </c>
-      <c r="F215" s="5" t="n">
+      <c r="F215" s="6" t="n">
         <v>3.3</v>
       </c>
       <c r="T215" t="inlineStr">
@@ -5112,7 +5119,7 @@
           <t>MIXER UTENSIL RACK</t>
         </is>
       </c>
-      <c r="F216" s="5" t="n"/>
+      <c r="F216" s="6" t="n"/>
       <c r="T216" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5133,7 +5140,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F217" s="5" t="n"/>
+      <c r="F217" s="6" t="n"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5147,13 +5154,13 @@
           <t>PRODUCE COLD ROOM</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E218" t="n">
         <v>1</v>
       </c>
-      <c r="F218" s="5" t="n">
+      <c r="F218" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T218" t="inlineStr">
@@ -5174,7 +5181,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F219" s="5" t="n"/>
+      <c r="F219" s="6" t="n"/>
       <c r="K219" t="n">
         <v>50</v>
       </c>
@@ -5196,13 +5203,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E220" t="n">
         <v>1</v>
       </c>
-      <c r="F220" s="5" t="n">
+      <c r="F220" s="6" t="n">
         <v>6</v>
       </c>
       <c r="R220" t="n">
@@ -5231,7 +5238,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F221" s="5" t="n"/>
+      <c r="F221" s="6" t="n"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5247,7 +5254,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F222" s="5" t="n"/>
+      <c r="F222" s="6" t="n"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5261,7 +5268,7 @@
           <t>PRODUCE COLD STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F223" s="5" t="n"/>
+      <c r="F223" s="6" t="n"/>
       <c r="T223" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -5280,7 +5287,7 @@
           <t>UTILITY RACK</t>
         </is>
       </c>
-      <c r="F224" s="5" t="n"/>
+      <c r="F224" s="6" t="n"/>
       <c r="T224" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -5299,13 +5306,13 @@
           <t>KNIFE SANITIZER</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E225" t="n">
         <v>1</v>
       </c>
-      <c r="F225" s="5" t="n">
+      <c r="F225" s="6" t="n">
         <v>0.3</v>
       </c>
       <c r="T225" t="inlineStr">
@@ -5326,13 +5333,13 @@
           <t>PRODUCE PREPARATION TABLE</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E226" t="n">
         <v>1</v>
       </c>
-      <c r="F226" s="5" t="n">
+      <c r="F226" s="6" t="n">
         <v>20</v>
       </c>
       <c r="T226" t="inlineStr">
@@ -5355,7 +5362,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F227" s="5" t="n"/>
+      <c r="F227" s="6" t="n"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5369,7 +5376,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F228" s="5" t="n"/>
+      <c r="F228" s="6" t="n"/>
       <c r="T228" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5388,7 +5395,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F229" s="5" t="n"/>
+      <c r="F229" s="6" t="n"/>
       <c r="T229" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5407,13 +5414,13 @@
           <t>EVAPORATOR COIL</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
       </c>
-      <c r="F230" s="5" t="n">
+      <c r="F230" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J230" t="n">
@@ -5437,13 +5444,13 @@
           <t>REFRIGERATION SYSTEM</t>
         </is>
       </c>
-      <c r="D231" t="n">
+      <c r="D231" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E231" t="n">
         <v>1</v>
       </c>
-      <c r="F231" s="5" t="n">
+      <c r="F231" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R231" t="n">
@@ -5472,7 +5479,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F232" s="5" t="n"/>
+      <c r="F232" s="6" t="n"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5488,7 +5495,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F233" s="5" t="n"/>
+      <c r="F233" s="6" t="n"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5502,7 +5509,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F234" s="5" t="n"/>
+      <c r="F234" s="6" t="n"/>
       <c r="T234" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -5521,7 +5528,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F235" s="5" t="n"/>
+      <c r="F235" s="6" t="n"/>
       <c r="G235" t="n">
         <v>15</v>
       </c>
@@ -5552,7 +5559,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F236" s="5" t="n"/>
+      <c r="F236" s="6" t="n"/>
       <c r="T236" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -5573,7 +5580,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F237" s="5" t="n"/>
+      <c r="F237" s="6" t="n"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5587,7 +5594,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F238" s="5" t="n"/>
+      <c r="F238" s="6" t="n"/>
       <c r="T238" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -5608,7 +5615,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F239" s="5" t="n"/>
+      <c r="F239" s="6" t="n"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5624,7 +5631,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F240" s="5" t="n"/>
+      <c r="F240" s="6" t="n"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5640,7 +5647,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F241" s="5" t="n"/>
+      <c r="F241" s="6" t="n"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5658,7 +5665,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F242" s="5" t="n"/>
+      <c r="F242" s="6" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
@@ -5698,7 +5705,7 @@
           <t>GLASS WASH TABLE</t>
         </is>
       </c>
-      <c r="F244" s="5" t="n"/>
+      <c r="F244" s="6" t="n"/>
       <c r="T244" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -5717,13 +5724,13 @@
           <t>UNDER COUNTER GLASS WASH MACHINE</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E245" t="n">
         <v>1</v>
       </c>
-      <c r="F245" s="5" t="n">
+      <c r="F245" s="6" t="n">
         <v>14.3</v>
       </c>
       <c r="H245" t="n">
@@ -5753,7 +5760,7 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F246" s="5" t="n"/>
+      <c r="F246" s="6" t="n"/>
       <c r="T246" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -5772,13 +5779,13 @@
           <t>UNDER COUNTER GLASS WASH MACHINE</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
       </c>
-      <c r="F247" s="5" t="n">
+      <c r="F247" s="6" t="n">
         <v>14.3</v>
       </c>
       <c r="H247" t="n">
@@ -5810,7 +5817,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F248" s="5" t="n"/>
+      <c r="F248" s="6" t="n"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -5824,7 +5831,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F249" s="5" t="n"/>
+      <c r="F249" s="6" t="n"/>
       <c r="G249" t="n">
         <v>15</v>
       </c>
@@ -5855,7 +5862,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F250" s="5" t="n"/>
+      <c r="F250" s="6" t="n"/>
       <c r="T250" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -5874,7 +5881,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F251" s="5" t="n"/>
+      <c r="F251" s="6" t="n"/>
       <c r="T251" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -5895,7 +5902,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F252" s="5" t="n"/>
+      <c r="F252" s="6" t="n"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -5911,7 +5918,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F253" s="5" t="n"/>
+      <c r="F253" s="6" t="n"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -5925,7 +5932,7 @@
           <t>HOSE REEL CONTROL CABINET</t>
         </is>
       </c>
-      <c r="F254" s="5" t="n"/>
+      <c r="F254" s="6" t="n"/>
       <c r="G254" t="n">
         <v>15</v>
       </c>
@@ -5953,7 +5960,7 @@
           <t>SOILED DISH TABLE</t>
         </is>
       </c>
-      <c r="F255" s="5" t="n"/>
+      <c r="F255" s="6" t="n"/>
       <c r="T255" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH TROUGH AND TROUGH COVERS</t>
@@ -5972,13 +5979,13 @@
           <t>FOOD WASTE COLLECTOR</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E256" t="n">
         <v>1</v>
       </c>
-      <c r="F256" s="5" t="n">
+      <c r="F256" s="6" t="n">
         <v>5.5</v>
       </c>
       <c r="G256" t="n">
@@ -6011,7 +6018,7 @@
           <t>PASS-THRU WINDOW AND DROP SHELF</t>
         </is>
       </c>
-      <c r="F257" s="5" t="n"/>
+      <c r="F257" s="6" t="n"/>
       <c r="T257" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6032,7 +6039,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F258" s="5" t="n"/>
+      <c r="F258" s="6" t="n"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6046,7 +6053,7 @@
           <t>SILVERWARE CHUTE</t>
         </is>
       </c>
-      <c r="F259" s="5" t="n"/>
+      <c r="F259" s="6" t="n"/>
       <c r="T259" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6065,7 +6072,7 @@
           <t>SILVER SOAK SINK</t>
         </is>
       </c>
-      <c r="F260" s="5" t="n"/>
+      <c r="F260" s="6" t="n"/>
       <c r="T260" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -6084,7 +6091,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F261" s="5" t="n"/>
+      <c r="F261" s="6" t="n"/>
       <c r="T261" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -6105,7 +6112,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F262" s="5" t="n"/>
+      <c r="F262" s="6" t="n"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6121,7 +6128,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F263" s="5" t="n"/>
+      <c r="F263" s="6" t="n"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6135,7 +6142,7 @@
           <t>HOSE REEL</t>
         </is>
       </c>
-      <c r="F264" s="5" t="n"/>
+      <c r="F264" s="6" t="n"/>
       <c r="T264" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
@@ -6154,7 +6161,7 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F265" s="5" t="n"/>
+      <c r="F265" s="6" t="n"/>
       <c r="T265" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -6173,7 +6180,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F266" s="5" t="n"/>
+      <c r="F266" s="6" t="n"/>
       <c r="K266" t="n">
         <v>50</v>
       </c>
@@ -6195,7 +6202,7 @@
           <t>SILVERWARE CHUTE</t>
         </is>
       </c>
-      <c r="F267" s="5" t="n"/>
+      <c r="F267" s="6" t="n"/>
       <c r="T267" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6216,7 +6223,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F268" s="5" t="n"/>
+      <c r="F268" s="6" t="n"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6230,7 +6237,7 @@
           <t>SILVER SOAK SINK</t>
         </is>
       </c>
-      <c r="F269" s="5" t="n"/>
+      <c r="F269" s="6" t="n"/>
       <c r="T269" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -6249,7 +6256,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F270" s="5" t="n"/>
+      <c r="F270" s="6" t="n"/>
       <c r="T270" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -6268,7 +6275,7 @@
           <t>CORNER CONVEYOR</t>
         </is>
       </c>
-      <c r="F271" s="5" t="n"/>
+      <c r="F271" s="6" t="n"/>
       <c r="J271" t="n">
         <v>40</v>
       </c>
@@ -6287,7 +6294,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F272" s="5" t="n"/>
+      <c r="F272" s="6" t="n"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6303,7 +6310,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F273" s="5" t="n"/>
+      <c r="F273" s="6" t="n"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6317,13 +6324,13 @@
           <t>DISH MACHINE</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="5" t="n">
         <v>400</v>
       </c>
       <c r="E274" t="n">
         <v>3</v>
       </c>
-      <c r="F274" s="5" t="n">
+      <c r="F274" s="6" t="n">
         <v>50</v>
       </c>
       <c r="H274" t="n">
@@ -6353,7 +6360,7 @@
           <t>CLEAN DISH TABLE</t>
         </is>
       </c>
-      <c r="F275" s="5" t="n"/>
+      <c r="F275" s="6" t="n"/>
       <c r="T275" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6372,7 +6379,7 @@
           <t>GLASS RACK SHELF</t>
         </is>
       </c>
-      <c r="F276" s="5" t="n"/>
+      <c r="F276" s="6" t="n"/>
       <c r="T276" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -6391,7 +6398,7 @@
           <t>PASS-THRU WINDOW AND SHELF</t>
         </is>
       </c>
-      <c r="F277" s="5" t="n"/>
+      <c r="F277" s="6" t="n"/>
       <c r="T277" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6412,7 +6419,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F278" s="5" t="n"/>
+      <c r="F278" s="6" t="n"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6426,7 +6433,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F279" s="5" t="n"/>
+      <c r="F279" s="6" t="n"/>
       <c r="G279" t="n">
         <v>15</v>
       </c>
@@ -6457,7 +6464,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F280" s="5" t="n"/>
+      <c r="F280" s="6" t="n"/>
       <c r="T280" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -6476,7 +6483,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F281" s="5" t="n"/>
+      <c r="F281" s="6" t="n"/>
       <c r="T281" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -6497,7 +6504,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F282" s="5" t="n"/>
+      <c r="F282" s="6" t="n"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6513,7 +6520,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F283" s="5" t="n"/>
+      <c r="F283" s="6" t="n"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6527,7 +6534,7 @@
           <t>HOSE REEL CONTROL CABINET</t>
         </is>
       </c>
-      <c r="F284" s="5" t="n"/>
+      <c r="F284" s="6" t="n"/>
       <c r="G284" t="n">
         <v>15</v>
       </c>
@@ -6555,7 +6562,7 @@
           <t>POT SINK</t>
         </is>
       </c>
-      <c r="F285" s="5" t="n"/>
+      <c r="F285" s="6" t="n"/>
       <c r="G285" t="inlineStr">
         <is>
           <t>(2)20</t>
@@ -6590,7 +6597,7 @@
           <t>POT SHELF</t>
         </is>
       </c>
-      <c r="F286" s="5" t="n"/>
+      <c r="F286" s="6" t="n"/>
       <c r="T286" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -6609,7 +6616,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F287" s="5" t="n"/>
+      <c r="F287" s="6" t="n"/>
       <c r="T287" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -6630,7 +6637,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F288" s="5" t="n"/>
+      <c r="F288" s="6" t="n"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -6644,7 +6651,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F289" s="5" t="n"/>
+      <c r="F289" s="6" t="n"/>
       <c r="K289" t="n">
         <v>50</v>
       </c>
@@ -6666,7 +6673,7 @@
           <t>HOSE REEL</t>
         </is>
       </c>
-      <c r="F290" s="5" t="n"/>
+      <c r="F290" s="6" t="n"/>
       <c r="T290" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
@@ -6685,7 +6692,7 @@
           <t>POT AND PAN DRYING RACK</t>
         </is>
       </c>
-      <c r="F291" s="5" t="n"/>
+      <c r="F291" s="6" t="n"/>
       <c r="T291" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -6706,7 +6713,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F292" s="5" t="n"/>
+      <c r="F292" s="6" t="n"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -6722,7 +6729,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F293" s="5" t="n"/>
+      <c r="F293" s="6" t="n"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -6736,7 +6743,7 @@
           <t>PLASTIC DOOR</t>
         </is>
       </c>
-      <c r="F294" s="5" t="n"/>
+      <c r="F294" s="6" t="n"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -6752,7 +6759,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F295" s="5" t="n"/>
+      <c r="F295" s="6" t="n"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -6768,7 +6775,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F296" s="5" t="n"/>
+      <c r="F296" s="6" t="n"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -6784,7 +6791,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F297" s="5" t="n"/>
+      <c r="F297" s="6" t="n"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -6800,7 +6807,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F298" s="5" t="n"/>
+      <c r="F298" s="6" t="n"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -6814,7 +6821,7 @@
           <t>REVERSE OSMOSIS SYSTEM</t>
         </is>
       </c>
-      <c r="F299" s="5" t="n"/>
+      <c r="F299" s="6" t="n"/>
       <c r="G299" t="n">
         <v>10</v>
       </c>
@@ -6842,7 +6849,7 @@
           <t>REVERSE OSMOSIS STORAGE TANK</t>
         </is>
       </c>
-      <c r="F300" s="5" t="n"/>
+      <c r="F300" s="6" t="n"/>
       <c r="G300" t="n">
         <v>10</v>
       </c>
@@ -6866,7 +6873,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F301" s="5" t="n"/>
+      <c r="F301" s="6" t="n"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -6882,7 +6889,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F302" s="5" t="n"/>
+      <c r="F302" s="6" t="n"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -6898,7 +6905,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F303" s="5" t="n"/>
+      <c r="F303" s="6" t="n"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -6912,7 +6919,7 @@
           <t>MOP SINK CABINET</t>
         </is>
       </c>
-      <c r="F304" s="5" t="n"/>
+      <c r="F304" s="6" t="n"/>
       <c r="G304" t="n">
         <v>15</v>
       </c>
@@ -6945,7 +6952,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F305" s="5" t="n"/>
+      <c r="F305" s="6" t="n"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -6961,7 +6968,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F306" s="5" t="n"/>
+      <c r="F306" s="6" t="n"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -6977,7 +6984,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F307" s="5" t="n"/>
+      <c r="F307" s="6" t="n"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -6993,7 +7000,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F308" s="5" t="n"/>
+      <c r="F308" s="6" t="n"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7009,7 +7016,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F309" s="5" t="n"/>
+      <c r="F309" s="6" t="n"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7025,7 +7032,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F310" s="5" t="n"/>
+      <c r="F310" s="6" t="n"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7039,7 +7046,7 @@
           <t>PLASTIC DOOR</t>
         </is>
       </c>
-      <c r="F311" s="5" t="n"/>
+      <c r="F311" s="6" t="n"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7053,7 +7060,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F312" s="5" t="n"/>
+      <c r="F312" s="6" t="n"/>
       <c r="G312" t="n">
         <v>10</v>
       </c>
@@ -7080,7 +7087,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F313" s="5" t="n"/>
+      <c r="F313" s="6" t="n"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7094,7 +7101,7 @@
           <t>GLASS POLISHING TABLE</t>
         </is>
       </c>
-      <c r="F314" s="5" t="n"/>
+      <c r="F314" s="6" t="n"/>
       <c r="T314" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -7113,7 +7120,7 @@
           <t>RACK SHELF</t>
         </is>
       </c>
-      <c r="F315" s="5" t="n"/>
+      <c r="F315" s="6" t="n"/>
       <c r="T315" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
@@ -7132,7 +7139,7 @@
           <t>CLEAN DISH STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F316" s="5" t="n"/>
+      <c r="F316" s="6" t="n"/>
       <c r="T316" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
@@ -7153,7 +7160,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F317" s="5" t="n"/>
+      <c r="F317" s="6" t="n"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7171,7 +7178,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F318" s="5" t="n"/>
+      <c r="F318" s="6" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
@@ -7211,7 +7218,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F320" s="5" t="n"/>
+      <c r="F320" s="6" t="n"/>
       <c r="G320" t="n">
         <v>15</v>
       </c>
@@ -7242,7 +7249,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F321" s="5" t="n"/>
+      <c r="F321" s="6" t="n"/>
       <c r="T321" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -7261,7 +7268,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F322" s="5" t="n"/>
+      <c r="F322" s="6" t="n"/>
       <c r="T322" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -7280,7 +7287,7 @@
           <t>BEVERAGE COUNTER</t>
         </is>
       </c>
-      <c r="F323" s="5" t="n"/>
+      <c r="F323" s="6" t="n"/>
       <c r="T323" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -7299,7 +7306,7 @@
           <t>BEVERAGE CONDUIT WITH STAINLESS STEEL CHASE</t>
         </is>
       </c>
-      <c r="F324" s="5" t="n"/>
+      <c r="F324" s="6" t="n"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7313,7 +7320,7 @@
           <t>BEER DISPENSING TOWER</t>
         </is>
       </c>
-      <c r="F325" s="5" t="n"/>
+      <c r="F325" s="6" t="n"/>
       <c r="T325" t="inlineStr">
         <is>
           <t>FOUR TAPS</t>
@@ -7332,7 +7339,7 @@
           <t>DRIP TROUGH WITH GLASS RINSER</t>
         </is>
       </c>
-      <c r="F326" s="5" t="n"/>
+      <c r="F326" s="6" t="n"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7346,7 +7353,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F327" s="5" t="n"/>
+      <c r="F327" s="6" t="n"/>
       <c r="T327" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -7367,7 +7374,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F328" s="5" t="n"/>
+      <c r="F328" s="6" t="n"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7383,7 +7390,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F329" s="5" t="n"/>
+      <c r="F329" s="6" t="n"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7397,7 +7404,7 @@
           <t>GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F330" s="5" t="n"/>
+      <c r="F330" s="6" t="n"/>
       <c r="T330" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #404</t>
@@ -7416,7 +7423,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F331" s="5" t="n"/>
+      <c r="F331" s="6" t="n"/>
       <c r="T331" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -7435,7 +7442,7 @@
           <t>AIR POT</t>
         </is>
       </c>
-      <c r="F332" s="5" t="n"/>
+      <c r="F332" s="6" t="n"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -7449,7 +7456,7 @@
           <t>AIR POT STAND</t>
         </is>
       </c>
-      <c r="F333" s="5" t="n"/>
+      <c r="F333" s="6" t="n"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -7465,7 +7472,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F334" s="5" t="n"/>
+      <c r="F334" s="6" t="n"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -7479,7 +7486,7 @@
           <t>WATER FILTRATION SYSTEM</t>
         </is>
       </c>
-      <c r="F335" s="5" t="n"/>
+      <c r="F335" s="6" t="n"/>
       <c r="G335" t="n">
         <v>20</v>
       </c>
@@ -7501,13 +7508,13 @@
           <t>COFFEE GRINDER</t>
         </is>
       </c>
-      <c r="D336" t="n">
+      <c r="D336" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E336" t="n">
         <v>1</v>
       </c>
-      <c r="F336" s="5" t="n">
+      <c r="F336" s="6" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -7523,13 +7530,13 @@
           <t>COFFEE AND ICE TEA BREWER</t>
         </is>
       </c>
-      <c r="D337" t="n">
+      <c r="D337" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E337" t="n">
         <v>1</v>
       </c>
-      <c r="F337" s="5" t="n">
+      <c r="F337" s="6" t="n">
         <v>45.5</v>
       </c>
       <c r="G337" t="n">
@@ -7550,7 +7557,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F338" s="5" t="n"/>
+      <c r="F338" s="6" t="n"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -7566,7 +7573,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F339" s="5" t="n"/>
+      <c r="F339" s="6" t="n"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -7580,13 +7587,13 @@
           <t>HOT WATER DISPENSER</t>
         </is>
       </c>
-      <c r="D340" t="n">
+      <c r="D340" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E340" t="n">
         <v>1</v>
       </c>
-      <c r="F340" s="5" t="n">
+      <c r="F340" s="6" t="n">
         <v>18.4</v>
       </c>
       <c r="G340" t="n">
@@ -7605,13 +7612,13 @@
           <t>DOUBLE SAKI WARMER</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E341" t="n">
         <v>1</v>
       </c>
-      <c r="F341" s="5" t="n">
+      <c r="F341" s="6" t="n">
         <v>15</v>
       </c>
     </row>
@@ -7627,13 +7634,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E342" t="n">
         <v>1</v>
       </c>
-      <c r="F342" s="5" t="n">
+      <c r="F342" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="T342" t="inlineStr">
@@ -7654,7 +7661,7 @@
           <t>COFFEE GRINDER</t>
         </is>
       </c>
-      <c r="F343" s="5" t="n"/>
+      <c r="F343" s="6" t="n"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -7670,7 +7677,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F344" s="5" t="n"/>
+      <c r="F344" s="6" t="n"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -7684,7 +7691,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F345" s="5" t="n"/>
+      <c r="F345" s="6" t="n"/>
       <c r="T345" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #404</t>
@@ -7703,7 +7710,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F346" s="5" t="n"/>
+      <c r="F346" s="6" t="n"/>
       <c r="T346" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -7722,13 +7729,13 @@
           <t>ESPRESSO MACHINE</t>
         </is>
       </c>
-      <c r="D347" t="n">
+      <c r="D347" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E347" t="n">
         <v>1</v>
       </c>
-      <c r="F347" s="5" t="n">
+      <c r="F347" s="6" t="n">
         <v>26</v>
       </c>
       <c r="G347" t="n">
@@ -7755,7 +7762,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F348" s="5" t="n"/>
+      <c r="F348" s="6" t="n"/>
       <c r="K348" t="n">
         <v>50</v>
       </c>
@@ -7779,7 +7786,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F349" s="5" t="n"/>
+      <c r="F349" s="6" t="n"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -7795,7 +7802,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F350" s="5" t="n"/>
+      <c r="F350" s="6" t="n"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -7809,7 +7816,7 @@
           <t>GLASS FILLER</t>
         </is>
       </c>
-      <c r="F351" s="5" t="n"/>
+      <c r="F351" s="6" t="n"/>
       <c r="G351" t="n">
         <v>15</v>
       </c>
@@ -7834,7 +7841,7 @@
           <t>GLASS RINSER</t>
         </is>
       </c>
-      <c r="F352" s="5" t="n"/>
+      <c r="F352" s="6" t="n"/>
       <c r="G352" t="n">
         <v>15</v>
       </c>
@@ -7854,7 +7861,7 @@
           <t>DRY STORAGE SHELVING</t>
         </is>
       </c>
-      <c r="F353" s="5" t="n"/>
+      <c r="F353" s="6" t="n"/>
       <c r="T353" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
@@ -7875,7 +7882,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F354" s="5" t="n"/>
+      <c r="F354" s="6" t="n"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -7889,13 +7896,13 @@
           <t>RED WINE REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D355" t="n">
+      <c r="D355" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E355" t="n">
         <v>1</v>
       </c>
-      <c r="F355" s="5" t="n">
+      <c r="F355" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="T355" t="inlineStr">
@@ -7916,13 +7923,13 @@
           <t>WHITE WINE REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D356" t="n">
+      <c r="D356" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E356" t="n">
         <v>1</v>
       </c>
-      <c r="F356" s="5" t="n">
+      <c r="F356" s="6" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -7938,13 +7945,13 @@
           <t>REACH IN REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D357" t="n">
+      <c r="D357" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E357" t="n">
         <v>1</v>
       </c>
-      <c r="F357" s="5" t="n">
+      <c r="F357" s="6" t="n">
         <v>2.47</v>
       </c>
       <c r="T357" t="inlineStr">
@@ -7967,7 +7974,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F358" s="5" t="n"/>
+      <c r="F358" s="6" t="n"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -7983,7 +7990,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F359" s="5" t="n"/>
+      <c r="F359" s="6" t="n"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -7997,7 +8004,7 @@
           <t>DRINK SERVICE COUNTER</t>
         </is>
       </c>
-      <c r="F360" s="5" t="n"/>
+      <c r="F360" s="6" t="n"/>
       <c r="T360" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH GLASS RACK</t>
@@ -8016,13 +8023,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D361" t="n">
+      <c r="D361" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E361" t="n">
         <v>1</v>
       </c>
-      <c r="F361" s="5" t="n">
+      <c r="F361" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J361" t="n">
@@ -8052,13 +8059,13 @@
           <t>REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D362" t="n">
+      <c r="D362" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E362" t="n">
         <v>1</v>
       </c>
-      <c r="F362" s="5" t="n">
+      <c r="F362" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J362" t="n">
@@ -8088,7 +8095,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F363" s="5" t="n"/>
+      <c r="F363" s="6" t="n"/>
       <c r="T363" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #442</t>
@@ -8107,7 +8114,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F364" s="5" t="n"/>
+      <c r="F364" s="6" t="n"/>
       <c r="K364" t="n">
         <v>50</v>
       </c>
@@ -8129,7 +8136,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F365" s="5" t="n"/>
+      <c r="F365" s="6" t="n"/>
       <c r="T365" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -8148,7 +8155,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F366" s="5" t="n"/>
+      <c r="F366" s="6" t="n"/>
       <c r="T366" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -8167,13 +8174,13 @@
           <t>DROP-IN FREEZER CABINET</t>
         </is>
       </c>
-      <c r="D367" t="n">
+      <c r="D367" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E367" t="n">
         <v>1</v>
       </c>
-      <c r="F367" s="5" t="n">
+      <c r="F367" s="6" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -8191,7 +8198,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F368" s="5" t="n"/>
+      <c r="F368" s="6" t="n"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -8207,7 +8214,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F369" s="5" t="n"/>
+      <c r="F369" s="6" t="n"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -8221,7 +8228,7 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F370" s="5" t="n"/>
+      <c r="F370" s="6" t="n"/>
       <c r="H370" t="n">
         <v>15</v>
       </c>
@@ -8249,7 +8256,7 @@
           <t>PASS-THRU WINDOW AND SHELF</t>
         </is>
       </c>
-      <c r="F371" s="5" t="n"/>
+      <c r="F371" s="6" t="n"/>
       <c r="T371" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8268,13 +8275,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D372" t="n">
+      <c r="D372" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E372" t="n">
         <v>1</v>
       </c>
-      <c r="F372" s="5" t="n">
+      <c r="F372" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T372" t="inlineStr">
@@ -8295,13 +8302,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D373" t="n">
+      <c r="D373" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E373" t="n">
         <v>1</v>
       </c>
-      <c r="F373" s="5" t="n">
+      <c r="F373" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T373" t="inlineStr">
@@ -8324,7 +8331,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F374" s="5" t="n"/>
+      <c r="F374" s="6" t="n"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -8338,13 +8345,13 @@
           <t>HOOD CONTROL CABINET</t>
         </is>
       </c>
-      <c r="D375" t="n">
+      <c r="D375" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E375" t="n">
         <v>1</v>
       </c>
-      <c r="F375" s="5" t="n">
+      <c r="F375" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T375" t="inlineStr">
@@ -8367,7 +8374,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F376" s="5" t="n"/>
+      <c r="F376" s="6" t="n"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -8383,7 +8390,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F377" s="5" t="n"/>
+      <c r="F377" s="6" t="n"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -8399,7 +8406,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F378" s="5" t="n"/>
+      <c r="F378" s="6" t="n"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -8415,7 +8422,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F379" s="5" t="n"/>
+      <c r="F379" s="6" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="3" t="inlineStr">
@@ -8455,13 +8462,13 @@
           <t>FIRE SUPPRESSION SYSTEM</t>
         </is>
       </c>
-      <c r="D381" t="n">
+      <c r="D381" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E381" t="n">
         <v>1</v>
       </c>
-      <c r="F381" s="5" t="n">
+      <c r="F381" s="6" t="n">
         <v>10</v>
       </c>
       <c r="G381" t="n">
@@ -8485,7 +8492,7 @@
           <t>SMT RECESSED REMOTE STATION</t>
         </is>
       </c>
-      <c r="F382" s="5" t="n"/>
+      <c r="F382" s="6" t="n"/>
       <c r="G382" t="n">
         <v>10</v>
       </c>
@@ -8510,13 +8517,13 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D383" t="n">
+      <c r="D383" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E383" t="n">
         <v>1</v>
       </c>
-      <c r="F383" s="5" t="n">
+      <c r="F383" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M383" t="n">
@@ -8549,7 +8556,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F384" s="5" t="n"/>
+      <c r="F384" s="6" t="n"/>
       <c r="G384" t="n">
         <v>15</v>
       </c>
@@ -8580,13 +8587,13 @@
           <t>CENTRAL SANITATION SYSTEM</t>
         </is>
       </c>
-      <c r="D385" t="n">
+      <c r="D385" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E385" t="n">
         <v>1</v>
       </c>
-      <c r="F385" s="5" t="n">
+      <c r="F385" s="6" t="n">
         <v>30</v>
       </c>
       <c r="H385" t="n">
@@ -8608,7 +8615,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F386" s="5" t="n"/>
+      <c r="F386" s="6" t="n"/>
       <c r="T386" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -8627,7 +8634,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F387" s="5" t="n"/>
+      <c r="F387" s="6" t="n"/>
       <c r="T387" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -8646,7 +8653,7 @@
           <t>FOUR BURNER RANGE</t>
         </is>
       </c>
-      <c r="F388" s="5" t="n"/>
+      <c r="F388" s="6" t="n"/>
       <c r="L388" t="n">
         <v>44</v>
       </c>
@@ -8668,7 +8675,7 @@
           <t>FILL FAUCET</t>
         </is>
       </c>
-      <c r="F389" s="5" t="n"/>
+      <c r="F389" s="6" t="n"/>
       <c r="G389" t="n">
         <v>20</v>
       </c>
@@ -8691,7 +8698,7 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F390" s="5" t="n"/>
+      <c r="F390" s="6" t="n"/>
       <c r="L390" t="n">
         <v>10.3</v>
       </c>
@@ -8713,13 +8720,13 @@
           <t>WORK TABLE</t>
         </is>
       </c>
-      <c r="D391" t="n">
+      <c r="D391" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E391" t="n">
         <v>1</v>
       </c>
-      <c r="F391" s="5" t="n">
+      <c r="F391" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T391" t="inlineStr">
@@ -8740,7 +8747,7 @@
           <t>INGREDIENT BIN</t>
         </is>
       </c>
-      <c r="F392" s="5" t="n"/>
+      <c r="F392" s="6" t="n"/>
       <c r="T392" t="inlineStr">
         <is>
           <t>MOBILE WITH LID</t>
@@ -8759,7 +8766,7 @@
           <t>DOUBLE TUBULAR WALL SHELF</t>
         </is>
       </c>
-      <c r="F393" s="5" t="n"/>
+      <c r="F393" s="6" t="n"/>
       <c r="T393" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8778,7 +8785,7 @@
           <t>RICE COOKER</t>
         </is>
       </c>
-      <c r="F394" s="5" t="n"/>
+      <c r="F394" s="6" t="n"/>
       <c r="L394" t="n">
         <v>10.3</v>
       </c>
@@ -8795,7 +8802,7 @@
           <t>HOSE REEL</t>
         </is>
       </c>
-      <c r="F395" s="5" t="n"/>
+      <c r="F395" s="6" t="n"/>
       <c r="T395" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -8814,7 +8821,7 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F396" s="5" t="n"/>
+      <c r="F396" s="6" t="n"/>
       <c r="T396" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -8833,13 +8840,13 @@
           <t>PREPARATION TABLE WITH SINKS</t>
         </is>
       </c>
-      <c r="D397" t="n">
+      <c r="D397" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E397" t="n">
         <v>1</v>
       </c>
-      <c r="F397" s="5" t="n">
+      <c r="F397" s="6" t="n">
         <v>10</v>
       </c>
       <c r="G397" t="n">
@@ -8872,7 +8879,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F398" s="5" t="n"/>
+      <c r="F398" s="6" t="n"/>
       <c r="T398" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -8893,7 +8900,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F399" s="5" t="n"/>
+      <c r="F399" s="6" t="n"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -8909,7 +8916,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F400" s="5" t="n"/>
+      <c r="F400" s="6" t="n"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -8923,7 +8930,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F401" s="5" t="n"/>
+      <c r="F401" s="6" t="n"/>
       <c r="T401" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
@@ -8942,7 +8949,7 @@
           <t>VEGETABLE DRYER</t>
         </is>
       </c>
-      <c r="F402" s="5" t="n"/>
+      <c r="F402" s="6" t="n"/>
       <c r="T402" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -8961,13 +8968,13 @@
           <t>BLENDER</t>
         </is>
       </c>
-      <c r="D403" t="n">
+      <c r="D403" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E403" t="n">
         <v>1</v>
       </c>
-      <c r="F403" s="5" t="n">
+      <c r="F403" s="6" t="n">
         <v>6</v>
       </c>
       <c r="T403" t="inlineStr">
@@ -8988,13 +8995,13 @@
           <t>FOOD PROCESSOR</t>
         </is>
       </c>
-      <c r="D404" t="n">
+      <c r="D404" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E404" t="n">
         <v>1</v>
       </c>
-      <c r="F404" s="5" t="n">
+      <c r="F404" s="6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9010,7 +9017,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F405" s="5" t="n"/>
+      <c r="F405" s="6" t="n"/>
       <c r="K405" t="n">
         <v>50</v>
       </c>
@@ -9032,13 +9039,13 @@
           <t>VEGETABLE JUICER</t>
         </is>
       </c>
-      <c r="D406" t="n">
+      <c r="D406" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E406" t="n">
         <v>1</v>
       </c>
-      <c r="F406" s="5" t="n">
+      <c r="F406" s="6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9054,13 +9061,13 @@
           <t>CITRUS JUICER</t>
         </is>
       </c>
-      <c r="D407" t="n">
+      <c r="D407" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E407" t="n">
         <v>1</v>
       </c>
-      <c r="F407" s="5" t="n">
+      <c r="F407" s="6" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -9076,13 +9083,13 @@
           <t>IMMERSION CIRCULATOR</t>
         </is>
       </c>
-      <c r="D408" t="n">
+      <c r="D408" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E408" t="n">
         <v>1</v>
       </c>
-      <c r="F408" s="5" t="n">
+      <c r="F408" s="6" t="n">
         <v>4.8</v>
       </c>
     </row>
@@ -9100,7 +9107,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F409" s="5" t="n"/>
+      <c r="F409" s="6" t="n"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9116,7 +9123,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F410" s="5" t="n"/>
+      <c r="F410" s="6" t="n"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -9130,7 +9137,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F411" s="5" t="n"/>
+      <c r="F411" s="6" t="n"/>
       <c r="G411" t="n">
         <v>15</v>
       </c>
@@ -9161,7 +9168,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F412" s="5" t="n"/>
+      <c r="F412" s="6" t="n"/>
       <c r="T412" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -9180,7 +9187,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F413" s="5" t="n"/>
+      <c r="F413" s="6" t="n"/>
       <c r="T413" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -9199,7 +9206,7 @@
           <t>PASTRY PREPARATION COUNTER WITH MIXER RECESS</t>
         </is>
       </c>
-      <c r="F414" s="5" t="n"/>
+      <c r="F414" s="6" t="n"/>
       <c r="T414" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -9220,7 +9227,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F415" s="5" t="n"/>
+      <c r="F415" s="6" t="n"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -9234,7 +9241,7 @@
           <t>RECESSED MARBLE TOP</t>
         </is>
       </c>
-      <c r="F416" s="5" t="n"/>
+      <c r="F416" s="6" t="n"/>
       <c r="T416" t="inlineStr">
         <is>
           <t>PART OF ITEM #494</t>
@@ -9253,7 +9260,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F417" s="5" t="n"/>
+      <c r="F417" s="6" t="n"/>
       <c r="T417" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH INGREDIENT BINS</t>
@@ -9272,13 +9279,13 @@
           <t>INDUCTION WARMER</t>
         </is>
       </c>
-      <c r="D418" t="n">
+      <c r="D418" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E418" t="n">
         <v>1</v>
       </c>
-      <c r="F418" s="5" t="n">
+      <c r="F418" s="6" t="n">
         <v>22</v>
       </c>
       <c r="T418" t="inlineStr">
@@ -9301,7 +9308,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F419" s="5" t="n"/>
+      <c r="F419" s="6" t="n"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -9315,7 +9322,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F420" s="5" t="n"/>
+      <c r="F420" s="6" t="n"/>
       <c r="K420" t="n">
         <v>50</v>
       </c>
@@ -9337,13 +9344,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D421" t="n">
+      <c r="D421" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E421" t="n">
         <v>1</v>
       </c>
-      <c r="F421" s="5" t="n">
+      <c r="F421" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J421" t="n">
@@ -9373,13 +9380,13 @@
           <t>20 LITER MIXER</t>
         </is>
       </c>
-      <c r="D422" t="n">
+      <c r="D422" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E422" t="n">
         <v>1</v>
       </c>
-      <c r="F422" s="5" t="n">
+      <c r="F422" s="6" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -9395,7 +9402,7 @@
           <t>MIXER UTENSIL RACK</t>
         </is>
       </c>
-      <c r="F423" s="5" t="n"/>
+      <c r="F423" s="6" t="n"/>
       <c r="T423" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -9414,14 +9421,14 @@
           <t>COMBI OVEN WITH BLAST CHILLER</t>
         </is>
       </c>
-      <c r="D424" t="n">
+      <c r="D424" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E424" t="n">
         <v>1</v>
       </c>
-      <c r="F424" s="5" t="n">
-        <v>4.7</v>
+      <c r="F424" s="6" t="n">
+        <v>18.6</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -9456,7 +9463,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F425" s="5" t="n"/>
+      <c r="F425" s="6" t="n"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -9470,13 +9477,13 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D426" t="n">
+      <c r="D426" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E426" t="n">
         <v>1</v>
       </c>
-      <c r="F426" s="5" t="n">
+      <c r="F426" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M426" t="n">
@@ -9511,7 +9518,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F427" s="5" t="n"/>
+      <c r="F427" s="6" t="n"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -9527,7 +9534,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F428" s="5" t="n"/>
+      <c r="F428" s="6" t="n"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -9543,7 +9550,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F429" s="5" t="n"/>
+      <c r="F429" s="6" t="n"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -9561,7 +9568,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F430" s="5" t="n"/>
+      <c r="F430" s="6" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
@@ -9601,13 +9608,13 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D432" t="n">
+      <c r="D432" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
       </c>
-      <c r="F432" s="5" t="n">
+      <c r="F432" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M432" t="n">
@@ -9640,7 +9647,7 @@
           <t>AUTO GYOZA COOKER</t>
         </is>
       </c>
-      <c r="F433" s="5" t="n"/>
+      <c r="F433" s="6" t="n"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -9654,13 +9661,13 @@
           <t>FREEZER EQUIPMENT STAND</t>
         </is>
       </c>
-      <c r="D434" t="n">
+      <c r="D434" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
       </c>
-      <c r="F434" s="5" t="n">
+      <c r="F434" s="6" t="n">
         <v>2.5</v>
       </c>
       <c r="T434" t="inlineStr">
@@ -9681,7 +9688,7 @@
           <t>SPREADER</t>
         </is>
       </c>
-      <c r="F435" s="5" t="n"/>
+      <c r="F435" s="6" t="n"/>
       <c r="T435" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -9700,7 +9707,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F436" s="5" t="n"/>
+      <c r="F436" s="6" t="n"/>
       <c r="K436" t="n">
         <v>50</v>
       </c>
@@ -9722,7 +9729,7 @@
           <t>TEMPURA FRYER</t>
         </is>
       </c>
-      <c r="F437" s="5" t="n"/>
+      <c r="F437" s="6" t="n"/>
       <c r="L437" t="n">
         <v>35.6</v>
       </c>
@@ -9739,7 +9746,7 @@
           <t>PASTA COOKER</t>
         </is>
       </c>
-      <c r="F438" s="5" t="n"/>
+      <c r="F438" s="6" t="n"/>
       <c r="G438" t="n">
         <v>15</v>
       </c>
@@ -9767,7 +9774,7 @@
           <t>FOUR BURNER RANGE</t>
         </is>
       </c>
-      <c r="F439" s="5" t="n"/>
+      <c r="F439" s="6" t="n"/>
       <c r="L439" t="n">
         <v>49.8</v>
       </c>
@@ -9789,7 +9796,7 @@
           <t>FILL FAUCET</t>
         </is>
       </c>
-      <c r="F440" s="5" t="n"/>
+      <c r="F440" s="6" t="n"/>
       <c r="G440" t="n">
         <v>20</v>
       </c>
@@ -9812,7 +9819,7 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F441" s="5" t="n"/>
+      <c r="F441" s="6" t="n"/>
       <c r="L441" t="n">
         <v>10.3</v>
       </c>
@@ -9834,7 +9841,7 @@
           <t>TUBULAR WALL SHELF</t>
         </is>
       </c>
-      <c r="F442" s="5" t="n"/>
+      <c r="F442" s="6" t="n"/>
       <c r="T442" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -9853,13 +9860,13 @@
           <t>SIX BURNER RANGE</t>
         </is>
       </c>
-      <c r="D443" t="n">
+      <c r="D443" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E443" t="n">
         <v>1</v>
       </c>
-      <c r="F443" s="5" t="n">
+      <c r="F443" s="6" t="n">
         <v>3</v>
       </c>
       <c r="L443" t="n">
@@ -9883,7 +9890,7 @@
           <t>SALAMANDER</t>
         </is>
       </c>
-      <c r="F444" s="5" t="n"/>
+      <c r="F444" s="6" t="n"/>
       <c r="L444" t="n">
         <v>10.3</v>
       </c>
@@ -9905,13 +9912,13 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D445" t="n">
+      <c r="D445" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E445" t="n">
         <v>1</v>
       </c>
-      <c r="F445" s="5" t="n">
+      <c r="F445" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M445" t="n">
@@ -9946,7 +9953,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F446" s="5" t="n"/>
+      <c r="F446" s="6" t="n"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -9960,13 +9967,13 @@
           <t>SOLID FUEL EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D447" t="n">
+      <c r="D447" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E447" t="n">
         <v>1</v>
       </c>
-      <c r="F447" s="5" t="n">
+      <c r="F447" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M447" t="n">
@@ -9999,7 +10006,7 @@
           <t>FILL FAUCET</t>
         </is>
       </c>
-      <c r="F448" s="5" t="n"/>
+      <c r="F448" s="6" t="n"/>
       <c r="G448" t="n">
         <v>20</v>
       </c>
@@ -10022,7 +10029,7 @@
           <t>CHARCOAL GRILL AND OVEN</t>
         </is>
       </c>
-      <c r="F449" s="5" t="n"/>
+      <c r="F449" s="6" t="n"/>
       <c r="T449" t="inlineStr">
         <is>
           <t>MOBILE</t>
@@ -10043,7 +10050,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F450" s="5" t="n"/>
+      <c r="F450" s="6" t="n"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -10059,7 +10066,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F451" s="5" t="n"/>
+      <c r="F451" s="6" t="n"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -10073,13 +10080,13 @@
           <t>INDUCTION WARMER</t>
         </is>
       </c>
-      <c r="D452" t="n">
+      <c r="D452" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E452" t="n">
         <v>1</v>
       </c>
-      <c r="F452" s="5" t="n">
+      <c r="F452" s="6" t="n">
         <v>22</v>
       </c>
       <c r="T452" t="inlineStr">
@@ -10100,13 +10107,13 @@
           <t>INDUCTION WARMER</t>
         </is>
       </c>
-      <c r="D453" t="n">
+      <c r="D453" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E453" t="n">
         <v>1</v>
       </c>
-      <c r="F453" s="5" t="n">
+      <c r="F453" s="6" t="n">
         <v>15</v>
       </c>
       <c r="T453" t="inlineStr">
@@ -10127,7 +10134,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F454" s="5" t="n"/>
+      <c r="F454" s="6" t="n"/>
       <c r="T454" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10146,7 +10153,7 @@
           <t>PASTRY PREPARATION COUNTER</t>
         </is>
       </c>
-      <c r="F455" s="5" t="n"/>
+      <c r="F455" s="6" t="n"/>
       <c r="T455" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10167,7 +10174,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F456" s="5" t="n"/>
+      <c r="F456" s="6" t="n"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -10181,7 +10188,7 @@
           <t>INGREDIENT BIN</t>
         </is>
       </c>
-      <c r="F457" s="5" t="n"/>
+      <c r="F457" s="6" t="n"/>
       <c r="T457" t="inlineStr">
         <is>
           <t>MOBILE WITH LID</t>
@@ -10200,13 +10207,13 @@
           <t>10L. MIXER</t>
         </is>
       </c>
-      <c r="D458" t="n">
+      <c r="D458" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E458" t="n">
         <v>1</v>
       </c>
-      <c r="F458" s="5" t="n">
+      <c r="F458" s="6" t="n">
         <v>13</v>
       </c>
     </row>
@@ -10222,13 +10229,13 @@
           <t>SHAVED ICE MACHINE</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
       </c>
-      <c r="F459" s="5" t="n">
+      <c r="F459" s="6" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -10246,7 +10253,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F460" s="5" t="n"/>
+      <c r="F460" s="6" t="n"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -10260,7 +10267,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F461" s="5" t="n"/>
+      <c r="F461" s="6" t="n"/>
       <c r="K461" t="n">
         <v>50</v>
       </c>
@@ -10282,13 +10289,13 @@
           <t>DESERT FREEZER</t>
         </is>
       </c>
-      <c r="D462" t="n">
+      <c r="D462" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E462" t="n">
         <v>1</v>
       </c>
-      <c r="F462" s="5" t="n">
+      <c r="F462" s="6" t="n">
         <v>4.1</v>
       </c>
     </row>
@@ -10304,13 +10311,13 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
       </c>
-      <c r="F463" s="5" t="n">
+      <c r="F463" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="T463" t="inlineStr">
@@ -10331,13 +10338,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D464" t="n">
+      <c r="D464" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
       </c>
-      <c r="F464" s="5" t="n">
+      <c r="F464" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="T464" t="inlineStr">
@@ -10358,13 +10365,13 @@
           <t>COUNTERTOP FRYER</t>
         </is>
       </c>
-      <c r="D465" t="n">
+      <c r="D465" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E465" t="n">
         <v>1</v>
       </c>
-      <c r="F465" s="5" t="n">
+      <c r="F465" s="6" t="n">
         <v>24</v>
       </c>
     </row>
@@ -10382,7 +10389,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F466" s="5" t="n"/>
+      <c r="F466" s="6" t="n"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -10396,13 +10403,13 @@
           <t>COUNTERTOP COMBI OVEN</t>
         </is>
       </c>
-      <c r="D467" t="n">
+      <c r="D467" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E467" t="n">
         <v>1</v>
       </c>
-      <c r="F467" s="5" t="n">
+      <c r="F467" s="6" t="n">
         <v>4.7</v>
       </c>
       <c r="G467" t="inlineStr">
@@ -10434,13 +10441,13 @@
           <t>EXHAUST HOOD</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E468" t="n">
         <v>1</v>
       </c>
-      <c r="F468" s="5" t="n">
+      <c r="F468" s="6" t="n">
         <v>10</v>
       </c>
       <c r="M468" t="n">
@@ -10473,7 +10480,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F469" s="5" t="n"/>
+      <c r="F469" s="6" t="n"/>
       <c r="K469" t="n">
         <v>50</v>
       </c>
@@ -10497,7 +10504,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F470" s="5" t="n"/>
+      <c r="F470" s="6" t="n"/>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -10515,7 +10522,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F471" s="5" t="n"/>
+      <c r="F471" s="6" t="n"/>
     </row>
     <row r="472">
       <c r="A472" s="3" t="inlineStr">
@@ -10555,7 +10562,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F473" s="5" t="n"/>
+      <c r="F473" s="6" t="n"/>
       <c r="G473" t="n">
         <v>15</v>
       </c>
@@ -10586,7 +10593,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F474" s="5" t="n"/>
+      <c r="F474" s="6" t="n"/>
       <c r="T474" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -10605,7 +10612,7 @@
           <t>UV INSPECTION CABINET</t>
         </is>
       </c>
-      <c r="F475" s="5" t="n"/>
+      <c r="F475" s="6" t="n"/>
       <c r="T475" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
@@ -10624,13 +10631,13 @@
           <t>CHEF'S COUNTER WITH SINK</t>
         </is>
       </c>
-      <c r="D476" t="n">
+      <c r="D476" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E476" t="n">
         <v>1</v>
       </c>
-      <c r="F476" s="5" t="n">
+      <c r="F476" s="6" t="n">
         <v>10</v>
       </c>
       <c r="G476" t="n">
@@ -10665,7 +10672,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F477" s="5" t="n"/>
+      <c r="F477" s="6" t="n"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -10679,7 +10686,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F478" s="5" t="n"/>
+      <c r="F478" s="6" t="n"/>
       <c r="T478" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
@@ -10698,7 +10705,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F479" s="5" t="n"/>
+      <c r="F479" s="6" t="n"/>
       <c r="T479" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10717,7 +10724,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F480" s="5" t="n"/>
+      <c r="F480" s="6" t="n"/>
       <c r="T480" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
@@ -10738,7 +10745,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F481" s="5" t="n"/>
+      <c r="F481" s="6" t="n"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -10754,7 +10761,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F482" s="5" t="n"/>
+      <c r="F482" s="6" t="n"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -10768,7 +10775,7 @@
           <t>DOUBLE WALL SHELF</t>
         </is>
       </c>
-      <c r="F483" s="5" t="n"/>
+      <c r="F483" s="6" t="n"/>
       <c r="T483" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10787,13 +10794,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D484" t="n">
+      <c r="D484" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E484" t="n">
         <v>1</v>
       </c>
-      <c r="F484" s="5" t="n">
+      <c r="F484" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="T484" t="inlineStr">
@@ -10814,13 +10821,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D485" t="n">
+      <c r="D485" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E485" t="n">
         <v>1</v>
       </c>
-      <c r="F485" s="5" t="n">
+      <c r="F485" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T485" t="inlineStr">
@@ -10843,7 +10850,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F486" s="5" t="n"/>
+      <c r="F486" s="6" t="n"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -10857,13 +10864,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D487" t="n">
+      <c r="D487" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E487" t="n">
         <v>1</v>
       </c>
-      <c r="F487" s="5" t="n">
+      <c r="F487" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="T487" t="inlineStr">
@@ -10884,7 +10891,7 @@
           <t>CHECK STRIP</t>
         </is>
       </c>
-      <c r="F488" s="5" t="n"/>
+      <c r="F488" s="6" t="n"/>
       <c r="T488" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10903,7 +10910,7 @@
           <t>PASS-THRU WINDOW AND SHELF</t>
         </is>
       </c>
-      <c r="F489" s="5" t="n"/>
+      <c r="F489" s="6" t="n"/>
       <c r="T489" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -10924,7 +10931,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F490" s="5" t="n"/>
+      <c r="F490" s="6" t="n"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -10938,13 +10945,13 @@
           <t>RETRACTABLE FOOD WARMER</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E491" t="n">
         <v>1</v>
       </c>
-      <c r="F491" s="5" t="n">
+      <c r="F491" s="6" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -10960,13 +10967,13 @@
           <t>UNDER SHELF TASK LIGHT</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E492" t="n">
         <v>1</v>
       </c>
-      <c r="F492" s="5" t="n">
+      <c r="F492" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -10982,13 +10989,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E493" t="n">
         <v>1</v>
       </c>
-      <c r="F493" s="5" t="n">
+      <c r="F493" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="T493" t="inlineStr">
@@ -11009,7 +11016,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F494" s="5" t="n"/>
+      <c r="F494" s="6" t="n"/>
       <c r="G494" t="n">
         <v>15</v>
       </c>
@@ -11040,7 +11047,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F495" s="5" t="n"/>
+      <c r="F495" s="6" t="n"/>
       <c r="T495" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -11061,7 +11068,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F496" s="5" t="n"/>
+      <c r="F496" s="6" t="n"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -11077,7 +11084,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F497" s="5" t="n"/>
+      <c r="F497" s="6" t="n"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -11091,13 +11098,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D498" t="n">
+      <c r="D498" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E498" t="n">
         <v>1</v>
       </c>
-      <c r="F498" s="5" t="n">
+      <c r="F498" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T498" t="inlineStr">
@@ -11118,13 +11125,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D499" t="n">
+      <c r="D499" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E499" t="n">
         <v>1</v>
       </c>
-      <c r="F499" s="5" t="n">
+      <c r="F499" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="T499" t="inlineStr">
@@ -11147,7 +11154,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F500" s="5" t="n"/>
+      <c r="F500" s="6" t="n"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -11163,7 +11170,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F501" s="5" t="n"/>
+      <c r="F501" s="6" t="n"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -11177,7 +11184,7 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F502" s="5" t="n"/>
+      <c r="F502" s="6" t="n"/>
       <c r="H502" t="n">
         <v>15</v>
       </c>
@@ -11205,13 +11212,13 @@
           <t>DROP-IN FREEZER CABINET</t>
         </is>
       </c>
-      <c r="D503" t="n">
+      <c r="D503" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E503" t="n">
         <v>1</v>
       </c>
-      <c r="F503" s="5" t="n">
+      <c r="F503" s="6" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -11227,7 +11234,7 @@
           <t>RECESSED MARBLE TOP</t>
         </is>
       </c>
-      <c r="F504" s="5" t="n"/>
+      <c r="F504" s="6" t="n"/>
       <c r="T504" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
@@ -11248,7 +11255,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F505" s="5" t="n"/>
+      <c r="F505" s="6" t="n"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -11266,7 +11273,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F506" s="5" t="n"/>
+      <c r="F506" s="6" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="3" t="inlineStr">
@@ -11306,13 +11313,13 @@
           <t>SUSHI BAR BACK COUNTER</t>
         </is>
       </c>
-      <c r="D508" t="n">
+      <c r="D508" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E508" t="n">
         <v>1</v>
       </c>
-      <c r="F508" s="5" t="n">
+      <c r="F508" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T508" t="inlineStr">
@@ -11333,13 +11340,13 @@
           <t>RICE WARMER</t>
         </is>
       </c>
-      <c r="D509" t="n">
+      <c r="D509" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E509" t="n">
         <v>1</v>
       </c>
-      <c r="F509" s="5" t="n">
+      <c r="F509" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -11355,7 +11362,7 @@
           <t>DIPPERWELL</t>
         </is>
       </c>
-      <c r="F510" s="5" t="n"/>
+      <c r="F510" s="6" t="n"/>
       <c r="H510" t="n">
         <v>15</v>
       </c>
@@ -11383,7 +11390,7 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F511" s="5" t="n"/>
+      <c r="F511" s="6" t="n"/>
       <c r="G511" t="n">
         <v>15</v>
       </c>
@@ -11416,7 +11423,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F512" s="5" t="n"/>
+      <c r="F512" s="6" t="n"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -11430,7 +11437,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F513" s="5" t="n"/>
+      <c r="F513" s="6" t="n"/>
       <c r="T513" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -11449,13 +11456,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D514" t="n">
+      <c r="D514" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E514" t="n">
         <v>1</v>
       </c>
-      <c r="F514" s="5" t="n">
+      <c r="F514" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T514" t="inlineStr">
@@ -11476,13 +11483,13 @@
           <t>SUSHI CASE</t>
         </is>
       </c>
-      <c r="D515" t="n">
+      <c r="D515" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E515" t="n">
         <v>1</v>
       </c>
-      <c r="F515" s="5" t="n">
+      <c r="F515" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T515" t="inlineStr">
@@ -11503,7 +11510,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F516" s="5" t="n"/>
+      <c r="F516" s="6" t="n"/>
       <c r="K516" t="n">
         <v>50</v>
       </c>
@@ -11527,7 +11534,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F517" s="5" t="n"/>
+      <c r="F517" s="6" t="n"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -11541,13 +11548,13 @@
           <t>TOWEL WARMER</t>
         </is>
       </c>
-      <c r="D518" t="n">
+      <c r="D518" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E518" t="n">
         <v>1</v>
       </c>
-      <c r="F518" s="5" t="n">
+      <c r="F518" s="6" t="n">
         <v>1.9</v>
       </c>
     </row>
@@ -11565,7 +11572,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F519" s="5" t="n"/>
+      <c r="F519" s="6" t="n"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -11579,13 +11586,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D520" t="n">
+      <c r="D520" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E520" t="n">
         <v>1</v>
       </c>
-      <c r="F520" s="5" t="n">
+      <c r="F520" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J520" t="n">
@@ -11615,13 +11622,13 @@
           <t>OPEN INSULATED CABINET</t>
         </is>
       </c>
-      <c r="D521" t="n">
+      <c r="D521" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E521" t="n">
         <v>1</v>
       </c>
-      <c r="F521" s="5" t="n">
+      <c r="F521" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T521" t="inlineStr">
@@ -11644,7 +11651,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F522" s="5" t="n"/>
+      <c r="F522" s="6" t="n"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -11658,13 +11665,13 @@
           <t>TOASTER OVEN</t>
         </is>
       </c>
-      <c r="D523" t="n">
+      <c r="D523" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E523" t="n">
         <v>1</v>
       </c>
-      <c r="F523" s="5" t="n">
+      <c r="F523" s="6" t="n">
         <v>7.2</v>
       </c>
       <c r="T523" t="inlineStr">
@@ -11685,13 +11692,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D524" t="n">
+      <c r="D524" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E524" t="n">
         <v>1</v>
       </c>
-      <c r="F524" s="5" t="n">
+      <c r="F524" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J524" t="n">
@@ -11721,13 +11728,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D525" t="n">
+      <c r="D525" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E525" t="n">
         <v>1</v>
       </c>
-      <c r="F525" s="5" t="n">
+      <c r="F525" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T525" t="inlineStr">
@@ -11750,7 +11757,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F526" s="5" t="n"/>
+      <c r="F526" s="6" t="n"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -11764,7 +11771,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F527" s="5" t="n"/>
+      <c r="F527" s="6" t="n"/>
       <c r="K527" t="n">
         <v>50</v>
       </c>
@@ -11786,13 +11793,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D528" t="n">
+      <c r="D528" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E528" t="n">
         <v>1</v>
       </c>
-      <c r="F528" s="5" t="n">
+      <c r="F528" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J528" t="n">
@@ -11824,7 +11831,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F529" s="5" t="n"/>
+      <c r="F529" s="6" t="n"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -11838,13 +11845,13 @@
           <t>SUSHI CASE</t>
         </is>
       </c>
-      <c r="D530" t="n">
+      <c r="D530" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E530" t="n">
         <v>1</v>
       </c>
-      <c r="F530" s="5" t="n">
+      <c r="F530" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T530" t="inlineStr">
@@ -11865,13 +11872,13 @@
           <t>OPEN INSULATED CABINET</t>
         </is>
       </c>
-      <c r="D531" t="n">
+      <c r="D531" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E531" t="n">
         <v>1</v>
       </c>
-      <c r="F531" s="5" t="n">
+      <c r="F531" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T531" t="inlineStr">
@@ -11894,7 +11901,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F532" s="5" t="n"/>
+      <c r="F532" s="6" t="n"/>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -11908,13 +11915,13 @@
           <t>TOASTER OVEN</t>
         </is>
       </c>
-      <c r="D533" t="n">
+      <c r="D533" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E533" t="n">
         <v>1</v>
       </c>
-      <c r="F533" s="5" t="n">
+      <c r="F533" s="6" t="n">
         <v>7.2</v>
       </c>
       <c r="T533" t="inlineStr">
@@ -11935,13 +11942,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D534" t="n">
+      <c r="D534" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E534" t="n">
         <v>1</v>
       </c>
-      <c r="F534" s="5" t="n">
+      <c r="F534" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J534" t="n">
@@ -11971,7 +11978,7 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="F535" s="5" t="n"/>
+      <c r="F535" s="6" t="n"/>
       <c r="T535" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
@@ -11992,7 +11999,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F536" s="5" t="n"/>
+      <c r="F536" s="6" t="n"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -12008,7 +12015,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F537" s="5" t="n"/>
+      <c r="F537" s="6" t="n"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -12022,13 +12029,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D538" t="n">
+      <c r="D538" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E538" t="n">
         <v>1</v>
       </c>
-      <c r="F538" s="5" t="n">
+      <c r="F538" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T538" t="inlineStr">
@@ -12049,7 +12056,7 @@
           <t>STAINLESS STEEL TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F539" s="5" t="n"/>
+      <c r="F539" s="6" t="n"/>
       <c r="T539" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -12068,7 +12075,7 @@
           <t>DROP-IN HAND SINK</t>
         </is>
       </c>
-      <c r="F540" s="5" t="n"/>
+      <c r="F540" s="6" t="n"/>
       <c r="G540" t="n">
         <v>15</v>
       </c>
@@ -12099,7 +12106,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F541" s="5" t="n"/>
+      <c r="F541" s="6" t="n"/>
       <c r="K541" t="n">
         <v>50</v>
       </c>
@@ -12125,7 +12132,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F542" s="5" t="n"/>
+      <c r="F542" s="6" t="n"/>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -12139,7 +12146,7 @@
           <t>SUSHI FRONT SERVING COUNTER</t>
         </is>
       </c>
-      <c r="F543" s="5" t="n"/>
+      <c r="F543" s="6" t="n"/>
       <c r="T543" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -12158,13 +12165,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D544" t="n">
+      <c r="D544" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E544" t="n">
         <v>1</v>
       </c>
-      <c r="F544" s="5" t="n">
+      <c r="F544" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T544" t="inlineStr">
@@ -12185,13 +12192,13 @@
           <t>RICE WARMER</t>
         </is>
       </c>
-      <c r="D545" t="n">
+      <c r="D545" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E545" t="n">
         <v>1</v>
       </c>
-      <c r="F545" s="5" t="n">
+      <c r="F545" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12207,7 +12214,7 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F546" s="5" t="n"/>
+      <c r="F546" s="6" t="n"/>
       <c r="T546" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -12228,7 +12235,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F547" s="5" t="n"/>
+      <c r="F547" s="6" t="n"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -12242,13 +12249,13 @@
           <t>NORI WARMER</t>
         </is>
       </c>
-      <c r="D548" t="n">
+      <c r="D548" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E548" t="n">
         <v>1</v>
       </c>
-      <c r="F548" s="5" t="n">
+      <c r="F548" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -12264,13 +12271,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D549" t="n">
+      <c r="D549" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E549" t="n">
         <v>1</v>
       </c>
-      <c r="F549" s="5" t="n">
+      <c r="F549" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J549" t="n">
@@ -12300,13 +12307,13 @@
           <t>SUSHI CASE</t>
         </is>
       </c>
-      <c r="D550" t="n">
+      <c r="D550" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E550" t="n">
         <v>1</v>
       </c>
-      <c r="F550" s="5" t="n">
+      <c r="F550" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T550" t="inlineStr">
@@ -12329,7 +12336,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F551" s="5" t="n"/>
+      <c r="F551" s="6" t="n"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -12345,7 +12352,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F552" s="5" t="n"/>
+      <c r="F552" s="6" t="n"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -12359,7 +12366,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F553" s="5" t="n"/>
+      <c r="F553" s="6" t="n"/>
       <c r="T553" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
@@ -12378,7 +12385,7 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F554" s="5" t="n"/>
+      <c r="F554" s="6" t="n"/>
       <c r="G554" t="n">
         <v>15</v>
       </c>
@@ -12409,13 +12416,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D555" t="n">
+      <c r="D555" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E555" t="n">
         <v>1</v>
       </c>
-      <c r="F555" s="5" t="n">
+      <c r="F555" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J555" t="n">
@@ -12445,7 +12452,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F556" s="5" t="n"/>
+      <c r="F556" s="6" t="n"/>
       <c r="T556" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
@@ -12466,7 +12473,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F557" s="5" t="n"/>
+      <c r="F557" s="6" t="n"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -12480,13 +12487,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D558" t="n">
+      <c r="D558" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E558" t="n">
         <v>1</v>
       </c>
-      <c r="F558" s="5" t="n">
+      <c r="F558" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T558" t="inlineStr">
@@ -12507,13 +12514,13 @@
           <t>RICE WARMER</t>
         </is>
       </c>
-      <c r="D559" t="n">
+      <c r="D559" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E559" t="n">
         <v>1</v>
       </c>
-      <c r="F559" s="5" t="n">
+      <c r="F559" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12529,7 +12536,7 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F560" s="5" t="n"/>
+      <c r="F560" s="6" t="n"/>
       <c r="T560" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -12550,7 +12557,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F561" s="5" t="n"/>
+      <c r="F561" s="6" t="n"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -12566,7 +12573,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F562" s="5" t="n"/>
+      <c r="F562" s="6" t="n"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -12580,13 +12587,13 @@
           <t>NORI WARMER</t>
         </is>
       </c>
-      <c r="D563" t="n">
+      <c r="D563" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E563" t="n">
         <v>1</v>
       </c>
-      <c r="F563" s="5" t="n">
+      <c r="F563" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -12602,13 +12609,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D564" t="n">
+      <c r="D564" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E564" t="n">
         <v>1</v>
       </c>
-      <c r="F564" s="5" t="n">
+      <c r="F564" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J564" t="n">
@@ -12638,7 +12645,7 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F565" s="5" t="n"/>
+      <c r="F565" s="6" t="n"/>
       <c r="G565" t="n">
         <v>15</v>
       </c>
@@ -12669,13 +12676,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D566" t="n">
+      <c r="D566" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E566" t="n">
         <v>1</v>
       </c>
-      <c r="F566" s="5" t="n">
+      <c r="F566" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J566" t="n">
@@ -12707,7 +12714,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F567" s="5" t="n"/>
+      <c r="F567" s="6" t="n"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -12721,7 +12728,7 @@
           <t>RECESSED CUTTING BOARD</t>
         </is>
       </c>
-      <c r="F568" s="5" t="n"/>
+      <c r="F568" s="6" t="n"/>
       <c r="T568" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
@@ -12740,13 +12747,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D569" t="n">
+      <c r="D569" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E569" t="n">
         <v>1</v>
       </c>
-      <c r="F569" s="5" t="n">
+      <c r="F569" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T569" t="inlineStr">
@@ -12767,13 +12774,13 @@
           <t>RICE WARMER</t>
         </is>
       </c>
-      <c r="D570" t="n">
+      <c r="D570" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E570" t="n">
         <v>1</v>
       </c>
-      <c r="F570" s="5" t="n">
+      <c r="F570" s="6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12791,7 +12798,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F571" s="5" t="n"/>
+      <c r="F571" s="6" t="n"/>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -12807,7 +12814,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F572" s="5" t="n"/>
+      <c r="F572" s="6" t="n"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -12821,7 +12828,7 @@
           <t>RICE WARMER STAND</t>
         </is>
       </c>
-      <c r="F573" s="5" t="n"/>
+      <c r="F573" s="6" t="n"/>
       <c r="T573" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
@@ -12840,13 +12847,13 @@
           <t>NORI WARMER</t>
         </is>
       </c>
-      <c r="D574" t="n">
+      <c r="D574" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E574" t="n">
         <v>1</v>
       </c>
-      <c r="F574" s="5" t="n">
+      <c r="F574" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -12862,13 +12869,13 @@
           <t>UNDERCOUNTER REFRIGERATOR WITH SLIDING GLASS DOORS AND PAN SLIDES</t>
         </is>
       </c>
-      <c r="D575" t="n">
+      <c r="D575" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E575" t="n">
         <v>1</v>
       </c>
-      <c r="F575" s="5" t="n">
+      <c r="F575" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J575" t="n">
@@ -12898,7 +12905,7 @@
           <t>PREPARATION SINK</t>
         </is>
       </c>
-      <c r="F576" s="5" t="n"/>
+      <c r="F576" s="6" t="n"/>
       <c r="G576" t="n">
         <v>15</v>
       </c>
@@ -12931,7 +12938,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F577" s="5" t="n"/>
+      <c r="F577" s="6" t="n"/>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -12945,7 +12952,7 @@
           <t>SUSHI BAR TOP AND DIE</t>
         </is>
       </c>
-      <c r="F578" s="5" t="n"/>
+      <c r="F578" s="6" t="n"/>
       <c r="T578" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER</t>
@@ -12966,7 +12973,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F579" s="5" t="n"/>
+      <c r="F579" s="6" t="n"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -12982,7 +12989,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F580" s="5" t="n"/>
+      <c r="F580" s="6" t="n"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -12998,7 +13005,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F581" s="5" t="n"/>
+      <c r="F581" s="6" t="n"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -13016,7 +13023,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F582" s="5" t="n"/>
+      <c r="F582" s="6" t="n"/>
     </row>
     <row r="583">
       <c r="A583" s="3" t="inlineStr">
@@ -13056,7 +13063,7 @@
           <t>BAR TOP AND DIE</t>
         </is>
       </c>
-      <c r="F584" s="5" t="n"/>
+      <c r="F584" s="6" t="n"/>
       <c r="T584" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER WITH DRINK RAIL</t>
@@ -13075,7 +13082,7 @@
           <t>BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F585" s="5" t="n"/>
+      <c r="F585" s="6" t="n"/>
       <c r="T585" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -13094,7 +13101,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F586" s="5" t="n"/>
+      <c r="F586" s="6" t="n"/>
       <c r="G586" t="n">
         <v>15</v>
       </c>
@@ -13125,13 +13132,13 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D587" t="n">
+      <c r="D587" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E587" t="n">
         <v>1</v>
       </c>
-      <c r="F587" s="5" t="n">
+      <c r="F587" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J587" t="n">
@@ -13161,7 +13168,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F588" s="5" t="n"/>
+      <c r="F588" s="6" t="n"/>
       <c r="K588" t="n">
         <v>50</v>
       </c>
@@ -13183,13 +13190,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D589" t="n">
+      <c r="D589" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E589" t="n">
         <v>1</v>
       </c>
-      <c r="F589" s="5" t="n">
+      <c r="F589" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T589" t="inlineStr">
@@ -13210,13 +13217,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D590" t="n">
+      <c r="D590" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E590" t="n">
         <v>1</v>
       </c>
-      <c r="F590" s="5" t="n">
+      <c r="F590" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T590" t="inlineStr">
@@ -13237,7 +13244,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F591" s="5" t="n"/>
+      <c r="F591" s="6" t="n"/>
       <c r="G591" t="n">
         <v>15</v>
       </c>
@@ -13270,7 +13277,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F592" s="5" t="n"/>
+      <c r="F592" s="6" t="n"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -13286,7 +13293,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F593" s="5" t="n"/>
+      <c r="F593" s="6" t="n"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -13300,7 +13307,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F594" s="5" t="n"/>
+      <c r="F594" s="6" t="n"/>
       <c r="T594" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13319,7 +13326,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F595" s="5" t="n"/>
+      <c r="F595" s="6" t="n"/>
       <c r="T595" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -13338,7 +13345,7 @@
           <t>BLENDER STATION</t>
         </is>
       </c>
-      <c r="F596" s="5" t="n"/>
+      <c r="F596" s="6" t="n"/>
       <c r="T596" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13357,13 +13364,13 @@
           <t>BAR BLENDER</t>
         </is>
       </c>
-      <c r="D597" t="n">
+      <c r="D597" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E597" t="n">
         <v>1</v>
       </c>
-      <c r="F597" s="5" t="n">
+      <c r="F597" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="T597" t="inlineStr">
@@ -13386,7 +13393,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F598" s="5" t="n"/>
+      <c r="F598" s="6" t="n"/>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -13400,7 +13407,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F599" s="5" t="n"/>
+      <c r="F599" s="6" t="n"/>
       <c r="T599" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -13419,7 +13426,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F600" s="5" t="n"/>
+      <c r="F600" s="6" t="n"/>
       <c r="T600" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -13438,13 +13445,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D601" t="n">
+      <c r="D601" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E601" t="n">
         <v>1</v>
       </c>
-      <c r="F601" s="5" t="n">
+      <c r="F601" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J601" t="n">
@@ -13476,7 +13483,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F602" s="5" t="n"/>
+      <c r="F602" s="6" t="n"/>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -13492,7 +13499,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F603" s="5" t="n"/>
+      <c r="F603" s="6" t="n"/>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -13506,13 +13513,13 @@
           <t>STAIR STEP REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D604" t="n">
+      <c r="D604" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E604" t="n">
         <v>1</v>
       </c>
-      <c r="F604" s="5" t="n">
+      <c r="F604" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J604" t="n">
@@ -13542,7 +13549,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F605" s="5" t="n"/>
+      <c r="F605" s="6" t="n"/>
       <c r="T605" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13561,13 +13568,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D606" t="n">
+      <c r="D606" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E606" t="n">
         <v>1</v>
       </c>
-      <c r="F606" s="5" t="n">
+      <c r="F606" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J606" t="n">
@@ -13597,7 +13604,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F607" s="5" t="n"/>
+      <c r="F607" s="6" t="n"/>
       <c r="G607" t="n">
         <v>15</v>
       </c>
@@ -13630,7 +13637,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F608" s="5" t="n"/>
+      <c r="F608" s="6" t="n"/>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -13644,7 +13651,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F609" s="5" t="n"/>
+      <c r="F609" s="6" t="n"/>
       <c r="T609" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13663,7 +13670,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F610" s="5" t="n"/>
+      <c r="F610" s="6" t="n"/>
       <c r="T610" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -13682,7 +13689,7 @@
           <t>BLENDER STATION</t>
         </is>
       </c>
-      <c r="F611" s="5" t="n"/>
+      <c r="F611" s="6" t="n"/>
       <c r="T611" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13703,7 +13710,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F612" s="5" t="n"/>
+      <c r="F612" s="6" t="n"/>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -13719,7 +13726,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F613" s="5" t="n"/>
+      <c r="F613" s="6" t="n"/>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -13733,13 +13740,13 @@
           <t>BAR BLENDER</t>
         </is>
       </c>
-      <c r="D614" t="n">
+      <c r="D614" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E614" t="n">
         <v>1</v>
       </c>
-      <c r="F614" s="5" t="n">
+      <c r="F614" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="T614" t="inlineStr">
@@ -13760,7 +13767,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F615" s="5" t="n"/>
+      <c r="F615" s="6" t="n"/>
       <c r="T615" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -13779,7 +13786,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F616" s="5" t="n"/>
+      <c r="F616" s="6" t="n"/>
       <c r="T616" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -13798,13 +13805,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D617" t="n">
+      <c r="D617" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E617" t="n">
         <v>1</v>
       </c>
-      <c r="F617" s="5" t="n">
+      <c r="F617" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J617" t="n">
@@ -13836,7 +13843,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F618" s="5" t="n"/>
+      <c r="F618" s="6" t="n"/>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -13850,13 +13857,13 @@
           <t>STAIR STEP REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D619" t="n">
+      <c r="D619" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E619" t="n">
         <v>1</v>
       </c>
-      <c r="F619" s="5" t="n">
+      <c r="F619" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J619" t="n">
@@ -13886,7 +13893,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F620" s="5" t="n"/>
+      <c r="F620" s="6" t="n"/>
       <c r="T620" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -13905,13 +13912,13 @@
           <t>UNDERCOUNTER FREEZER WITH CARVING BOARD TOP</t>
         </is>
       </c>
-      <c r="D621" t="n">
+      <c r="D621" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E621" t="n">
         <v>1</v>
       </c>
-      <c r="F621" s="5" t="n">
+      <c r="F621" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J621" t="n">
@@ -13941,7 +13948,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F622" s="5" t="n"/>
+      <c r="F622" s="6" t="n"/>
       <c r="K622" t="n">
         <v>50</v>
       </c>
@@ -13965,7 +13972,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F623" s="5" t="n"/>
+      <c r="F623" s="6" t="n"/>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -13979,13 +13986,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D624" t="n">
+      <c r="D624" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E624" t="n">
         <v>1</v>
       </c>
-      <c r="F624" s="5" t="n">
+      <c r="F624" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J624" t="n">
@@ -14015,13 +14022,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D625" t="n">
+      <c r="D625" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E625" t="n">
         <v>1</v>
       </c>
-      <c r="F625" s="5" t="n">
+      <c r="F625" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J625" t="n">
@@ -14051,13 +14058,13 @@
           <t>STAIR STEP REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D626" t="n">
+      <c r="D626" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E626" t="n">
         <v>1</v>
       </c>
-      <c r="F626" s="5" t="n">
+      <c r="F626" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J626" t="n">
@@ -14087,7 +14094,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F627" s="5" t="n"/>
+      <c r="F627" s="6" t="n"/>
       <c r="T627" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14108,7 +14115,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F628" s="5" t="n"/>
+      <c r="F628" s="6" t="n"/>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -14122,7 +14129,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F629" s="5" t="n"/>
+      <c r="F629" s="6" t="n"/>
       <c r="T629" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -14141,7 +14148,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F630" s="5" t="n"/>
+      <c r="F630" s="6" t="n"/>
       <c r="T630" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -14160,7 +14167,7 @@
           <t>BLENDER STATION</t>
         </is>
       </c>
-      <c r="F631" s="5" t="n"/>
+      <c r="F631" s="6" t="n"/>
       <c r="T631" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14181,7 +14188,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F632" s="5" t="n"/>
+      <c r="F632" s="6" t="n"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -14197,7 +14204,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F633" s="5" t="n"/>
+      <c r="F633" s="6" t="n"/>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -14211,13 +14218,13 @@
           <t>BAR BLENDER</t>
         </is>
       </c>
-      <c r="D634" t="n">
+      <c r="D634" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E634" t="n">
         <v>1</v>
       </c>
-      <c r="F634" s="5" t="n">
+      <c r="F634" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="T634" t="inlineStr">
@@ -14238,7 +14245,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F635" s="5" t="n"/>
+      <c r="F635" s="6" t="n"/>
       <c r="G635" t="n">
         <v>15</v>
       </c>
@@ -14269,7 +14276,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F636" s="5" t="n"/>
+      <c r="F636" s="6" t="n"/>
       <c r="T636" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14288,7 +14295,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F637" s="5" t="n"/>
+      <c r="F637" s="6" t="n"/>
       <c r="T637" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -14309,7 +14316,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F638" s="5" t="n"/>
+      <c r="F638" s="6" t="n"/>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -14323,13 +14330,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D639" t="n">
+      <c r="D639" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E639" t="n">
         <v>1</v>
       </c>
-      <c r="F639" s="5" t="n">
+      <c r="F639" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T639" t="inlineStr">
@@ -14350,13 +14357,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D640" t="n">
+      <c r="D640" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E640" t="n">
         <v>1</v>
       </c>
-      <c r="F640" s="5" t="n">
+      <c r="F640" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T640" t="inlineStr">
@@ -14377,13 +14384,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D641" t="n">
+      <c r="D641" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E641" t="n">
         <v>1</v>
       </c>
-      <c r="F641" s="5" t="n">
+      <c r="F641" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J641" t="n">
@@ -14415,7 +14422,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F642" s="5" t="n"/>
+      <c r="F642" s="6" t="n"/>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -14431,7 +14438,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F643" s="5" t="n"/>
+      <c r="F643" s="6" t="n"/>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -14445,7 +14452,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F644" s="5" t="n"/>
+      <c r="F644" s="6" t="n"/>
       <c r="G644" t="n">
         <v>15</v>
       </c>
@@ -14476,7 +14483,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F645" s="5" t="n"/>
+      <c r="F645" s="6" t="n"/>
       <c r="G645" t="n">
         <v>15</v>
       </c>
@@ -14507,7 +14514,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F646" s="5" t="n"/>
+      <c r="F646" s="6" t="n"/>
       <c r="T646" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14526,7 +14533,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F647" s="5" t="n"/>
+      <c r="F647" s="6" t="n"/>
       <c r="T647" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -14547,7 +14554,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F648" s="5" t="n"/>
+      <c r="F648" s="6" t="n"/>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -14561,7 +14568,7 @@
           <t>BLENDER STATION</t>
         </is>
       </c>
-      <c r="F649" s="5" t="n"/>
+      <c r="F649" s="6" t="n"/>
       <c r="T649" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14580,13 +14587,13 @@
           <t>BAR BLENDER</t>
         </is>
       </c>
-      <c r="D650" t="n">
+      <c r="D650" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E650" t="n">
         <v>1</v>
       </c>
-      <c r="F650" s="5" t="n">
+      <c r="F650" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="T650" t="inlineStr">
@@ -14607,13 +14614,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D651" t="n">
+      <c r="D651" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E651" t="n">
         <v>1</v>
       </c>
-      <c r="F651" s="5" t="n">
+      <c r="F651" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J651" t="n">
@@ -14645,7 +14652,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F652" s="5" t="n"/>
+      <c r="F652" s="6" t="n"/>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -14661,7 +14668,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F653" s="5" t="n"/>
+      <c r="F653" s="6" t="n"/>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -14675,7 +14682,7 @@
           <t>CO2 GLASS FROSTER</t>
         </is>
       </c>
-      <c r="F654" s="5" t="n"/>
+      <c r="F654" s="6" t="n"/>
       <c r="T654" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
@@ -14694,7 +14701,7 @@
           <t>CO2 TANK</t>
         </is>
       </c>
-      <c r="F655" s="5" t="n"/>
+      <c r="F655" s="6" t="n"/>
       <c r="T655" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
@@ -14713,13 +14720,13 @@
           <t>STAIR STEP REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D656" t="n">
+      <c r="D656" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E656" t="n">
         <v>1</v>
       </c>
-      <c r="F656" s="5" t="n">
+      <c r="F656" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J656" t="n">
@@ -14749,7 +14756,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F657" s="5" t="n"/>
+      <c r="F657" s="6" t="n"/>
       <c r="T657" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
@@ -14770,7 +14777,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F658" s="5" t="n"/>
+      <c r="F658" s="6" t="n"/>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -14784,13 +14791,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D659" t="n">
+      <c r="D659" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E659" t="n">
         <v>1</v>
       </c>
-      <c r="F659" s="5" t="n">
+      <c r="F659" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J659" t="n">
@@ -14820,13 +14827,13 @@
           <t>UNDERCOUNTER FREEZER WITH CARVING BOARD</t>
         </is>
       </c>
-      <c r="D660" t="n">
+      <c r="D660" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E660" t="n">
         <v>1</v>
       </c>
-      <c r="F660" s="5" t="n">
+      <c r="F660" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J660" t="n">
@@ -14856,13 +14863,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D661" t="n">
+      <c r="D661" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E661" t="n">
         <v>1</v>
       </c>
-      <c r="F661" s="5" t="n">
+      <c r="F661" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J661" t="n">
@@ -14894,7 +14901,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F662" s="5" t="n"/>
+      <c r="F662" s="6" t="n"/>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -14910,7 +14917,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F663" s="5" t="n"/>
+      <c r="F663" s="6" t="n"/>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -14924,13 +14931,13 @@
           <t>UNDERCOUNTER FREEZER</t>
         </is>
       </c>
-      <c r="D664" t="n">
+      <c r="D664" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E664" t="n">
         <v>1</v>
       </c>
-      <c r="F664" s="5" t="n">
+      <c r="F664" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J664" t="n">
@@ -14960,7 +14967,7 @@
           <t>FLIP TOP WITH DOOR</t>
         </is>
       </c>
-      <c r="F665" s="5" t="n"/>
+      <c r="F665" s="6" t="n"/>
       <c r="T665" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER PART OF ITEM#801</t>
@@ -14981,7 +14988,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F666" s="5" t="n"/>
+      <c r="F666" s="6" t="n"/>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -14997,7 +15004,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F667" s="5" t="n"/>
+      <c r="F667" s="6" t="n"/>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -15013,7 +15020,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F668" s="5" t="n"/>
+      <c r="F668" s="6" t="n"/>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -15027,7 +15034,7 @@
           <t>BACK BAR TOP WITH BOTTLE STEP</t>
         </is>
       </c>
-      <c r="F669" s="5" t="n"/>
+      <c r="F669" s="6" t="n"/>
       <c r="T669" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER</t>
@@ -15046,13 +15053,13 @@
           <t>UNDERCOUNTER PASS-THRU REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D670" t="n">
+      <c r="D670" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E670" t="n">
         <v>1</v>
       </c>
-      <c r="F670" s="5" t="n">
+      <c r="F670" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J670" t="n">
@@ -15084,7 +15091,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F671" s="5" t="n"/>
+      <c r="F671" s="6" t="n"/>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -15100,7 +15107,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F672" s="5" t="n"/>
+      <c r="F672" s="6" t="n"/>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -15116,7 +15123,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F673" s="5" t="n"/>
+      <c r="F673" s="6" t="n"/>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -15132,7 +15139,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F674" s="5" t="n"/>
+      <c r="F674" s="6" t="n"/>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -15148,7 +15155,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F675" s="5" t="n"/>
+      <c r="F675" s="6" t="n"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -15164,7 +15171,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F676" s="5" t="n"/>
+      <c r="F676" s="6" t="n"/>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -15180,7 +15187,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F677" s="5" t="n"/>
+      <c r="F677" s="6" t="n"/>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -15198,7 +15205,7 @@
           <t>SPARE NUMBERS</t>
         </is>
       </c>
-      <c r="F678" s="5" t="n"/>
+      <c r="F678" s="6" t="n"/>
     </row>
     <row r="679">
       <c r="A679" s="3" t="inlineStr">
@@ -15238,7 +15245,7 @@
           <t>BAR TOP AND DIE WITH DRINK RAIL</t>
         </is>
       </c>
-      <c r="F680" s="5" t="n"/>
+      <c r="F680" s="6" t="n"/>
       <c r="T680" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR WITH GLASS TROUGH</t>
@@ -15257,7 +15264,7 @@
           <t>BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F681" s="5" t="n"/>
+      <c r="F681" s="6" t="n"/>
       <c r="T681" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -15276,7 +15283,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F682" s="5" t="n"/>
+      <c r="F682" s="6" t="n"/>
       <c r="G682" t="n">
         <v>15</v>
       </c>
@@ -15307,13 +15314,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D683" t="n">
+      <c r="D683" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E683" t="n">
         <v>1</v>
       </c>
-      <c r="F683" s="5" t="n">
+      <c r="F683" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="J683" t="n">
@@ -15339,7 +15346,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F684" s="5" t="n"/>
+      <c r="F684" s="6" t="n"/>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -15353,7 +15360,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F685" s="5" t="n"/>
+      <c r="F685" s="6" t="n"/>
       <c r="G685" t="n">
         <v>15</v>
       </c>
@@ -15384,7 +15391,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F686" s="5" t="n"/>
+      <c r="F686" s="6" t="n"/>
       <c r="T686" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #902</t>
@@ -15403,7 +15410,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F687" s="5" t="n"/>
+      <c r="F687" s="6" t="n"/>
       <c r="T687" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -15422,7 +15429,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F688" s="5" t="n"/>
+      <c r="F688" s="6" t="n"/>
       <c r="K688" t="n">
         <v>50</v>
       </c>
@@ -15446,7 +15453,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F689" s="5" t="n"/>
+      <c r="F689" s="6" t="n"/>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -15460,13 +15467,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D690" t="n">
+      <c r="D690" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E690" t="n">
         <v>1</v>
       </c>
-      <c r="F690" s="5" t="n">
+      <c r="F690" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J690" t="n">
@@ -15496,13 +15503,13 @@
           <t>REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D691" t="n">
+      <c r="D691" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E691" t="n">
         <v>1</v>
       </c>
-      <c r="F691" s="5" t="n">
+      <c r="F691" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J691" t="n">
@@ -15532,7 +15539,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F692" s="5" t="n"/>
+      <c r="F692" s="6" t="n"/>
       <c r="T692" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #902</t>
@@ -15551,13 +15558,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D693" t="n">
+      <c r="D693" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E693" t="n">
         <v>1</v>
       </c>
-      <c r="F693" s="5" t="n">
+      <c r="F693" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T693" t="inlineStr">
@@ -15580,7 +15587,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F694" s="5" t="n"/>
+      <c r="F694" s="6" t="n"/>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -15594,13 +15601,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D695" t="n">
+      <c r="D695" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E695" t="n">
         <v>1</v>
       </c>
-      <c r="F695" s="5" t="n">
+      <c r="F695" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T695" t="inlineStr">
@@ -15623,7 +15630,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F696" s="5" t="n"/>
+      <c r="F696" s="6" t="n"/>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -15639,7 +15646,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F697" s="5" t="n"/>
+      <c r="F697" s="6" t="n"/>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -15655,7 +15662,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F698" s="5" t="n"/>
+      <c r="F698" s="6" t="n"/>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -15671,7 +15678,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F699" s="5" t="n"/>
+      <c r="F699" s="6" t="n"/>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -15685,7 +15692,7 @@
           <t>BACK BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F700" s="5" t="n"/>
+      <c r="F700" s="6" t="n"/>
       <c r="T700" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -15704,7 +15711,7 @@
           <t>BACK BAR TOP</t>
         </is>
       </c>
-      <c r="F701" s="5" t="n"/>
+      <c r="F701" s="6" t="n"/>
       <c r="T701" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
@@ -15723,13 +15730,13 @@
           <t>OPEN STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D702" t="n">
+      <c r="D702" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E702" t="n">
         <v>1</v>
       </c>
-      <c r="F702" s="5" t="n">
+      <c r="F702" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T702" t="inlineStr">
@@ -15750,13 +15757,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D703" t="n">
+      <c r="D703" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E703" t="n">
         <v>1</v>
       </c>
-      <c r="F703" s="5" t="n">
+      <c r="F703" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="J703" t="n">
@@ -15782,7 +15789,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F704" s="5" t="n"/>
+      <c r="F704" s="6" t="n"/>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -15796,13 +15803,13 @@
           <t>STORAGE CABINET</t>
         </is>
       </c>
-      <c r="D705" t="n">
+      <c r="D705" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E705" t="n">
         <v>1</v>
       </c>
-      <c r="F705" s="5" t="n">
+      <c r="F705" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T705" t="inlineStr">
@@ -15823,7 +15830,7 @@
           <t>BOTTLE DISPLAY</t>
         </is>
       </c>
-      <c r="F706" s="5" t="n"/>
+      <c r="F706" s="6" t="n"/>
       <c r="T706" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -15844,7 +15851,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F707" s="5" t="n"/>
+      <c r="F707" s="6" t="n"/>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -15860,7 +15867,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F708" s="5" t="n"/>
+      <c r="F708" s="6" t="n"/>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -15878,7 +15885,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F709" s="5" t="n"/>
+      <c r="F709" s="6" t="n"/>
     </row>
     <row r="710">
       <c r="A710" s="3" t="inlineStr">
@@ -15918,7 +15925,7 @@
           <t>BAR TOP AND DIE WITH DRINK RAIL</t>
         </is>
       </c>
-      <c r="F711" s="5" t="n"/>
+      <c r="F711" s="6" t="n"/>
       <c r="T711" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR WITH GLASS TROUGH</t>
@@ -15937,7 +15944,7 @@
           <t>BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F712" s="5" t="n"/>
+      <c r="F712" s="6" t="n"/>
       <c r="T712" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -15956,7 +15963,7 @@
           <t>HAND SINK</t>
         </is>
       </c>
-      <c r="F713" s="5" t="n"/>
+      <c r="F713" s="6" t="n"/>
       <c r="G713" t="n">
         <v>15</v>
       </c>
@@ -15987,13 +15994,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D714" t="n">
+      <c r="D714" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E714" t="n">
         <v>1</v>
       </c>
-      <c r="F714" s="5" t="n">
+      <c r="F714" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="J714" t="n">
@@ -16019,7 +16026,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F715" s="5" t="n"/>
+      <c r="F715" s="6" t="n"/>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -16033,7 +16040,7 @@
           <t>UTILITY SINK</t>
         </is>
       </c>
-      <c r="F716" s="5" t="n"/>
+      <c r="F716" s="6" t="n"/>
       <c r="G716" t="n">
         <v>15</v>
       </c>
@@ -16064,7 +16071,7 @@
           <t>TRASH CHUTE</t>
         </is>
       </c>
-      <c r="F717" s="5" t="n"/>
+      <c r="F717" s="6" t="n"/>
       <c r="T717" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #952</t>
@@ -16083,7 +16090,7 @@
           <t>TRASH RECEPTACLE</t>
         </is>
       </c>
-      <c r="F718" s="5" t="n"/>
+      <c r="F718" s="6" t="n"/>
       <c r="T718" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
@@ -16102,7 +16109,7 @@
           <t>FLOOR GULLY &amp; GRATE</t>
         </is>
       </c>
-      <c r="F719" s="5" t="n"/>
+      <c r="F719" s="6" t="n"/>
       <c r="K719" t="n">
         <v>50</v>
       </c>
@@ -16126,7 +16133,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F720" s="5" t="n"/>
+      <c r="F720" s="6" t="n"/>
     </row>
     <row r="721">
       <c r="A721" t="n">
@@ -16140,13 +16147,13 @@
           <t>REFRIGERATED COCKTAIL STATION</t>
         </is>
       </c>
-      <c r="D721" t="n">
+      <c r="D721" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E721" t="n">
         <v>1</v>
       </c>
-      <c r="F721" s="5" t="n">
+      <c r="F721" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J721" t="n">
@@ -16176,13 +16183,13 @@
           <t>REFRIGERATED CONDIMENT RAIL</t>
         </is>
       </c>
-      <c r="D722" t="n">
+      <c r="D722" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E722" t="n">
         <v>1</v>
       </c>
-      <c r="F722" s="5" t="n">
+      <c r="F722" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J722" t="n">
@@ -16212,7 +16219,7 @@
           <t>DOUBLE BOTTLE RAIL</t>
         </is>
       </c>
-      <c r="F723" s="5" t="n"/>
+      <c r="F723" s="6" t="n"/>
       <c r="T723" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #952</t>
@@ -16231,13 +16238,13 @@
           <t>P.O.S. PRINTER</t>
         </is>
       </c>
-      <c r="D724" t="n">
+      <c r="D724" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E724" t="n">
         <v>1</v>
       </c>
-      <c r="F724" s="5" t="n">
+      <c r="F724" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T724" t="inlineStr">
@@ -16260,7 +16267,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F725" s="5" t="n"/>
+      <c r="F725" s="6" t="n"/>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -16274,13 +16281,13 @@
           <t>POS SYSTEM</t>
         </is>
       </c>
-      <c r="D726" t="n">
+      <c r="D726" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E726" t="n">
         <v>1</v>
       </c>
-      <c r="F726" s="5" t="n">
+      <c r="F726" s="6" t="n">
         <v>10</v>
       </c>
       <c r="T726" t="inlineStr">
@@ -16303,7 +16310,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F727" s="5" t="n"/>
+      <c r="F727" s="6" t="n"/>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -16319,7 +16326,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F728" s="5" t="n"/>
+      <c r="F728" s="6" t="n"/>
     </row>
     <row r="729">
       <c r="A729" t="n">
@@ -16335,7 +16342,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F729" s="5" t="n"/>
+      <c r="F729" s="6" t="n"/>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -16351,7 +16358,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F730" s="5" t="n"/>
+      <c r="F730" s="6" t="n"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -16367,7 +16374,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F731" s="5" t="n"/>
+      <c r="F731" s="6" t="n"/>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -16383,7 +16390,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F732" s="5" t="n"/>
+      <c r="F732" s="6" t="n"/>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -16397,7 +16404,7 @@
           <t>BACK BAR TOP</t>
         </is>
       </c>
-      <c r="F733" s="5" t="n"/>
+      <c r="F733" s="6" t="n"/>
       <c r="T733" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
@@ -16416,13 +16423,13 @@
           <t>UNDERCOUNTER REFRIGERATOR</t>
         </is>
       </c>
-      <c r="D734" t="n">
+      <c r="D734" s="5" t="n">
         <v>230</v>
       </c>
       <c r="E734" t="n">
         <v>1</v>
       </c>
-      <c r="F734" s="5" t="n">
+      <c r="F734" s="6" t="n">
         <v>1.64</v>
       </c>
       <c r="J734" t="n">
@@ -16448,7 +16455,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F735" s="5" t="n"/>
+      <c r="F735" s="6" t="n"/>
     </row>
     <row r="736">
       <c r="A736" t="n">
@@ -16462,7 +16469,7 @@
           <t>BACK BAR WORK COUNTER</t>
         </is>
       </c>
-      <c r="F736" s="5" t="n"/>
+      <c r="F736" s="6" t="n"/>
       <c r="T736" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
@@ -16481,7 +16488,7 @@
           <t>BOTTLE DISPLAY</t>
         </is>
       </c>
-      <c r="F737" s="5" t="n"/>
+      <c r="F737" s="6" t="n"/>
       <c r="T737" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
@@ -16502,7 +16509,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F738" s="5" t="n"/>
+      <c r="F738" s="6" t="n"/>
     </row>
     <row r="739">
       <c r="A739" t="n">
@@ -16518,7 +16525,7 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F739" s="5" t="n"/>
+      <c r="F739" s="6" t="n"/>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -16536,22 +16543,22 @@
           <t>SPARE NUMBER</t>
         </is>
       </c>
-      <c r="F740" s="5" t="n"/>
+      <c r="F740" s="6" t="n"/>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr"/>
     </row>
     <row r="742">
-      <c r="A742" s="6" t="inlineStr">
+      <c r="A742" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="I742" s="7">
+      <c r="I742" s="8">
         <f>SUM(I7:I741)</f>
         <v/>
       </c>
-      <c r="Q742" s="7">
+      <c r="Q742" s="8">
         <f>SUM(Q7:Q741)</f>
         <v/>
       </c>

--- a/Bulk Loads/6521/new_formatted.xlsx
+++ b/Bulk Loads/6521/new_formatted.xlsx
@@ -1947,7 +1947,7 @@
           <t>WORK SURFACE</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="5" t="n">
         <v>120</v>
       </c>
       <c r="E72" t="n">
@@ -2149,7 +2149,7 @@
           <t>WORK SURFACE</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="5" t="n">
         <v>120</v>
       </c>
       <c r="E82" t="n">
@@ -4815,7 +4815,7 @@
           <t>PRODUCE DRYER</t>
         </is>
       </c>
-      <c r="D203" t="n">
+      <c r="D203" s="5" t="n">
         <v>208</v>
       </c>
       <c r="E203" t="n">

--- a/Bulk Loads/6521/new_formatted.xlsx
+++ b/Bulk Loads/6521/new_formatted.xlsx
@@ -75,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -89,6 +89,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -484,7 +487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:T743"/>
   <sheetViews>
@@ -505,6 +508,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -519,7 +523,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -676,7 +680,7 @@
       <c r="F9" s="8" t="n">
         <v>0.4</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNT</t>
         </is>
@@ -701,7 +705,7 @@
       <c r="H10" t="n">
         <v>10</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="9" t="inlineStr">
         <is>
           <t>CONNECT TO ITEM #465</t>
         </is>
@@ -720,7 +724,7 @@
         </is>
       </c>
       <c r="F11" s="8" t="n"/>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -747,7 +751,7 @@
       <c r="F12" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="T12" s="9" t="inlineStr">
         <is>
           <t>WITH RAMP</t>
         </is>
@@ -768,6 +772,7 @@
         </is>
       </c>
       <c r="F13" s="8" t="n"/>
+      <c r="T13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -784,6 +789,7 @@
         </is>
       </c>
       <c r="F14" s="8" t="n"/>
+      <c r="T14" s="9" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
@@ -801,7 +807,7 @@
       <c r="K15" t="n">
         <v>50</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T15" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -834,7 +840,7 @@
       <c r="S16" t="n">
         <v>15</v>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T16" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER</t>
         </is>
@@ -855,6 +861,7 @@
         </is>
       </c>
       <c r="F17" s="8" t="n"/>
+      <c r="T17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -871,6 +878,7 @@
         </is>
       </c>
       <c r="F18" s="8" t="n"/>
+      <c r="T18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
@@ -885,7 +893,7 @@
         </is>
       </c>
       <c r="F19" s="8" t="n"/>
-      <c r="T19" t="inlineStr">
+      <c r="T19" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -904,7 +912,7 @@
         </is>
       </c>
       <c r="F20" s="8" t="n"/>
-      <c r="T20" t="inlineStr">
+      <c r="T20" s="9" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER 186 BOTTLES</t>
         </is>
@@ -931,7 +939,7 @@
       <c r="F21" s="8" t="n">
         <v>6.5</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" s="9" t="inlineStr">
         <is>
           <t>-40°C MOBILE</t>
         </is>
@@ -958,7 +966,7 @@
       <c r="F22" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="T22" s="9" t="inlineStr">
         <is>
           <t>WITH RAMP</t>
         </is>
@@ -979,6 +987,7 @@
         </is>
       </c>
       <c r="F23" s="8" t="n"/>
+      <c r="T23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -995,6 +1004,7 @@
         </is>
       </c>
       <c r="F24" s="8" t="n"/>
+      <c r="T24" s="9" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
@@ -1012,7 +1022,7 @@
       <c r="K25" t="n">
         <v>50</v>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T25" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -1045,7 +1055,7 @@
       <c r="S26" t="n">
         <v>15</v>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="T26" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER</t>
         </is>
@@ -1066,6 +1076,7 @@
         </is>
       </c>
       <c r="F27" s="8" t="n"/>
+      <c r="T27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
@@ -1082,6 +1093,7 @@
         </is>
       </c>
       <c r="F28" s="8" t="n"/>
+      <c r="T28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
@@ -1096,7 +1108,7 @@
         </is>
       </c>
       <c r="F29" s="8" t="n"/>
-      <c r="T29" t="inlineStr">
+      <c r="T29" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1123,7 +1135,7 @@
       <c r="F30" s="8" t="n">
         <v>6.5</v>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="T30" s="9" t="inlineStr">
         <is>
           <t>-40°C MOBILE</t>
         </is>
@@ -1142,7 +1154,7 @@
         </is>
       </c>
       <c r="F31" s="8" t="n"/>
-      <c r="T31" t="inlineStr">
+      <c r="T31" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -1161,6 +1173,7 @@
         </is>
       </c>
       <c r="F32" s="8" t="n"/>
+      <c r="T32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
@@ -1177,6 +1190,7 @@
         </is>
       </c>
       <c r="F33" s="8" t="n"/>
+      <c r="T33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -1191,6 +1205,7 @@
         </is>
       </c>
       <c r="F34" s="8" t="n"/>
+      <c r="T34" s="9" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
@@ -1205,6 +1220,7 @@
         </is>
       </c>
       <c r="F35" s="8" t="n"/>
+      <c r="T35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -1219,6 +1235,7 @@
         </is>
       </c>
       <c r="F36" s="8" t="n"/>
+      <c r="T36" s="9" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
@@ -1235,6 +1252,7 @@
         </is>
       </c>
       <c r="F37" s="8" t="n"/>
+      <c r="T37" s="9" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
@@ -1251,6 +1269,7 @@
         </is>
       </c>
       <c r="F38" s="8" t="n"/>
+      <c r="T38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
@@ -1273,7 +1292,7 @@
       <c r="F39" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="T39" s="9" t="inlineStr">
         <is>
           <t>WITH RAMP</t>
         </is>
@@ -1295,7 +1314,7 @@
       <c r="K40" t="n">
         <v>50</v>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="T40" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -1328,7 +1347,7 @@
       <c r="S41" t="n">
         <v>15</v>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="T41" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER</t>
         </is>
@@ -1347,7 +1366,7 @@
         </is>
       </c>
       <c r="F42" s="8" t="n"/>
-      <c r="T42" t="inlineStr">
+      <c r="T42" s="9" t="inlineStr">
         <is>
           <t>DOUBLE DECK</t>
         </is>
@@ -1368,6 +1387,7 @@
         </is>
       </c>
       <c r="F43" s="8" t="n"/>
+      <c r="T43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
@@ -1396,7 +1416,7 @@
       <c r="S44" t="n">
         <v>10</v>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="T44" s="9" t="inlineStr">
         <is>
           <t>WATER COOLED</t>
         </is>
@@ -1423,7 +1443,7 @@
       <c r="F45" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="T45" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1442,7 +1462,7 @@
         </is>
       </c>
       <c r="F46" s="8" t="n"/>
-      <c r="T46" t="inlineStr">
+      <c r="T46" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1463,6 +1483,7 @@
         </is>
       </c>
       <c r="F47" s="8" t="n"/>
+      <c r="T47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -1479,6 +1500,7 @@
         </is>
       </c>
       <c r="F48" s="8" t="n"/>
+      <c r="T48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
@@ -1493,7 +1515,7 @@
         </is>
       </c>
       <c r="F49" s="8" t="n"/>
-      <c r="T49" t="inlineStr">
+      <c r="T49" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -1512,7 +1534,7 @@
         </is>
       </c>
       <c r="F50" s="8" t="n"/>
-      <c r="T50" t="inlineStr">
+      <c r="T50" s="9" t="inlineStr">
         <is>
           <t>FIXED TWO TIER</t>
         </is>
@@ -1534,7 +1556,7 @@
       <c r="K51" t="n">
         <v>50</v>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="T51" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -1559,7 +1581,7 @@
       <c r="H52" t="n">
         <v>15</v>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="T52" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -1580,6 +1602,7 @@
         </is>
       </c>
       <c r="F53" s="8" t="n"/>
+      <c r="T53" s="9" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
@@ -1594,7 +1617,7 @@
         </is>
       </c>
       <c r="F54" s="8" t="n"/>
-      <c r="T54" t="inlineStr">
+      <c r="T54" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1613,7 +1636,7 @@
         </is>
       </c>
       <c r="F55" s="8" t="n"/>
-      <c r="T55" t="inlineStr">
+      <c r="T55" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -1634,6 +1657,7 @@
         </is>
       </c>
       <c r="F56" s="8" t="n"/>
+      <c r="T56" s="9" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
@@ -1650,6 +1674,7 @@
         </is>
       </c>
       <c r="F57" s="8" t="n"/>
+      <c r="T57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
@@ -1666,6 +1691,7 @@
         </is>
       </c>
       <c r="F58" s="8" t="n"/>
+      <c r="T58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -1714,7 +1740,7 @@
       <c r="F60" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="T60" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1733,7 +1759,7 @@
         </is>
       </c>
       <c r="F61" s="8" t="n"/>
-      <c r="T61" t="inlineStr">
+      <c r="T61" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1760,7 +1786,7 @@
       <c r="F62" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="T62" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1779,7 +1805,7 @@
         </is>
       </c>
       <c r="F63" s="8" t="n"/>
-      <c r="T63" t="inlineStr">
+      <c r="T63" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1800,6 +1826,7 @@
         </is>
       </c>
       <c r="F64" s="8" t="n"/>
+      <c r="T64" s="9" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
@@ -1816,6 +1843,7 @@
         </is>
       </c>
       <c r="F65" s="8" t="n"/>
+      <c r="T65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
@@ -1838,7 +1866,7 @@
       <c r="F66" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="T66" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1857,7 +1885,7 @@
         </is>
       </c>
       <c r="F67" s="8" t="n"/>
-      <c r="T67" t="inlineStr">
+      <c r="T67" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1878,6 +1906,7 @@
         </is>
       </c>
       <c r="F68" s="8" t="n"/>
+      <c r="T68" s="9" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="n">
@@ -1894,6 +1923,7 @@
         </is>
       </c>
       <c r="F69" s="8" t="n"/>
+      <c r="T69" s="9" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="n">
@@ -1916,7 +1946,7 @@
       <c r="F70" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="T70" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1935,7 +1965,7 @@
         </is>
       </c>
       <c r="F71" s="8" t="n"/>
-      <c r="T71" t="inlineStr">
+      <c r="T71" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1962,7 +1992,7 @@
       <c r="F72" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="T72" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1981,7 +2011,7 @@
         </is>
       </c>
       <c r="F73" s="8" t="n"/>
-      <c r="T73" t="inlineStr">
+      <c r="T73" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2002,6 +2032,7 @@
         </is>
       </c>
       <c r="F74" s="8" t="n"/>
+      <c r="T74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="n">
@@ -2024,7 +2055,7 @@
       <c r="F75" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="T75" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2043,7 +2074,7 @@
         </is>
       </c>
       <c r="F76" s="8" t="n"/>
-      <c r="T76" t="inlineStr">
+      <c r="T76" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -2062,7 +2093,7 @@
         </is>
       </c>
       <c r="F77" s="8" t="n"/>
-      <c r="T77" t="inlineStr">
+      <c r="T77" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2083,6 +2114,7 @@
         </is>
       </c>
       <c r="F78" s="8" t="n"/>
+      <c r="T78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="n">
@@ -2099,6 +2131,7 @@
         </is>
       </c>
       <c r="F79" s="8" t="n"/>
+      <c r="T79" s="9" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="n">
@@ -2115,6 +2148,7 @@
         </is>
       </c>
       <c r="F80" s="8" t="n"/>
+      <c r="T80" s="9" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="n">
@@ -2137,7 +2171,7 @@
       <c r="F81" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T81" t="inlineStr">
+      <c r="T81" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2164,7 +2198,7 @@
       <c r="F82" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="T82" t="inlineStr">
+      <c r="T82" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -2183,7 +2217,7 @@
         </is>
       </c>
       <c r="F83" s="8" t="n"/>
-      <c r="T83" t="inlineStr">
+      <c r="T83" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -2204,6 +2238,7 @@
         </is>
       </c>
       <c r="F84" s="8" t="n"/>
+      <c r="T84" s="9" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="5" t="n">
@@ -2218,7 +2253,7 @@
         </is>
       </c>
       <c r="F85" s="8" t="n"/>
-      <c r="T85" t="inlineStr">
+      <c r="T85" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2245,7 +2280,7 @@
       <c r="F86" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T86" t="inlineStr">
+      <c r="T86" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2264,7 +2299,7 @@
         </is>
       </c>
       <c r="F87" s="8" t="n"/>
-      <c r="T87" t="inlineStr">
+      <c r="T87" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2285,6 +2320,7 @@
         </is>
       </c>
       <c r="F88" s="8" t="n"/>
+      <c r="T88" s="9" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="n">
@@ -2301,6 +2337,7 @@
         </is>
       </c>
       <c r="F89" s="8" t="n"/>
+      <c r="T89" s="9" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="n">
@@ -2323,7 +2360,7 @@
       <c r="F90" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T90" t="inlineStr">
+      <c r="T90" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2342,7 +2379,7 @@
         </is>
       </c>
       <c r="F91" s="8" t="n"/>
-      <c r="T91" t="inlineStr">
+      <c r="T91" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2369,7 +2406,7 @@
       <c r="F92" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T92" t="inlineStr">
+      <c r="T92" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2388,7 +2425,7 @@
         </is>
       </c>
       <c r="F93" s="8" t="n"/>
-      <c r="T93" t="inlineStr">
+      <c r="T93" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2409,6 +2446,7 @@
         </is>
       </c>
       <c r="F94" s="8" t="n"/>
+      <c r="T94" s="9" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="n">
@@ -2431,7 +2469,7 @@
       <c r="F95" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T95" t="inlineStr">
+      <c r="T95" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2458,7 +2496,7 @@
       <c r="F96" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T96" t="inlineStr">
+      <c r="T96" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2479,6 +2517,7 @@
         </is>
       </c>
       <c r="F97" s="8" t="n"/>
+      <c r="T97" s="9" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="5" t="n">
@@ -2495,6 +2534,7 @@
         </is>
       </c>
       <c r="F98" s="8" t="n"/>
+      <c r="T98" s="9" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
@@ -2513,6 +2553,7 @@
         </is>
       </c>
       <c r="F99" s="8" t="n"/>
+      <c r="T99" s="9" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
@@ -2561,7 +2602,7 @@
       <c r="F101" s="8" t="n">
         <v>0.4</v>
       </c>
-      <c r="T101" t="inlineStr">
+      <c r="T101" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNT</t>
         </is>
@@ -2588,7 +2629,7 @@
       <c r="F102" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T102" t="inlineStr">
+      <c r="T102" s="9" t="inlineStr">
         <is>
           <t>WITH RAMP</t>
         </is>
@@ -2610,7 +2651,7 @@
       <c r="K103" t="n">
         <v>50</v>
       </c>
-      <c r="T103" t="inlineStr">
+      <c r="T103" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -2643,7 +2684,7 @@
       <c r="S104" t="n">
         <v>15</v>
       </c>
-      <c r="T104" t="inlineStr">
+      <c r="T104" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER</t>
         </is>
@@ -2664,6 +2705,7 @@
         </is>
       </c>
       <c r="F105" s="8" t="n"/>
+      <c r="T105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="n">
@@ -2678,7 +2720,7 @@
         </is>
       </c>
       <c r="F106" s="8" t="n"/>
-      <c r="T106" t="inlineStr">
+      <c r="T106" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -2703,7 +2745,7 @@
       <c r="H107" t="n">
         <v>10</v>
       </c>
-      <c r="T107" t="inlineStr">
+      <c r="T107" s="9" t="inlineStr">
         <is>
           <t>CONNECT TO ITEM #465</t>
         </is>
@@ -2722,7 +2764,7 @@
         </is>
       </c>
       <c r="F108" s="8" t="n"/>
-      <c r="T108" t="inlineStr">
+      <c r="T108" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -2743,6 +2785,7 @@
         </is>
       </c>
       <c r="F109" s="8" t="n"/>
+      <c r="T109" s="9" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="5" t="inlineStr">
@@ -2761,6 +2804,7 @@
         </is>
       </c>
       <c r="F110" s="8" t="n"/>
+      <c r="T110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
@@ -2809,7 +2853,7 @@
       <c r="F112" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T112" t="inlineStr">
+      <c r="T112" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -2836,6 +2880,7 @@
       <c r="F113" s="8" t="n">
         <v>13</v>
       </c>
+      <c r="T113" s="9" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="5" t="n">
@@ -2858,7 +2903,7 @@
       <c r="F114" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="T114" t="inlineStr">
+      <c r="T114" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -2894,7 +2939,7 @@
       <c r="J115" t="n">
         <v>50</v>
       </c>
-      <c r="T115" t="inlineStr">
+      <c r="T115" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2915,6 +2960,7 @@
         </is>
       </c>
       <c r="F116" s="8" t="n"/>
+      <c r="T116" s="9" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="5" t="n">
@@ -2929,7 +2975,7 @@
         </is>
       </c>
       <c r="F117" s="8" t="n"/>
-      <c r="T117" t="inlineStr">
+      <c r="T117" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2956,6 +3002,7 @@
       <c r="F118" s="8" t="n">
         <v>4.2</v>
       </c>
+      <c r="T118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
@@ -2978,7 +3025,7 @@
       <c r="F119" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T119" t="inlineStr">
+      <c r="T119" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH CUSTOM FABRICATED CART</t>
         </is>
@@ -2999,6 +3046,7 @@
         </is>
       </c>
       <c r="F120" s="8" t="n"/>
+      <c r="T120" s="9" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="5" t="n">
@@ -3016,7 +3064,7 @@
       <c r="K121" t="n">
         <v>50</v>
       </c>
-      <c r="T121" t="inlineStr">
+      <c r="T121" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -3043,7 +3091,7 @@
       <c r="F122" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="T122" t="inlineStr">
+      <c r="T122" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -3062,7 +3110,7 @@
         </is>
       </c>
       <c r="F123" s="8" t="n"/>
-      <c r="T123" t="inlineStr">
+      <c r="T123" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3081,7 +3129,7 @@
         </is>
       </c>
       <c r="F124" s="8" t="n"/>
-      <c r="T124" t="inlineStr">
+      <c r="T124" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #167</t>
         </is>
@@ -3108,6 +3156,7 @@
       <c r="F125" s="8" t="n">
         <v>2</v>
       </c>
+      <c r="T125" s="9" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="5" t="n">
@@ -3124,6 +3173,7 @@
         </is>
       </c>
       <c r="F126" s="8" t="n"/>
+      <c r="T126" s="9" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="5" t="n">
@@ -3149,7 +3199,7 @@
       <c r="J127" t="n">
         <v>20</v>
       </c>
-      <c r="T127" t="inlineStr">
+      <c r="T127" s="9" t="inlineStr">
         <is>
           <t>WATER COOLED</t>
         </is>
@@ -3168,7 +3218,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n"/>
-      <c r="T128" t="inlineStr">
+      <c r="T128" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3199,7 +3249,7 @@
       <c r="K129" t="n">
         <v>40</v>
       </c>
-      <c r="T129" t="inlineStr">
+      <c r="T129" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -3232,7 +3282,7 @@
       <c r="S130" t="n">
         <v>15</v>
       </c>
-      <c r="T130" t="inlineStr">
+      <c r="T130" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER FOR ITEM #136</t>
         </is>
@@ -3253,6 +3303,7 @@
         </is>
       </c>
       <c r="F131" s="8" t="n"/>
+      <c r="T131" s="9" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="5" t="n">
@@ -3267,7 +3318,7 @@
         </is>
       </c>
       <c r="F132" s="8" t="n"/>
-      <c r="T132" t="inlineStr">
+      <c r="T132" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3286,7 +3337,7 @@
         </is>
       </c>
       <c r="F133" s="8" t="n"/>
-      <c r="T133" t="inlineStr">
+      <c r="T133" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -3307,6 +3358,7 @@
         </is>
       </c>
       <c r="F134" s="8" t="n"/>
+      <c r="T134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="5" t="n">
@@ -3323,6 +3375,7 @@
         </is>
       </c>
       <c r="F135" s="8" t="n"/>
+      <c r="T135" s="9" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="5" t="n">
@@ -3339,6 +3392,7 @@
         </is>
       </c>
       <c r="F136" s="8" t="n"/>
+      <c r="T136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="n">
@@ -3355,6 +3409,7 @@
         </is>
       </c>
       <c r="F137" s="8" t="n"/>
+      <c r="T137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="5" t="n">
@@ -3371,6 +3426,7 @@
         </is>
       </c>
       <c r="F138" s="8" t="n"/>
+      <c r="T138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="5" t="n">
@@ -3387,6 +3443,7 @@
         </is>
       </c>
       <c r="F139" s="8" t="n"/>
+      <c r="T139" s="9" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="5" t="n">
@@ -3403,6 +3460,7 @@
         </is>
       </c>
       <c r="F140" s="8" t="n"/>
+      <c r="T140" s="9" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="5" t="n">
@@ -3419,6 +3477,7 @@
         </is>
       </c>
       <c r="F141" s="8" t="n"/>
+      <c r="T141" s="9" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="5" t="n">
@@ -3441,7 +3500,7 @@
       <c r="F142" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T142" t="inlineStr">
+      <c r="T142" s="9" t="inlineStr">
         <is>
           <t>WITH RAMP</t>
         </is>
@@ -3463,7 +3522,7 @@
       <c r="K143" t="n">
         <v>50</v>
       </c>
-      <c r="T143" t="inlineStr">
+      <c r="T143" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -3496,7 +3555,7 @@
       <c r="S144" t="n">
         <v>15</v>
       </c>
-      <c r="T144" t="inlineStr">
+      <c r="T144" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER</t>
         </is>
@@ -3515,7 +3574,7 @@
         </is>
       </c>
       <c r="F145" s="8" t="n"/>
-      <c r="T145" t="inlineStr">
+      <c r="T145" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -3538,6 +3597,7 @@
         </is>
       </c>
       <c r="F146" s="8" t="n"/>
+      <c r="T146" s="9" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -3580,6 +3640,7 @@
         </is>
       </c>
       <c r="F148" s="8" t="n"/>
+      <c r="T148" s="9" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="5" t="n">
@@ -3606,7 +3667,7 @@
       <c r="K149" t="n">
         <v>40</v>
       </c>
-      <c r="T149" t="inlineStr">
+      <c r="T149" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -3625,7 +3686,7 @@
         </is>
       </c>
       <c r="F150" s="8" t="n"/>
-      <c r="T150" t="inlineStr">
+      <c r="T150" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3644,7 +3705,7 @@
         </is>
       </c>
       <c r="F151" s="8" t="n"/>
-      <c r="T151" t="inlineStr">
+      <c r="T151" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -3671,7 +3732,7 @@
       <c r="F152" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T152" t="inlineStr">
+      <c r="T152" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3690,7 +3751,7 @@
         </is>
       </c>
       <c r="F153" s="8" t="n"/>
-      <c r="T153" t="inlineStr">
+      <c r="T153" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3711,6 +3772,7 @@
         </is>
       </c>
       <c r="F154" s="8" t="n"/>
+      <c r="T154" s="9" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="5" t="n">
@@ -3728,7 +3790,7 @@
       <c r="K155" t="n">
         <v>50</v>
       </c>
-      <c r="T155" t="inlineStr">
+      <c r="T155" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -3750,7 +3812,7 @@
       <c r="J156" t="n">
         <v>40</v>
       </c>
-      <c r="T156" t="inlineStr">
+      <c r="T156" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #167</t>
         </is>
@@ -3778,7 +3840,7 @@
       <c r="I157" t="n">
         <v>190</v>
       </c>
-      <c r="T157" t="inlineStr">
+      <c r="T157" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -3797,7 +3859,7 @@
         </is>
       </c>
       <c r="F158" s="8" t="n"/>
-      <c r="T158" t="inlineStr">
+      <c r="T158" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3824,7 +3886,7 @@
       <c r="F159" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="T159" t="inlineStr">
+      <c r="T159" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -3845,6 +3907,7 @@
         </is>
       </c>
       <c r="F160" s="8" t="n"/>
+      <c r="T160" s="9" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="5" t="n">
@@ -3867,6 +3930,7 @@
       <c r="F161" s="8" t="n">
         <v>7</v>
       </c>
+      <c r="T161" s="9" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="5" t="n">
@@ -3892,7 +3956,7 @@
       <c r="J162" t="n">
         <v>20</v>
       </c>
-      <c r="T162" t="inlineStr">
+      <c r="T162" s="9" t="inlineStr">
         <is>
           <t>WATER COOLED</t>
         </is>
@@ -3919,7 +3983,7 @@
       <c r="F163" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T163" t="inlineStr">
+      <c r="T163" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH CUSTOM FABRICATED CART</t>
         </is>
@@ -3952,7 +4016,7 @@
       <c r="S164" t="n">
         <v>15</v>
       </c>
-      <c r="T164" t="inlineStr">
+      <c r="T164" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER FOR ITEM #177</t>
         </is>
@@ -3973,6 +4037,7 @@
         </is>
       </c>
       <c r="F165" s="8" t="n"/>
+      <c r="T165" s="9" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="5" t="n">
@@ -3987,7 +4052,7 @@
         </is>
       </c>
       <c r="F166" s="8" t="n"/>
-      <c r="T166" t="inlineStr">
+      <c r="T166" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #167</t>
         </is>
@@ -4014,6 +4079,7 @@
       <c r="F167" s="8" t="n">
         <v>2</v>
       </c>
+      <c r="T167" s="9" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="5" t="n">
@@ -4028,7 +4094,7 @@
         </is>
       </c>
       <c r="F168" s="8" t="n"/>
-      <c r="T168" t="inlineStr">
+      <c r="T168" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4055,7 +4121,7 @@
       <c r="F169" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="T169" t="inlineStr">
+      <c r="T169" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -4076,6 +4142,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n"/>
+      <c r="T170" s="9" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="5" t="n">
@@ -4098,7 +4165,7 @@
       <c r="F171" s="8" t="n">
         <v>3.3</v>
       </c>
-      <c r="T171" t="inlineStr">
+      <c r="T171" s="9" t="inlineStr">
         <is>
           <t>10 LITER</t>
         </is>
@@ -4117,7 +4184,7 @@
         </is>
       </c>
       <c r="F172" s="8" t="n"/>
-      <c r="T172" t="inlineStr">
+      <c r="T172" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4138,6 +4205,7 @@
         </is>
       </c>
       <c r="F173" s="8" t="n"/>
+      <c r="T173" s="9" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="5" t="n">
@@ -4154,6 +4222,7 @@
         </is>
       </c>
       <c r="F174" s="8" t="n"/>
+      <c r="T174" s="9" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="5" t="inlineStr">
@@ -4172,6 +4241,7 @@
         </is>
       </c>
       <c r="F175" s="8" t="n"/>
+      <c r="T175" s="9" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="5" t="n">
@@ -4194,7 +4264,7 @@
       <c r="F176" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T176" t="inlineStr">
+      <c r="T176" s="9" t="inlineStr">
         <is>
           <t>WITH RAMP</t>
         </is>
@@ -4216,7 +4286,7 @@
       <c r="K177" t="n">
         <v>50</v>
       </c>
-      <c r="T177" t="inlineStr">
+      <c r="T177" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -4249,7 +4319,7 @@
       <c r="S178" t="n">
         <v>15</v>
       </c>
-      <c r="T178" t="inlineStr">
+      <c r="T178" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER</t>
         </is>
@@ -4270,6 +4340,7 @@
         </is>
       </c>
       <c r="F179" s="8" t="n"/>
+      <c r="T179" s="9" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="5" t="n">
@@ -4286,6 +4357,7 @@
         </is>
       </c>
       <c r="F180" s="8" t="n"/>
+      <c r="T180" s="9" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="5" t="n">
@@ -4300,7 +4372,7 @@
         </is>
       </c>
       <c r="F181" s="8" t="n"/>
-      <c r="T181" t="inlineStr">
+      <c r="T181" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -4319,7 +4391,7 @@
         </is>
       </c>
       <c r="F182" s="8" t="n"/>
-      <c r="T182" t="inlineStr">
+      <c r="T182" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4346,7 +4418,7 @@
       <c r="F183" s="8" t="n">
         <v>6.5</v>
       </c>
-      <c r="T183" t="inlineStr">
+      <c r="T183" s="9" t="inlineStr">
         <is>
           <t>-40°C MOBILE</t>
         </is>
@@ -4371,7 +4443,7 @@
       <c r="H184" t="n">
         <v>10</v>
       </c>
-      <c r="T184" t="inlineStr">
+      <c r="T184" s="9" t="inlineStr">
         <is>
           <t>CONNECT TO ITEM #465</t>
         </is>
@@ -4394,6 +4466,7 @@
         </is>
       </c>
       <c r="F185" s="8" t="n"/>
+      <c r="T185" s="9" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
@@ -4437,7 +4510,7 @@
       <c r="G187" t="n">
         <v>20</v>
       </c>
-      <c r="T187" t="inlineStr">
+      <c r="T187" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #222</t>
         </is>
@@ -4479,7 +4552,7 @@
       <c r="S188" t="n">
         <v>15</v>
       </c>
-      <c r="T188" t="inlineStr">
+      <c r="T188" s="9" t="inlineStr">
         <is>
           <t>175KG. WATER-COOLED STACKED LARGE CUBE</t>
         </is>
@@ -4498,7 +4571,7 @@
         </is>
       </c>
       <c r="F189" s="8" t="n"/>
-      <c r="T189" t="inlineStr">
+      <c r="T189" s="9" t="inlineStr">
         <is>
           <t>454 KG.</t>
         </is>
@@ -4517,7 +4590,7 @@
         </is>
       </c>
       <c r="F190" s="8" t="n"/>
-      <c r="T190" t="inlineStr">
+      <c r="T190" s="9" t="inlineStr">
         <is>
           <t>80 KG. MOBILE</t>
         </is>
@@ -4538,6 +4611,7 @@
         </is>
       </c>
       <c r="F191" s="8" t="n"/>
+      <c r="T191" s="9" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="5" t="n">
@@ -4555,7 +4629,7 @@
       <c r="K192" t="n">
         <v>50</v>
       </c>
-      <c r="T192" t="inlineStr">
+      <c r="T192" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -4577,7 +4651,7 @@
       <c r="J193" t="n">
         <v>25</v>
       </c>
-      <c r="T193" t="inlineStr">
+      <c r="T193" s="9" t="inlineStr">
         <is>
           <t>816KG. DIVIDED</t>
         </is>
@@ -4619,7 +4693,7 @@
       <c r="S194" t="n">
         <v>15</v>
       </c>
-      <c r="T194" t="inlineStr">
+      <c r="T194" s="9" t="inlineStr">
         <is>
           <t>600KG. WATER COOLED FLAKE ICE</t>
         </is>
@@ -4640,6 +4714,7 @@
         </is>
       </c>
       <c r="F195" s="8" t="n"/>
+      <c r="T195" s="9" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="5" t="n">
@@ -4656,6 +4731,7 @@
         </is>
       </c>
       <c r="F196" s="8" t="n"/>
+      <c r="T196" s="9" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="5" t="n">
@@ -4670,7 +4746,7 @@
         </is>
       </c>
       <c r="F197" s="8" t="n"/>
-      <c r="T197" t="inlineStr">
+      <c r="T197" s="9" t="inlineStr">
         <is>
           <t>114KG. MOBILE</t>
         </is>
@@ -4712,7 +4788,7 @@
       <c r="S198" t="n">
         <v>15</v>
       </c>
-      <c r="T198" t="inlineStr">
+      <c r="T198" s="9" t="inlineStr">
         <is>
           <t>856KG. WATER COOLED CRESCENT ICE</t>
         </is>
@@ -4734,7 +4810,7 @@
       <c r="G199" t="n">
         <v>20</v>
       </c>
-      <c r="T199" t="inlineStr">
+      <c r="T199" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #228</t>
         </is>
@@ -4759,7 +4835,7 @@
       <c r="J200" t="n">
         <v>15</v>
       </c>
-      <c r="T200" t="inlineStr">
+      <c r="T200" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #232</t>
         </is>
@@ -4782,6 +4858,7 @@
         </is>
       </c>
       <c r="F201" s="8" t="n"/>
+      <c r="T201" s="9" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
@@ -4833,6 +4910,7 @@
       <c r="J203" t="n">
         <v>50</v>
       </c>
+      <c r="T203" s="9" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="5" t="n">
@@ -4850,7 +4928,7 @@
       <c r="K204" t="n">
         <v>50</v>
       </c>
-      <c r="T204" t="inlineStr">
+      <c r="T204" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -4889,7 +4967,7 @@
       <c r="J205" t="n">
         <v>50</v>
       </c>
-      <c r="T205" t="inlineStr">
+      <c r="T205" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4908,7 +4986,7 @@
         </is>
       </c>
       <c r="F206" s="8" t="n"/>
-      <c r="T206" t="inlineStr">
+      <c r="T206" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4933,7 +5011,7 @@
       <c r="H207" t="n">
         <v>10</v>
       </c>
-      <c r="T207" t="inlineStr">
+      <c r="T207" s="9" t="inlineStr">
         <is>
           <t>CONNECT TO ITEM #465</t>
         </is>
@@ -4960,6 +5038,7 @@
       <c r="F208" s="8" t="n">
         <v>7</v>
       </c>
+      <c r="T208" s="9" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="5" t="n">
@@ -4977,7 +5056,7 @@
       <c r="K209" t="n">
         <v>50</v>
       </c>
-      <c r="T209" t="inlineStr">
+      <c r="T209" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -5004,6 +5083,7 @@
       <c r="F210" s="8" t="n">
         <v>3.7</v>
       </c>
+      <c r="T210" s="9" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="5" t="n">
@@ -5020,6 +5100,7 @@
         </is>
       </c>
       <c r="F211" s="8" t="n"/>
+      <c r="T211" s="9" t="n"/>
     </row>
     <row r="212">
       <c r="A212" s="5" t="n">
@@ -5036,6 +5117,7 @@
         </is>
       </c>
       <c r="F212" s="8" t="n"/>
+      <c r="T212" s="9" t="n"/>
     </row>
     <row r="213">
       <c r="A213" s="5" t="n">
@@ -5058,6 +5140,7 @@
       <c r="F213" s="8" t="n">
         <v>3.7</v>
       </c>
+      <c r="T213" s="9" t="n"/>
     </row>
     <row r="214">
       <c r="A214" s="5" t="n">
@@ -5080,7 +5163,7 @@
       <c r="F214" s="8" t="n">
         <v>0.2</v>
       </c>
-      <c r="T214" t="inlineStr">
+      <c r="T214" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -5107,7 +5190,7 @@
       <c r="F215" s="8" t="n">
         <v>3.3</v>
       </c>
-      <c r="T215" t="inlineStr">
+      <c r="T215" s="9" t="inlineStr">
         <is>
           <t>10 LITER</t>
         </is>
@@ -5126,7 +5209,7 @@
         </is>
       </c>
       <c r="F216" s="8" t="n"/>
-      <c r="T216" t="inlineStr">
+      <c r="T216" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5147,6 +5230,7 @@
         </is>
       </c>
       <c r="F217" s="8" t="n"/>
+      <c r="T217" s="9" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="5" t="n">
@@ -5169,7 +5253,7 @@
       <c r="F218" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T218" t="inlineStr">
+      <c r="T218" s="9" t="inlineStr">
         <is>
           <t>WITH RAMP</t>
         </is>
@@ -5191,7 +5275,7 @@
       <c r="K219" t="n">
         <v>50</v>
       </c>
-      <c r="T219" t="inlineStr">
+      <c r="T219" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -5224,7 +5308,7 @@
       <c r="S220" t="n">
         <v>15</v>
       </c>
-      <c r="T220" t="inlineStr">
+      <c r="T220" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER</t>
         </is>
@@ -5245,6 +5329,7 @@
         </is>
       </c>
       <c r="F221" s="8" t="n"/>
+      <c r="T221" s="9" t="n"/>
     </row>
     <row r="222">
       <c r="A222" s="5" t="n">
@@ -5261,6 +5346,7 @@
         </is>
       </c>
       <c r="F222" s="8" t="n"/>
+      <c r="T222" s="9" t="n"/>
     </row>
     <row r="223">
       <c r="A223" s="5" t="n">
@@ -5275,7 +5361,7 @@
         </is>
       </c>
       <c r="F223" s="8" t="n"/>
-      <c r="T223" t="inlineStr">
+      <c r="T223" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -5294,7 +5380,7 @@
         </is>
       </c>
       <c r="F224" s="8" t="n"/>
-      <c r="T224" t="inlineStr">
+      <c r="T224" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -5321,7 +5407,7 @@
       <c r="F225" s="8" t="n">
         <v>0.3</v>
       </c>
-      <c r="T225" t="inlineStr">
+      <c r="T225" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -5348,7 +5434,7 @@
       <c r="F226" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="T226" t="inlineStr">
+      <c r="T226" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5369,6 +5455,7 @@
         </is>
       </c>
       <c r="F227" s="8" t="n"/>
+      <c r="T227" s="9" t="n"/>
     </row>
     <row r="228">
       <c r="A228" s="5" t="n">
@@ -5383,7 +5470,7 @@
         </is>
       </c>
       <c r="F228" s="8" t="n"/>
-      <c r="T228" t="inlineStr">
+      <c r="T228" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5402,7 +5489,7 @@
         </is>
       </c>
       <c r="F229" s="8" t="n"/>
-      <c r="T229" t="inlineStr">
+      <c r="T229" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5432,7 +5519,7 @@
       <c r="J230" t="n">
         <v>20</v>
       </c>
-      <c r="T230" t="inlineStr">
+      <c r="T230" s="9" t="inlineStr">
         <is>
           <t>WATER COOLED</t>
         </is>
@@ -5465,7 +5552,7 @@
       <c r="S231" t="n">
         <v>15</v>
       </c>
-      <c r="T231" t="inlineStr">
+      <c r="T231" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED WITH EVAPORATOR COIL ON EMERGENCY POWER FOR ITEM #268</t>
         </is>
@@ -5486,6 +5573,7 @@
         </is>
       </c>
       <c r="F232" s="8" t="n"/>
+      <c r="T232" s="9" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="5" t="n">
@@ -5502,6 +5590,7 @@
         </is>
       </c>
       <c r="F233" s="8" t="n"/>
+      <c r="T233" s="9" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="5" t="n">
@@ -5516,7 +5605,7 @@
         </is>
       </c>
       <c r="F234" s="8" t="n"/>
-      <c r="T234" t="inlineStr">
+      <c r="T234" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -5547,7 +5636,7 @@
       <c r="K235" t="n">
         <v>40</v>
       </c>
-      <c r="T235" t="inlineStr">
+      <c r="T235" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -5566,7 +5655,7 @@
         </is>
       </c>
       <c r="F236" s="8" t="n"/>
-      <c r="T236" t="inlineStr">
+      <c r="T236" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -5587,6 +5676,7 @@
         </is>
       </c>
       <c r="F237" s="8" t="n"/>
+      <c r="T237" s="9" t="n"/>
     </row>
     <row r="238">
       <c r="A238" s="5" t="n">
@@ -5601,7 +5691,7 @@
         </is>
       </c>
       <c r="F238" s="8" t="n"/>
-      <c r="T238" t="inlineStr">
+      <c r="T238" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -5622,6 +5712,7 @@
         </is>
       </c>
       <c r="F239" s="8" t="n"/>
+      <c r="T239" s="9" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="5" t="n">
@@ -5638,6 +5729,7 @@
         </is>
       </c>
       <c r="F240" s="8" t="n"/>
+      <c r="T240" s="9" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="5" t="n">
@@ -5654,6 +5746,7 @@
         </is>
       </c>
       <c r="F241" s="8" t="n"/>
+      <c r="T241" s="9" t="n"/>
     </row>
     <row r="242">
       <c r="A242" s="5" t="inlineStr">
@@ -5672,6 +5765,7 @@
         </is>
       </c>
       <c r="F242" s="8" t="n"/>
+      <c r="T242" s="9" t="n"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
@@ -5712,7 +5806,7 @@
         </is>
       </c>
       <c r="F244" s="8" t="n"/>
-      <c r="T244" t="inlineStr">
+      <c r="T244" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5748,7 +5842,7 @@
       <c r="J245" t="n">
         <v>16</v>
       </c>
-      <c r="T245" t="inlineStr">
+      <c r="T245" s="9" t="inlineStr">
         <is>
           <t>89°C RINSE</t>
         </is>
@@ -5767,7 +5861,7 @@
         </is>
       </c>
       <c r="F246" s="8" t="n"/>
-      <c r="T246" t="inlineStr">
+      <c r="T246" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -5803,7 +5897,7 @@
       <c r="J247" t="n">
         <v>16</v>
       </c>
-      <c r="T247" t="inlineStr">
+      <c r="T247" s="9" t="inlineStr">
         <is>
           <t>89°C RINSE</t>
         </is>
@@ -5824,6 +5918,7 @@
         </is>
       </c>
       <c r="F248" s="8" t="n"/>
+      <c r="T248" s="9" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="5" t="n">
@@ -5850,7 +5945,7 @@
       <c r="K249" t="n">
         <v>40</v>
       </c>
-      <c r="T249" t="inlineStr">
+      <c r="T249" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -5869,7 +5964,7 @@
         </is>
       </c>
       <c r="F250" s="8" t="n"/>
-      <c r="T250" t="inlineStr">
+      <c r="T250" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -5888,7 +5983,7 @@
         </is>
       </c>
       <c r="F251" s="8" t="n"/>
-      <c r="T251" t="inlineStr">
+      <c r="T251" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -5909,6 +6004,7 @@
         </is>
       </c>
       <c r="F252" s="8" t="n"/>
+      <c r="T252" s="9" t="n"/>
     </row>
     <row r="253">
       <c r="A253" s="5" t="n">
@@ -5925,6 +6021,7 @@
         </is>
       </c>
       <c r="F253" s="8" t="n"/>
+      <c r="T253" s="9" t="n"/>
     </row>
     <row r="254">
       <c r="A254" s="5" t="n">
@@ -5948,7 +6045,7 @@
       <c r="I254" t="n">
         <v>95</v>
       </c>
-      <c r="T254" t="inlineStr">
+      <c r="T254" s="9" t="inlineStr">
         <is>
           <t>WALL RECESSED FOR ITEM #321</t>
         </is>
@@ -5967,7 +6064,7 @@
         </is>
       </c>
       <c r="F255" s="8" t="n"/>
-      <c r="T255" t="inlineStr">
+      <c r="T255" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH TROUGH AND TROUGH COVERS</t>
         </is>
@@ -6006,7 +6103,7 @@
       <c r="K256" t="n">
         <v>50</v>
       </c>
-      <c r="T256" t="inlineStr">
+      <c r="T256" s="9" t="inlineStr">
         <is>
           <t>WITH COVER</t>
         </is>
@@ -6025,7 +6122,7 @@
         </is>
       </c>
       <c r="F257" s="8" t="n"/>
-      <c r="T257" t="inlineStr">
+      <c r="T257" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6046,6 +6143,7 @@
         </is>
       </c>
       <c r="F258" s="8" t="n"/>
+      <c r="T258" s="9" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="5" t="n">
@@ -6060,7 +6158,7 @@
         </is>
       </c>
       <c r="F259" s="8" t="n"/>
-      <c r="T259" t="inlineStr">
+      <c r="T259" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6079,7 +6177,7 @@
         </is>
       </c>
       <c r="F260" s="8" t="n"/>
-      <c r="T260" t="inlineStr">
+      <c r="T260" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -6098,7 +6196,7 @@
         </is>
       </c>
       <c r="F261" s="8" t="n"/>
-      <c r="T261" t="inlineStr">
+      <c r="T261" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -6119,6 +6217,7 @@
         </is>
       </c>
       <c r="F262" s="8" t="n"/>
+      <c r="T262" s="9" t="n"/>
     </row>
     <row r="263">
       <c r="A263" s="5" t="n">
@@ -6135,6 +6234,7 @@
         </is>
       </c>
       <c r="F263" s="8" t="n"/>
+      <c r="T263" s="9" t="n"/>
     </row>
     <row r="264">
       <c r="A264" s="5" t="n">
@@ -6149,7 +6249,7 @@
         </is>
       </c>
       <c r="F264" s="8" t="n"/>
-      <c r="T264" t="inlineStr">
+      <c r="T264" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -6168,7 +6268,7 @@
         </is>
       </c>
       <c r="F265" s="8" t="n"/>
-      <c r="T265" t="inlineStr">
+      <c r="T265" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -6190,7 +6290,7 @@
       <c r="K266" t="n">
         <v>50</v>
       </c>
-      <c r="T266" t="inlineStr">
+      <c r="T266" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -6209,7 +6309,7 @@
         </is>
       </c>
       <c r="F267" s="8" t="n"/>
-      <c r="T267" t="inlineStr">
+      <c r="T267" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6230,6 +6330,7 @@
         </is>
       </c>
       <c r="F268" s="8" t="n"/>
+      <c r="T268" s="9" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="5" t="n">
@@ -6244,7 +6345,7 @@
         </is>
       </c>
       <c r="F269" s="8" t="n"/>
-      <c r="T269" t="inlineStr">
+      <c r="T269" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -6263,7 +6364,7 @@
         </is>
       </c>
       <c r="F270" s="8" t="n"/>
-      <c r="T270" t="inlineStr">
+      <c r="T270" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -6285,6 +6386,7 @@
       <c r="J271" t="n">
         <v>40</v>
       </c>
+      <c r="T271" s="9" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="5" t="n">
@@ -6301,6 +6403,7 @@
         </is>
       </c>
       <c r="F272" s="8" t="n"/>
+      <c r="T272" s="9" t="n"/>
     </row>
     <row r="273">
       <c r="A273" s="5" t="n">
@@ -6317,6 +6420,7 @@
         </is>
       </c>
       <c r="F273" s="8" t="n"/>
+      <c r="T273" s="9" t="n"/>
     </row>
     <row r="274">
       <c r="A274" s="5" t="n">
@@ -6348,7 +6452,7 @@
       <c r="J274" t="n">
         <v>40</v>
       </c>
-      <c r="T274" t="inlineStr">
+      <c r="T274" s="9" t="inlineStr">
         <is>
           <t>89°C RINSE</t>
         </is>
@@ -6367,7 +6471,7 @@
         </is>
       </c>
       <c r="F275" s="8" t="n"/>
-      <c r="T275" t="inlineStr">
+      <c r="T275" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6386,7 +6490,7 @@
         </is>
       </c>
       <c r="F276" s="8" t="n"/>
-      <c r="T276" t="inlineStr">
+      <c r="T276" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -6405,7 +6509,7 @@
         </is>
       </c>
       <c r="F277" s="8" t="n"/>
-      <c r="T277" t="inlineStr">
+      <c r="T277" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6426,6 +6530,7 @@
         </is>
       </c>
       <c r="F278" s="8" t="n"/>
+      <c r="T278" s="9" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="5" t="n">
@@ -6452,7 +6557,7 @@
       <c r="K279" t="n">
         <v>40</v>
       </c>
-      <c r="T279" t="inlineStr">
+      <c r="T279" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -6471,7 +6576,7 @@
         </is>
       </c>
       <c r="F280" s="8" t="n"/>
-      <c r="T280" t="inlineStr">
+      <c r="T280" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -6490,7 +6595,7 @@
         </is>
       </c>
       <c r="F281" s="8" t="n"/>
-      <c r="T281" t="inlineStr">
+      <c r="T281" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -6511,6 +6616,7 @@
         </is>
       </c>
       <c r="F282" s="8" t="n"/>
+      <c r="T282" s="9" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="5" t="n">
@@ -6527,6 +6633,7 @@
         </is>
       </c>
       <c r="F283" s="8" t="n"/>
+      <c r="T283" s="9" t="n"/>
     </row>
     <row r="284">
       <c r="A284" s="5" t="n">
@@ -6550,7 +6657,7 @@
       <c r="I284" t="n">
         <v>95</v>
       </c>
-      <c r="T284" t="inlineStr">
+      <c r="T284" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #347</t>
         </is>
@@ -6585,7 +6692,7 @@
       <c r="J285" t="n">
         <v>50</v>
       </c>
-      <c r="T285" t="inlineStr">
+      <c r="T285" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6604,7 +6711,7 @@
         </is>
       </c>
       <c r="F286" s="8" t="n"/>
-      <c r="T286" t="inlineStr">
+      <c r="T286" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6623,7 +6730,7 @@
         </is>
       </c>
       <c r="F287" s="8" t="n"/>
-      <c r="T287" t="inlineStr">
+      <c r="T287" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -6644,6 +6751,7 @@
         </is>
       </c>
       <c r="F288" s="8" t="n"/>
+      <c r="T288" s="9" t="n"/>
     </row>
     <row r="289">
       <c r="A289" s="5" t="n">
@@ -6661,7 +6769,7 @@
       <c r="K289" t="n">
         <v>50</v>
       </c>
-      <c r="T289" t="inlineStr">
+      <c r="T289" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -6680,7 +6788,7 @@
         </is>
       </c>
       <c r="F290" s="8" t="n"/>
-      <c r="T290" t="inlineStr">
+      <c r="T290" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -6699,7 +6807,7 @@
         </is>
       </c>
       <c r="F291" s="8" t="n"/>
-      <c r="T291" t="inlineStr">
+      <c r="T291" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -6720,6 +6828,7 @@
         </is>
       </c>
       <c r="F292" s="8" t="n"/>
+      <c r="T292" s="9" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="5" t="n">
@@ -6736,6 +6845,7 @@
         </is>
       </c>
       <c r="F293" s="8" t="n"/>
+      <c r="T293" s="9" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="5" t="n">
@@ -6750,6 +6860,7 @@
         </is>
       </c>
       <c r="F294" s="8" t="n"/>
+      <c r="T294" s="9" t="n"/>
     </row>
     <row r="295">
       <c r="A295" s="5" t="n">
@@ -6766,6 +6877,7 @@
         </is>
       </c>
       <c r="F295" s="8" t="n"/>
+      <c r="T295" s="9" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="5" t="n">
@@ -6782,6 +6894,7 @@
         </is>
       </c>
       <c r="F296" s="8" t="n"/>
+      <c r="T296" s="9" t="n"/>
     </row>
     <row r="297">
       <c r="A297" s="5" t="n">
@@ -6798,6 +6911,7 @@
         </is>
       </c>
       <c r="F297" s="8" t="n"/>
+      <c r="T297" s="9" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="5" t="n">
@@ -6814,6 +6928,7 @@
         </is>
       </c>
       <c r="F298" s="8" t="n"/>
+      <c r="T298" s="9" t="n"/>
     </row>
     <row r="299">
       <c r="A299" s="5" t="n">
@@ -6837,7 +6952,7 @@
       <c r="J299" t="n">
         <v>6</v>
       </c>
-      <c r="T299" t="inlineStr">
+      <c r="T299" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #504 #566</t>
         </is>
@@ -6859,7 +6974,7 @@
       <c r="G300" t="n">
         <v>10</v>
       </c>
-      <c r="T300" t="inlineStr">
+      <c r="T300" s="9" t="inlineStr">
         <is>
           <t>80 GALLON FOR ITEM #356</t>
         </is>
@@ -6880,6 +6995,7 @@
         </is>
       </c>
       <c r="F301" s="8" t="n"/>
+      <c r="T301" s="9" t="n"/>
     </row>
     <row r="302">
       <c r="A302" s="5" t="n">
@@ -6896,6 +7012,7 @@
         </is>
       </c>
       <c r="F302" s="8" t="n"/>
+      <c r="T302" s="9" t="n"/>
     </row>
     <row r="303">
       <c r="A303" s="5" t="n">
@@ -6912,6 +7029,7 @@
         </is>
       </c>
       <c r="F303" s="8" t="n"/>
+      <c r="T303" s="9" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="5" t="n">
@@ -6938,7 +7056,7 @@
       <c r="K304" t="n">
         <v>50</v>
       </c>
-      <c r="T304" t="inlineStr">
+      <c r="T304" s="9" t="inlineStr">
         <is>
           <t>WITH HOSE BIBB</t>
         </is>
@@ -6959,6 +7077,7 @@
         </is>
       </c>
       <c r="F305" s="8" t="n"/>
+      <c r="T305" s="9" t="n"/>
     </row>
     <row r="306">
       <c r="A306" s="5" t="n">
@@ -6975,6 +7094,7 @@
         </is>
       </c>
       <c r="F306" s="8" t="n"/>
+      <c r="T306" s="9" t="n"/>
     </row>
     <row r="307">
       <c r="A307" s="5" t="n">
@@ -6991,6 +7111,7 @@
         </is>
       </c>
       <c r="F307" s="8" t="n"/>
+      <c r="T307" s="9" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="5" t="n">
@@ -7007,6 +7128,7 @@
         </is>
       </c>
       <c r="F308" s="8" t="n"/>
+      <c r="T308" s="9" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="5" t="n">
@@ -7023,6 +7145,7 @@
         </is>
       </c>
       <c r="F309" s="8" t="n"/>
+      <c r="T309" s="9" t="n"/>
     </row>
     <row r="310">
       <c r="A310" s="5" t="n">
@@ -7039,6 +7162,7 @@
         </is>
       </c>
       <c r="F310" s="8" t="n"/>
+      <c r="T310" s="9" t="n"/>
     </row>
     <row r="311">
       <c r="A311" s="5" t="n">
@@ -7053,6 +7177,7 @@
         </is>
       </c>
       <c r="F311" s="8" t="n"/>
+      <c r="T311" s="9" t="n"/>
     </row>
     <row r="312">
       <c r="A312" s="5" t="n">
@@ -7073,7 +7198,7 @@
       <c r="H312" t="n">
         <v>10</v>
       </c>
-      <c r="T312" t="inlineStr">
+      <c r="T312" s="9" t="inlineStr">
         <is>
           <t>CONNECT TO ITEM #465</t>
         </is>
@@ -7094,6 +7219,7 @@
         </is>
       </c>
       <c r="F313" s="8" t="n"/>
+      <c r="T313" s="9" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="5" t="n">
@@ -7108,7 +7234,7 @@
         </is>
       </c>
       <c r="F314" s="8" t="n"/>
-      <c r="T314" t="inlineStr">
+      <c r="T314" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7127,7 +7253,7 @@
         </is>
       </c>
       <c r="F315" s="8" t="n"/>
-      <c r="T315" t="inlineStr">
+      <c r="T315" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -7146,7 +7272,7 @@
         </is>
       </c>
       <c r="F316" s="8" t="n"/>
-      <c r="T316" t="inlineStr">
+      <c r="T316" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -7167,6 +7293,7 @@
         </is>
       </c>
       <c r="F317" s="8" t="n"/>
+      <c r="T317" s="9" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="5" t="inlineStr">
@@ -7185,6 +7312,7 @@
         </is>
       </c>
       <c r="F318" s="8" t="n"/>
+      <c r="T318" s="9" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
@@ -7237,7 +7365,7 @@
       <c r="K320" t="n">
         <v>40</v>
       </c>
-      <c r="T320" t="inlineStr">
+      <c r="T320" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -7256,7 +7384,7 @@
         </is>
       </c>
       <c r="F321" s="8" t="n"/>
-      <c r="T321" t="inlineStr">
+      <c r="T321" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -7275,7 +7403,7 @@
         </is>
       </c>
       <c r="F322" s="8" t="n"/>
-      <c r="T322" t="inlineStr">
+      <c r="T322" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -7294,7 +7422,7 @@
         </is>
       </c>
       <c r="F323" s="8" t="n"/>
-      <c r="T323" t="inlineStr">
+      <c r="T323" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7313,6 +7441,7 @@
         </is>
       </c>
       <c r="F324" s="8" t="n"/>
+      <c r="T324" s="9" t="n"/>
     </row>
     <row r="325">
       <c r="A325" s="5" t="n">
@@ -7327,7 +7456,7 @@
         </is>
       </c>
       <c r="F325" s="8" t="n"/>
-      <c r="T325" t="inlineStr">
+      <c r="T325" s="9" t="inlineStr">
         <is>
           <t>FOUR TAPS</t>
         </is>
@@ -7346,6 +7475,7 @@
         </is>
       </c>
       <c r="F326" s="8" t="n"/>
+      <c r="T326" s="9" t="n"/>
     </row>
     <row r="327">
       <c r="A327" s="5" t="n">
@@ -7360,7 +7490,7 @@
         </is>
       </c>
       <c r="F327" s="8" t="n"/>
-      <c r="T327" t="inlineStr">
+      <c r="T327" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7381,6 +7511,7 @@
         </is>
       </c>
       <c r="F328" s="8" t="n"/>
+      <c r="T328" s="9" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="5" t="n">
@@ -7397,6 +7528,7 @@
         </is>
       </c>
       <c r="F329" s="8" t="n"/>
+      <c r="T329" s="9" t="n"/>
     </row>
     <row r="330">
       <c r="A330" s="5" t="n">
@@ -7411,7 +7543,7 @@
         </is>
       </c>
       <c r="F330" s="8" t="n"/>
-      <c r="T330" t="inlineStr">
+      <c r="T330" s="9" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #404</t>
         </is>
@@ -7430,7 +7562,7 @@
         </is>
       </c>
       <c r="F331" s="8" t="n"/>
-      <c r="T331" t="inlineStr">
+      <c r="T331" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -7449,6 +7581,7 @@
         </is>
       </c>
       <c r="F332" s="8" t="n"/>
+      <c r="T332" s="9" t="n"/>
     </row>
     <row r="333">
       <c r="A333" s="5" t="n">
@@ -7463,6 +7596,7 @@
         </is>
       </c>
       <c r="F333" s="8" t="n"/>
+      <c r="T333" s="9" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="5" t="n">
@@ -7479,6 +7613,7 @@
         </is>
       </c>
       <c r="F334" s="8" t="n"/>
+      <c r="T334" s="9" t="n"/>
     </row>
     <row r="335">
       <c r="A335" s="5" t="n">
@@ -7496,7 +7631,7 @@
       <c r="G335" t="n">
         <v>20</v>
       </c>
-      <c r="T335" t="inlineStr">
+      <c r="T335" s="9" t="inlineStr">
         <is>
           <t>UNDER COUNTER FOR ITEM #413 #414 #423</t>
         </is>
@@ -7523,6 +7658,7 @@
       <c r="F336" s="8" t="n">
         <v>5.1</v>
       </c>
+      <c r="T336" s="9" t="n"/>
     </row>
     <row r="337">
       <c r="A337" s="5" t="n">
@@ -7548,6 +7684,7 @@
       <c r="G337" t="n">
         <v>6</v>
       </c>
+      <c r="T337" s="9" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="5" t="n">
@@ -7564,6 +7701,7 @@
         </is>
       </c>
       <c r="F338" s="8" t="n"/>
+      <c r="T338" s="9" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="5" t="n">
@@ -7580,6 +7718,7 @@
         </is>
       </c>
       <c r="F339" s="8" t="n"/>
+      <c r="T339" s="9" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="5" t="n">
@@ -7605,6 +7744,7 @@
       <c r="G340" t="n">
         <v>6</v>
       </c>
+      <c r="T340" s="9" t="n"/>
     </row>
     <row r="341">
       <c r="A341" s="5" t="n">
@@ -7627,6 +7767,7 @@
       <c r="F341" s="8" t="n">
         <v>15</v>
       </c>
+      <c r="T341" s="9" t="n"/>
     </row>
     <row r="342">
       <c r="A342" s="5" t="n">
@@ -7649,7 +7790,7 @@
       <c r="F342" s="8" t="n">
         <v>1.64</v>
       </c>
-      <c r="T342" t="inlineStr">
+      <c r="T342" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS WATER COOLED</t>
         </is>
@@ -7668,6 +7809,7 @@
         </is>
       </c>
       <c r="F343" s="8" t="n"/>
+      <c r="T343" s="9" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="5" t="n">
@@ -7684,6 +7826,7 @@
         </is>
       </c>
       <c r="F344" s="8" t="n"/>
+      <c r="T344" s="9" t="n"/>
     </row>
     <row r="345">
       <c r="A345" s="5" t="n">
@@ -7698,7 +7841,7 @@
         </is>
       </c>
       <c r="F345" s="8" t="n"/>
-      <c r="T345" t="inlineStr">
+      <c r="T345" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #404</t>
         </is>
@@ -7717,7 +7860,7 @@
         </is>
       </c>
       <c r="F346" s="8" t="n"/>
-      <c r="T346" t="inlineStr">
+      <c r="T346" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7750,7 +7893,7 @@
       <c r="J347" t="n">
         <v>25</v>
       </c>
-      <c r="T347" t="inlineStr">
+      <c r="T347" s="9" t="inlineStr">
         <is>
           <t>2 GROUP</t>
         </is>
@@ -7772,7 +7915,7 @@
       <c r="K348" t="n">
         <v>50</v>
       </c>
-      <c r="T348" t="inlineStr">
+      <c r="T348" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -7793,6 +7936,7 @@
         </is>
       </c>
       <c r="F349" s="8" t="n"/>
+      <c r="T349" s="9" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="5" t="n">
@@ -7809,6 +7953,7 @@
         </is>
       </c>
       <c r="F350" s="8" t="n"/>
+      <c r="T350" s="9" t="n"/>
     </row>
     <row r="351">
       <c r="A351" s="5" t="n">
@@ -7829,7 +7974,7 @@
       <c r="J351" t="n">
         <v>20</v>
       </c>
-      <c r="T351" t="inlineStr">
+      <c r="T351" s="9" t="inlineStr">
         <is>
           <t>WITH DRAIN PAN</t>
         </is>
@@ -7854,6 +7999,7 @@
       <c r="J352" t="n">
         <v>15</v>
       </c>
+      <c r="T352" s="9" t="n"/>
     </row>
     <row r="353">
       <c r="A353" s="5" t="n">
@@ -7868,7 +8014,7 @@
         </is>
       </c>
       <c r="F353" s="8" t="n"/>
-      <c r="T353" t="inlineStr">
+      <c r="T353" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -7889,6 +8035,7 @@
         </is>
       </c>
       <c r="F354" s="8" t="n"/>
+      <c r="T354" s="9" t="n"/>
     </row>
     <row r="355">
       <c r="A355" s="5" t="n">
@@ -7911,7 +8058,7 @@
       <c r="F355" s="8" t="n">
         <v>1.6</v>
       </c>
-      <c r="T355" t="inlineStr">
+      <c r="T355" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7938,6 +8085,7 @@
       <c r="F356" s="8" t="n">
         <v>1.6</v>
       </c>
+      <c r="T356" s="9" t="n"/>
     </row>
     <row r="357">
       <c r="A357" s="5" t="n">
@@ -7960,7 +8108,7 @@
       <c r="F357" s="8" t="n">
         <v>2.47</v>
       </c>
-      <c r="T357" t="inlineStr">
+      <c r="T357" s="9" t="inlineStr">
         <is>
           <t>MOBILE WATER COOLED</t>
         </is>
@@ -7981,6 +8129,7 @@
         </is>
       </c>
       <c r="F358" s="8" t="n"/>
+      <c r="T358" s="9" t="n"/>
     </row>
     <row r="359">
       <c r="A359" s="5" t="n">
@@ -7997,6 +8146,7 @@
         </is>
       </c>
       <c r="F359" s="8" t="n"/>
+      <c r="T359" s="9" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="5" t="n">
@@ -8011,7 +8161,7 @@
         </is>
       </c>
       <c r="F360" s="8" t="n"/>
-      <c r="T360" t="inlineStr">
+      <c r="T360" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH GLASS RACK</t>
         </is>
@@ -8047,7 +8197,7 @@
       <c r="S361" t="n">
         <v>15</v>
       </c>
-      <c r="T361" t="inlineStr">
+      <c r="T361" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH ICE DIVIDERS PART OF ITEM #441</t>
         </is>
@@ -8083,7 +8233,7 @@
       <c r="S362" t="n">
         <v>15</v>
       </c>
-      <c r="T362" t="inlineStr">
+      <c r="T362" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION DOUBLE HEIGHT WATER COOLED PART OF ITEM #434</t>
         </is>
@@ -8102,7 +8252,7 @@
         </is>
       </c>
       <c r="F363" s="8" t="n"/>
-      <c r="T363" t="inlineStr">
+      <c r="T363" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #442</t>
         </is>
@@ -8124,7 +8274,7 @@
       <c r="K364" t="n">
         <v>50</v>
       </c>
-      <c r="T364" t="inlineStr">
+      <c r="T364" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -8143,7 +8293,7 @@
         </is>
       </c>
       <c r="F365" s="8" t="n"/>
-      <c r="T365" t="inlineStr">
+      <c r="T365" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -8162,7 +8312,7 @@
         </is>
       </c>
       <c r="F366" s="8" t="n"/>
-      <c r="T366" t="inlineStr">
+      <c r="T366" s="9" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
         </is>
@@ -8189,6 +8339,7 @@
       <c r="F367" s="8" t="n">
         <v>1.1</v>
       </c>
+      <c r="T367" s="9" t="n"/>
     </row>
     <row r="368">
       <c r="A368" s="5" t="n">
@@ -8205,6 +8356,7 @@
         </is>
       </c>
       <c r="F368" s="8" t="n"/>
+      <c r="T368" s="9" t="n"/>
     </row>
     <row r="369">
       <c r="A369" s="5" t="n">
@@ -8221,6 +8373,7 @@
         </is>
       </c>
       <c r="F369" s="8" t="n"/>
+      <c r="T369" s="9" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="5" t="n">
@@ -8244,7 +8397,7 @@
       <c r="J370" t="n">
         <v>40</v>
       </c>
-      <c r="T370" t="inlineStr">
+      <c r="T370" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -8263,7 +8416,7 @@
         </is>
       </c>
       <c r="F371" s="8" t="n"/>
-      <c r="T371" t="inlineStr">
+      <c r="T371" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8290,7 +8443,7 @@
       <c r="F372" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T372" t="inlineStr">
+      <c r="T372" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -8317,7 +8470,7 @@
       <c r="F373" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T373" t="inlineStr">
+      <c r="T373" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -8338,6 +8491,7 @@
         </is>
       </c>
       <c r="F374" s="8" t="n"/>
+      <c r="T374" s="9" t="n"/>
     </row>
     <row r="375">
       <c r="A375" s="5" t="n">
@@ -8360,7 +8514,7 @@
       <c r="F375" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T375" t="inlineStr">
+      <c r="T375" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #463 #506 #531 #544 #546 #567</t>
         </is>
@@ -8381,6 +8535,7 @@
         </is>
       </c>
       <c r="F376" s="8" t="n"/>
+      <c r="T376" s="9" t="n"/>
     </row>
     <row r="377">
       <c r="A377" s="5" t="n">
@@ -8397,6 +8552,7 @@
         </is>
       </c>
       <c r="F377" s="8" t="n"/>
+      <c r="T377" s="9" t="n"/>
     </row>
     <row r="378">
       <c r="A378" s="5" t="n">
@@ -8413,6 +8569,7 @@
         </is>
       </c>
       <c r="F378" s="8" t="n"/>
+      <c r="T378" s="9" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="5" t="n">
@@ -8429,6 +8586,7 @@
         </is>
       </c>
       <c r="F379" s="8" t="n"/>
+      <c r="T379" s="9" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="3" t="inlineStr">
@@ -8480,7 +8638,7 @@
       <c r="G381" t="n">
         <v>25</v>
       </c>
-      <c r="T381" t="inlineStr">
+      <c r="T381" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #463 #506 #531 #544 #546 #567</t>
         </is>
@@ -8505,7 +8663,7 @@
       <c r="H382" t="n">
         <v>10</v>
       </c>
-      <c r="T382" t="inlineStr">
+      <c r="T382" s="9" t="inlineStr">
         <is>
           <t>CONNECT TO ITEM #465</t>
         </is>
@@ -8544,7 +8702,7 @@
       <c r="P383" t="n">
         <v>27</v>
       </c>
-      <c r="T383" t="inlineStr">
+      <c r="T383" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -8575,7 +8733,7 @@
       <c r="K384" t="n">
         <v>40</v>
       </c>
-      <c r="T384" t="inlineStr">
+      <c r="T384" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -8608,6 +8766,7 @@
       <c r="I385" t="n">
         <v>1100</v>
       </c>
+      <c r="T385" s="9" t="n"/>
     </row>
     <row r="386">
       <c r="A386" s="5" t="n">
@@ -8622,7 +8781,7 @@
         </is>
       </c>
       <c r="F386" s="8" t="n"/>
-      <c r="T386" t="inlineStr">
+      <c r="T386" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -8641,7 +8800,7 @@
         </is>
       </c>
       <c r="F387" s="8" t="n"/>
-      <c r="T387" t="inlineStr">
+      <c r="T387" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -8663,7 +8822,7 @@
       <c r="L388" t="n">
         <v>44</v>
       </c>
-      <c r="T388" t="inlineStr">
+      <c r="T388" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8691,6 +8850,7 @@
       <c r="I389" t="n">
         <v>110</v>
       </c>
+      <c r="T389" s="9" t="n"/>
     </row>
     <row r="390">
       <c r="A390" s="5" t="n">
@@ -8708,7 +8868,7 @@
       <c r="L390" t="n">
         <v>10.3</v>
       </c>
-      <c r="T390" t="inlineStr">
+      <c r="T390" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -8735,7 +8895,7 @@
       <c r="F391" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T391" t="inlineStr">
+      <c r="T391" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8754,7 +8914,7 @@
         </is>
       </c>
       <c r="F392" s="8" t="n"/>
-      <c r="T392" t="inlineStr">
+      <c r="T392" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH LID</t>
         </is>
@@ -8773,7 +8933,7 @@
         </is>
       </c>
       <c r="F393" s="8" t="n"/>
-      <c r="T393" t="inlineStr">
+      <c r="T393" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8795,6 +8955,7 @@
       <c r="L394" t="n">
         <v>10.3</v>
       </c>
+      <c r="T394" s="9" t="n"/>
     </row>
     <row r="395">
       <c r="A395" s="5" t="n">
@@ -8809,7 +8970,7 @@
         </is>
       </c>
       <c r="F395" s="8" t="n"/>
-      <c r="T395" t="inlineStr">
+      <c r="T395" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -8828,7 +8989,7 @@
         </is>
       </c>
       <c r="F396" s="8" t="n"/>
-      <c r="T396" t="inlineStr">
+      <c r="T396" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -8867,7 +9028,7 @@
       <c r="J397" t="n">
         <v>40</v>
       </c>
-      <c r="T397" t="inlineStr">
+      <c r="T397" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH SINK COVERS</t>
         </is>
@@ -8886,7 +9047,7 @@
         </is>
       </c>
       <c r="F398" s="8" t="n"/>
-      <c r="T398" t="inlineStr">
+      <c r="T398" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8907,6 +9068,7 @@
         </is>
       </c>
       <c r="F399" s="8" t="n"/>
+      <c r="T399" s="9" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="5" t="n">
@@ -8923,6 +9085,7 @@
         </is>
       </c>
       <c r="F400" s="8" t="n"/>
+      <c r="T400" s="9" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="5" t="n">
@@ -8937,7 +9100,7 @@
         </is>
       </c>
       <c r="F401" s="8" t="n"/>
-      <c r="T401" t="inlineStr">
+      <c r="T401" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -8956,7 +9119,7 @@
         </is>
       </c>
       <c r="F402" s="8" t="n"/>
-      <c r="T402" t="inlineStr">
+      <c r="T402" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8983,7 +9146,7 @@
       <c r="F403" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="T403" t="inlineStr">
+      <c r="T403" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -9010,6 +9173,7 @@
       <c r="F404" s="8" t="n">
         <v>7</v>
       </c>
+      <c r="T404" s="9" t="n"/>
     </row>
     <row r="405">
       <c r="A405" s="5" t="n">
@@ -9027,7 +9191,7 @@
       <c r="K405" t="n">
         <v>50</v>
       </c>
-      <c r="T405" t="inlineStr">
+      <c r="T405" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -9054,6 +9218,7 @@
       <c r="F406" s="8" t="n">
         <v>7</v>
       </c>
+      <c r="T406" s="9" t="n"/>
     </row>
     <row r="407">
       <c r="A407" s="5" t="n">
@@ -9076,6 +9241,7 @@
       <c r="F407" s="8" t="n">
         <v>2.2</v>
       </c>
+      <c r="T407" s="9" t="n"/>
     </row>
     <row r="408">
       <c r="A408" s="5" t="n">
@@ -9098,6 +9264,7 @@
       <c r="F408" s="8" t="n">
         <v>4.8</v>
       </c>
+      <c r="T408" s="9" t="n"/>
     </row>
     <row r="409">
       <c r="A409" s="5" t="n">
@@ -9114,6 +9281,7 @@
         </is>
       </c>
       <c r="F409" s="8" t="n"/>
+      <c r="T409" s="9" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="5" t="n">
@@ -9130,6 +9298,7 @@
         </is>
       </c>
       <c r="F410" s="8" t="n"/>
+      <c r="T410" s="9" t="n"/>
     </row>
     <row r="411">
       <c r="A411" s="5" t="n">
@@ -9156,7 +9325,7 @@
       <c r="K411" t="n">
         <v>40</v>
       </c>
-      <c r="T411" t="inlineStr">
+      <c r="T411" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -9175,7 +9344,7 @@
         </is>
       </c>
       <c r="F412" s="8" t="n"/>
-      <c r="T412" t="inlineStr">
+      <c r="T412" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -9194,7 +9363,7 @@
         </is>
       </c>
       <c r="F413" s="8" t="n"/>
-      <c r="T413" t="inlineStr">
+      <c r="T413" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -9213,7 +9382,7 @@
         </is>
       </c>
       <c r="F414" s="8" t="n"/>
-      <c r="T414" t="inlineStr">
+      <c r="T414" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9234,6 +9403,7 @@
         </is>
       </c>
       <c r="F415" s="8" t="n"/>
+      <c r="T415" s="9" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="5" t="n">
@@ -9248,7 +9418,7 @@
         </is>
       </c>
       <c r="F416" s="8" t="n"/>
-      <c r="T416" t="inlineStr">
+      <c r="T416" s="9" t="inlineStr">
         <is>
           <t>PART OF ITEM #494</t>
         </is>
@@ -9267,7 +9437,7 @@
         </is>
       </c>
       <c r="F417" s="8" t="n"/>
-      <c r="T417" t="inlineStr">
+      <c r="T417" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH INGREDIENT BINS</t>
         </is>
@@ -9294,7 +9464,7 @@
       <c r="F418" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="T418" t="inlineStr">
+      <c r="T418" s="9" t="inlineStr">
         <is>
           <t>2 RING</t>
         </is>
@@ -9315,6 +9485,7 @@
         </is>
       </c>
       <c r="F419" s="8" t="n"/>
+      <c r="T419" s="9" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="5" t="n">
@@ -9332,7 +9503,7 @@
       <c r="K420" t="n">
         <v>50</v>
       </c>
-      <c r="T420" t="inlineStr">
+      <c r="T420" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -9368,7 +9539,7 @@
       <c r="S421" t="n">
         <v>15</v>
       </c>
-      <c r="T421" t="inlineStr">
+      <c r="T421" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOORS PART OF ITEM #491</t>
         </is>
@@ -9395,6 +9566,7 @@
       <c r="F422" s="8" t="n">
         <v>1.6</v>
       </c>
+      <c r="T422" s="9" t="n"/>
     </row>
     <row r="423">
       <c r="A423" s="5" t="n">
@@ -9409,7 +9581,7 @@
         </is>
       </c>
       <c r="F423" s="8" t="n"/>
-      <c r="T423" t="inlineStr">
+      <c r="T423" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9443,13 +9615,14 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30_x000D_
+40</t>
         </is>
       </c>
       <c r="L424" t="n">
         <v>14.1</v>
       </c>
-      <c r="T424" t="inlineStr">
+      <c r="T424" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9483,10 +9656,11 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="T425" t="inlineStr">
+          <t>30_x000D_
+40</t>
+        </is>
+      </c>
+      <c r="T425" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9507,6 +9681,7 @@
         </is>
       </c>
       <c r="F426" s="8" t="n"/>
+      <c r="T426" s="9" t="n"/>
     </row>
     <row r="427">
       <c r="A427" s="5" t="n">
@@ -9541,7 +9716,7 @@
       <c r="P427" t="n">
         <v>27</v>
       </c>
-      <c r="T427" t="inlineStr">
+      <c r="T427" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -9562,6 +9737,7 @@
         </is>
       </c>
       <c r="F428" s="8" t="n"/>
+      <c r="T428" s="9" t="n"/>
     </row>
     <row r="429">
       <c r="A429" s="5" t="n">
@@ -9578,6 +9754,7 @@
         </is>
       </c>
       <c r="F429" s="8" t="n"/>
+      <c r="T429" s="9" t="n"/>
     </row>
     <row r="430">
       <c r="A430" s="5" t="n">
@@ -9594,6 +9771,7 @@
         </is>
       </c>
       <c r="F430" s="8" t="n"/>
+      <c r="T430" s="9" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="5" t="inlineStr">
@@ -9612,6 +9790,7 @@
         </is>
       </c>
       <c r="F431" s="8" t="n"/>
+      <c r="T431" s="9" t="n"/>
     </row>
     <row r="432">
       <c r="A432" s="3" t="inlineStr">
@@ -9672,7 +9851,7 @@
       <c r="P433" t="n">
         <v>81</v>
       </c>
-      <c r="T433" t="inlineStr">
+      <c r="T433" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -9691,6 +9870,7 @@
         </is>
       </c>
       <c r="F434" s="8" t="n"/>
+      <c r="T434" s="9" t="n"/>
     </row>
     <row r="435">
       <c r="A435" s="5" t="n">
@@ -9713,7 +9893,7 @@
       <c r="F435" s="8" t="n">
         <v>2.5</v>
       </c>
-      <c r="T435" t="inlineStr">
+      <c r="T435" s="9" t="inlineStr">
         <is>
           <t>MOBILE WATER COOLED</t>
         </is>
@@ -9732,7 +9912,7 @@
         </is>
       </c>
       <c r="F436" s="8" t="n"/>
-      <c r="T436" t="inlineStr">
+      <c r="T436" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9754,7 +9934,7 @@
       <c r="K437" t="n">
         <v>50</v>
       </c>
-      <c r="T437" t="inlineStr">
+      <c r="T437" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -9776,6 +9956,7 @@
       <c r="L438" t="n">
         <v>35.6</v>
       </c>
+      <c r="T438" s="9" t="n"/>
     </row>
     <row r="439">
       <c r="A439" s="5" t="n">
@@ -9799,7 +9980,7 @@
       <c r="L439" t="n">
         <v>23.5</v>
       </c>
-      <c r="T439" t="inlineStr">
+      <c r="T439" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9821,7 +10002,7 @@
       <c r="L440" t="n">
         <v>49.8</v>
       </c>
-      <c r="T440" t="inlineStr">
+      <c r="T440" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH CONVECTION OVEN</t>
         </is>
@@ -9849,6 +10030,7 @@
       <c r="I441" t="n">
         <v>110</v>
       </c>
+      <c r="T441" s="9" t="n"/>
     </row>
     <row r="442">
       <c r="A442" s="5" t="n">
@@ -9866,7 +10048,7 @@
       <c r="L442" t="n">
         <v>10.3</v>
       </c>
-      <c r="T442" t="inlineStr">
+      <c r="T442" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -9885,7 +10067,7 @@
         </is>
       </c>
       <c r="F443" s="8" t="n"/>
-      <c r="T443" t="inlineStr">
+      <c r="T443" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9915,7 +10097,7 @@
       <c r="L444" t="n">
         <v>70.3</v>
       </c>
-      <c r="T444" t="inlineStr">
+      <c r="T444" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH CONVECTION OVEN</t>
         </is>
@@ -9937,7 +10119,7 @@
       <c r="L445" t="n">
         <v>10.3</v>
       </c>
-      <c r="T445" t="inlineStr">
+      <c r="T445" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -9976,7 +10158,7 @@
       <c r="P446" t="n">
         <v>81</v>
       </c>
-      <c r="T446" t="inlineStr">
+      <c r="T446" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -9997,6 +10179,7 @@
         </is>
       </c>
       <c r="F447" s="8" t="n"/>
+      <c r="T447" s="9" t="n"/>
     </row>
     <row r="448">
       <c r="A448" s="5" t="n">
@@ -10031,7 +10214,7 @@
       <c r="P448" t="n">
         <v>81</v>
       </c>
-      <c r="T448" t="inlineStr">
+      <c r="T448" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -10059,6 +10242,7 @@
       <c r="I449" t="n">
         <v>110</v>
       </c>
+      <c r="T449" s="9" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="5" t="n">
@@ -10073,7 +10257,7 @@
         </is>
       </c>
       <c r="F450" s="8" t="n"/>
-      <c r="T450" t="inlineStr">
+      <c r="T450" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10094,6 +10278,7 @@
         </is>
       </c>
       <c r="F451" s="8" t="n"/>
+      <c r="T451" s="9" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="5" t="n">
@@ -10110,6 +10295,7 @@
         </is>
       </c>
       <c r="F452" s="8" t="n"/>
+      <c r="T452" s="9" t="n"/>
     </row>
     <row r="453">
       <c r="A453" s="5" t="n">
@@ -10132,7 +10318,7 @@
       <c r="F453" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="T453" t="inlineStr">
+      <c r="T453" s="9" t="inlineStr">
         <is>
           <t>2 RING</t>
         </is>
@@ -10159,7 +10345,7 @@
       <c r="F454" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="T454" t="inlineStr">
+      <c r="T454" s="9" t="inlineStr">
         <is>
           <t>1 RING</t>
         </is>
@@ -10178,7 +10364,7 @@
         </is>
       </c>
       <c r="F455" s="8" t="n"/>
-      <c r="T455" t="inlineStr">
+      <c r="T455" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10197,7 +10383,7 @@
         </is>
       </c>
       <c r="F456" s="8" t="n"/>
-      <c r="T456" t="inlineStr">
+      <c r="T456" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10218,6 +10404,7 @@
         </is>
       </c>
       <c r="F457" s="8" t="n"/>
+      <c r="T457" s="9" t="n"/>
     </row>
     <row r="458">
       <c r="A458" s="5" t="n">
@@ -10232,7 +10419,7 @@
         </is>
       </c>
       <c r="F458" s="8" t="n"/>
-      <c r="T458" t="inlineStr">
+      <c r="T458" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH LID</t>
         </is>
@@ -10259,6 +10446,7 @@
       <c r="F459" s="8" t="n">
         <v>13</v>
       </c>
+      <c r="T459" s="9" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="5" t="n">
@@ -10281,6 +10469,7 @@
       <c r="F460" s="8" t="n">
         <v>0.9</v>
       </c>
+      <c r="T460" s="9" t="n"/>
     </row>
     <row r="461">
       <c r="A461" s="5" t="n">
@@ -10297,6 +10486,7 @@
         </is>
       </c>
       <c r="F461" s="8" t="n"/>
+      <c r="T461" s="9" t="n"/>
     </row>
     <row r="462">
       <c r="A462" s="5" t="n">
@@ -10314,7 +10504,7 @@
       <c r="K462" t="n">
         <v>50</v>
       </c>
-      <c r="T462" t="inlineStr">
+      <c r="T462" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -10341,6 +10531,7 @@
       <c r="F463" s="8" t="n">
         <v>4.1</v>
       </c>
+      <c r="T463" s="9" t="n"/>
     </row>
     <row r="464">
       <c r="A464" s="5" t="n">
@@ -10363,7 +10554,7 @@
       <c r="F464" s="8" t="n">
         <v>1.64</v>
       </c>
-      <c r="T464" t="inlineStr">
+      <c r="T464" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS WATER COOLED</t>
         </is>
@@ -10390,7 +10581,7 @@
       <c r="F465" s="8" t="n">
         <v>1.64</v>
       </c>
-      <c r="T465" t="inlineStr">
+      <c r="T465" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS WATER COOLED</t>
         </is>
@@ -10417,6 +10608,7 @@
       <c r="F466" s="8" t="n">
         <v>24</v>
       </c>
+      <c r="T466" s="9" t="n"/>
     </row>
     <row r="467">
       <c r="A467" s="5" t="n">
@@ -10433,6 +10625,7 @@
         </is>
       </c>
       <c r="F467" s="8" t="n"/>
+      <c r="T467" s="9" t="n"/>
     </row>
     <row r="468">
       <c r="A468" s="5" t="n">
@@ -10466,7 +10659,7 @@
       <c r="L468" t="n">
         <v>14.1</v>
       </c>
-      <c r="T468" t="inlineStr">
+      <c r="T468" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10505,7 +10698,7 @@
       <c r="P469" t="n">
         <v>81</v>
       </c>
-      <c r="T469" t="inlineStr">
+      <c r="T469" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -10527,7 +10720,7 @@
       <c r="K470" t="n">
         <v>50</v>
       </c>
-      <c r="T470" t="inlineStr">
+      <c r="T470" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -10548,6 +10741,7 @@
         </is>
       </c>
       <c r="F471" s="8" t="n"/>
+      <c r="T471" s="9" t="n"/>
     </row>
     <row r="472">
       <c r="A472" s="5" t="inlineStr">
@@ -10566,6 +10760,7 @@
         </is>
       </c>
       <c r="F472" s="8" t="n"/>
+      <c r="T472" s="9" t="n"/>
     </row>
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
@@ -10618,7 +10813,7 @@
       <c r="K474" t="n">
         <v>40</v>
       </c>
-      <c r="T474" t="inlineStr">
+      <c r="T474" s="9" t="inlineStr">
         <is>
           <t>WITH ELECTRIC FAUCET SOAP AND TOWEL DISPENSER</t>
         </is>
@@ -10637,7 +10832,7 @@
         </is>
       </c>
       <c r="F475" s="8" t="n"/>
-      <c r="T475" t="inlineStr">
+      <c r="T475" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -10656,7 +10851,7 @@
         </is>
       </c>
       <c r="F476" s="8" t="n"/>
-      <c r="T476" t="inlineStr">
+      <c r="T476" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -10695,7 +10890,7 @@
       <c r="J477" t="n">
         <v>40</v>
       </c>
-      <c r="T477" t="inlineStr">
+      <c r="T477" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10716,6 +10911,7 @@
         </is>
       </c>
       <c r="F478" s="8" t="n"/>
+      <c r="T478" s="9" t="n"/>
     </row>
     <row r="479">
       <c r="A479" s="5" t="n">
@@ -10730,7 +10926,7 @@
         </is>
       </c>
       <c r="F479" s="8" t="n"/>
-      <c r="T479" t="inlineStr">
+      <c r="T479" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
         </is>
@@ -10749,7 +10945,7 @@
         </is>
       </c>
       <c r="F480" s="8" t="n"/>
-      <c r="T480" t="inlineStr">
+      <c r="T480" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10768,7 +10964,7 @@
         </is>
       </c>
       <c r="F481" s="8" t="n"/>
-      <c r="T481" t="inlineStr">
+      <c r="T481" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
         </is>
@@ -10789,6 +10985,7 @@
         </is>
       </c>
       <c r="F482" s="8" t="n"/>
+      <c r="T482" s="9" t="n"/>
     </row>
     <row r="483">
       <c r="A483" s="5" t="n">
@@ -10805,6 +11002,7 @@
         </is>
       </c>
       <c r="F483" s="8" t="n"/>
+      <c r="T483" s="9" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="5" t="n">
@@ -10819,7 +11017,7 @@
         </is>
       </c>
       <c r="F484" s="8" t="n"/>
-      <c r="T484" t="inlineStr">
+      <c r="T484" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10846,7 +11044,7 @@
       <c r="F485" s="8" t="n">
         <v>1.64</v>
       </c>
-      <c r="T485" t="inlineStr">
+      <c r="T485" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS AND DRAWERS AND NSF7 RAIL WATER COOLED</t>
         </is>
@@ -10873,7 +11071,7 @@
       <c r="F486" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T486" t="inlineStr">
+      <c r="T486" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -10894,6 +11092,7 @@
         </is>
       </c>
       <c r="F487" s="8" t="n"/>
+      <c r="T487" s="9" t="n"/>
     </row>
     <row r="488">
       <c r="A488" s="5" t="n">
@@ -10916,7 +11115,7 @@
       <c r="F488" s="8" t="n">
         <v>1.64</v>
       </c>
-      <c r="T488" t="inlineStr">
+      <c r="T488" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS AND DRAWERS AND NSF7 RAIL WATER COOLED</t>
         </is>
@@ -10935,7 +11134,7 @@
         </is>
       </c>
       <c r="F489" s="8" t="n"/>
-      <c r="T489" t="inlineStr">
+      <c r="T489" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10954,7 +11153,7 @@
         </is>
       </c>
       <c r="F490" s="8" t="n"/>
-      <c r="T490" t="inlineStr">
+      <c r="T490" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -10975,6 +11174,7 @@
         </is>
       </c>
       <c r="F491" s="8" t="n"/>
+      <c r="T491" s="9" t="n"/>
     </row>
     <row r="492">
       <c r="A492" s="5" t="n">
@@ -10997,6 +11197,7 @@
       <c r="F492" s="8" t="n">
         <v>1.6</v>
       </c>
+      <c r="T492" s="9" t="n"/>
     </row>
     <row r="493">
       <c r="A493" s="5" t="n">
@@ -11019,6 +11220,7 @@
       <c r="F493" s="8" t="n">
         <v>0.2</v>
       </c>
+      <c r="T493" s="9" t="n"/>
     </row>
     <row r="494">
       <c r="A494" s="5" t="n">
@@ -11041,7 +11243,7 @@
       <c r="F494" s="8" t="n">
         <v>1.64</v>
       </c>
-      <c r="T494" t="inlineStr">
+      <c r="T494" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS AND DRAWERS AND NSF7 RAIL WATER COOLED</t>
         </is>
@@ -11072,7 +11274,7 @@
       <c r="J495" t="n">
         <v>40</v>
       </c>
-      <c r="T495" t="inlineStr">
+      <c r="T495" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
         </is>
@@ -11091,7 +11293,7 @@
         </is>
       </c>
       <c r="F496" s="8" t="n"/>
-      <c r="T496" t="inlineStr">
+      <c r="T496" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11112,6 +11314,7 @@
         </is>
       </c>
       <c r="F497" s="8" t="n"/>
+      <c r="T497" s="9" t="n"/>
     </row>
     <row r="498">
       <c r="A498" s="5" t="n">
@@ -11128,6 +11331,7 @@
         </is>
       </c>
       <c r="F498" s="8" t="n"/>
+      <c r="T498" s="9" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="5" t="n">
@@ -11150,7 +11354,7 @@
       <c r="F499" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T499" t="inlineStr">
+      <c r="T499" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11177,7 +11381,7 @@
       <c r="F500" s="8" t="n">
         <v>1.64</v>
       </c>
-      <c r="T500" t="inlineStr">
+      <c r="T500" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS AND DRAWERS AND NSF7 RAIL WATER COOLED</t>
         </is>
@@ -11198,6 +11402,7 @@
         </is>
       </c>
       <c r="F501" s="8" t="n"/>
+      <c r="T501" s="9" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="5" t="n">
@@ -11214,6 +11419,7 @@
         </is>
       </c>
       <c r="F502" s="8" t="n"/>
+      <c r="T502" s="9" t="n"/>
     </row>
     <row r="503">
       <c r="A503" s="5" t="n">
@@ -11237,7 +11443,7 @@
       <c r="J503" t="n">
         <v>40</v>
       </c>
-      <c r="T503" t="inlineStr">
+      <c r="T503" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -11264,6 +11470,7 @@
       <c r="F504" s="8" t="n">
         <v>1.1</v>
       </c>
+      <c r="T504" s="9" t="n"/>
     </row>
     <row r="505">
       <c r="A505" s="5" t="n">
@@ -11278,7 +11485,7 @@
         </is>
       </c>
       <c r="F505" s="8" t="n"/>
-      <c r="T505" t="inlineStr">
+      <c r="T505" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #584</t>
         </is>
@@ -11299,6 +11506,7 @@
         </is>
       </c>
       <c r="F506" s="8" t="n"/>
+      <c r="T506" s="9" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="5" t="inlineStr">
@@ -11317,6 +11525,7 @@
         </is>
       </c>
       <c r="F507" s="8" t="n"/>
+      <c r="T507" s="9" t="n"/>
     </row>
     <row r="508">
       <c r="A508" s="3" t="inlineStr">
@@ -11365,7 +11574,7 @@
       <c r="F509" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T509" t="inlineStr">
+      <c r="T509" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11392,6 +11601,7 @@
       <c r="F510" s="8" t="n">
         <v>0.2</v>
       </c>
+      <c r="T510" s="9" t="n"/>
     </row>
     <row r="511">
       <c r="A511" s="5" t="n">
@@ -11415,7 +11625,7 @@
       <c r="J511" t="n">
         <v>40</v>
       </c>
-      <c r="T511" t="inlineStr">
+      <c r="T511" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -11446,7 +11656,7 @@
       <c r="K512" t="n">
         <v>40</v>
       </c>
-      <c r="T512" t="inlineStr">
+      <c r="T512" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -11467,6 +11677,7 @@
         </is>
       </c>
       <c r="F513" s="8" t="n"/>
+      <c r="T513" s="9" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="5" t="n">
@@ -11481,7 +11692,7 @@
         </is>
       </c>
       <c r="F514" s="8" t="n"/>
-      <c r="T514" t="inlineStr">
+      <c r="T514" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11508,7 +11719,7 @@
       <c r="F515" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T515" t="inlineStr">
+      <c r="T515" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11535,7 +11746,7 @@
       <c r="F516" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T516" t="inlineStr">
+      <c r="T516" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION</t>
         </is>
@@ -11557,7 +11768,7 @@
       <c r="K517" t="n">
         <v>50</v>
       </c>
-      <c r="T517" t="inlineStr">
+      <c r="T517" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -11578,6 +11789,7 @@
         </is>
       </c>
       <c r="F518" s="8" t="n"/>
+      <c r="T518" s="9" t="n"/>
     </row>
     <row r="519">
       <c r="A519" s="5" t="n">
@@ -11600,6 +11812,7 @@
       <c r="F519" s="8" t="n">
         <v>1.9</v>
       </c>
+      <c r="T519" s="9" t="n"/>
     </row>
     <row r="520">
       <c r="A520" s="5" t="n">
@@ -11616,6 +11829,7 @@
         </is>
       </c>
       <c r="F520" s="8" t="n"/>
+      <c r="T520" s="9" t="n"/>
     </row>
     <row r="521">
       <c r="A521" s="5" t="n">
@@ -11647,7 +11861,7 @@
       <c r="S521" t="n">
         <v>15</v>
       </c>
-      <c r="T521" t="inlineStr">
+      <c r="T521" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED PART OF ITEM #701</t>
         </is>
@@ -11674,7 +11888,7 @@
       <c r="F522" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T522" t="inlineStr">
+      <c r="T522" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -11695,6 +11909,7 @@
         </is>
       </c>
       <c r="F523" s="8" t="n"/>
+      <c r="T523" s="9" t="n"/>
     </row>
     <row r="524">
       <c r="A524" s="5" t="n">
@@ -11717,7 +11932,7 @@
       <c r="F524" s="8" t="n">
         <v>7.2</v>
       </c>
-      <c r="T524" t="inlineStr">
+      <c r="T524" s="9" t="inlineStr">
         <is>
           <t>UNDER COUNTER</t>
         </is>
@@ -11753,7 +11968,7 @@
       <c r="S525" t="n">
         <v>15</v>
       </c>
-      <c r="T525" t="inlineStr">
+      <c r="T525" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION WATER COOLED PART OF ITEM #701</t>
         </is>
@@ -11780,7 +11995,7 @@
       <c r="F526" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T526" t="inlineStr">
+      <c r="T526" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -11801,6 +12016,7 @@
         </is>
       </c>
       <c r="F527" s="8" t="n"/>
+      <c r="T527" s="9" t="n"/>
     </row>
     <row r="528">
       <c r="A528" s="5" t="n">
@@ -11818,7 +12034,7 @@
       <c r="K528" t="n">
         <v>50</v>
       </c>
-      <c r="T528" t="inlineStr">
+      <c r="T528" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -11854,7 +12070,7 @@
       <c r="S529" t="n">
         <v>15</v>
       </c>
-      <c r="T529" t="inlineStr">
+      <c r="T529" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION PART OF ITEM #701</t>
         </is>
@@ -11875,6 +12091,7 @@
         </is>
       </c>
       <c r="F530" s="8" t="n"/>
+      <c r="T530" s="9" t="n"/>
     </row>
     <row r="531">
       <c r="A531" s="5" t="n">
@@ -11897,7 +12114,7 @@
       <c r="F531" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T531" t="inlineStr">
+      <c r="T531" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION</t>
         </is>
@@ -11924,7 +12141,7 @@
       <c r="F532" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T532" t="inlineStr">
+      <c r="T532" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -11945,6 +12162,7 @@
         </is>
       </c>
       <c r="F533" s="8" t="n"/>
+      <c r="T533" s="9" t="n"/>
     </row>
     <row r="534">
       <c r="A534" s="5" t="n">
@@ -11967,7 +12185,7 @@
       <c r="F534" s="8" t="n">
         <v>7.2</v>
       </c>
-      <c r="T534" t="inlineStr">
+      <c r="T534" s="9" t="inlineStr">
         <is>
           <t>UNDER COUNTER</t>
         </is>
@@ -12003,7 +12221,7 @@
       <c r="S535" t="n">
         <v>15</v>
       </c>
-      <c r="T535" t="inlineStr">
+      <c r="T535" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION WATER COOLED PART OF ITEM #701</t>
         </is>
@@ -12022,7 +12240,7 @@
         </is>
       </c>
       <c r="F536" s="8" t="n"/>
-      <c r="T536" t="inlineStr">
+      <c r="T536" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -12043,6 +12261,7 @@
         </is>
       </c>
       <c r="F537" s="8" t="n"/>
+      <c r="T537" s="9" t="n"/>
     </row>
     <row r="538">
       <c r="A538" s="5" t="n">
@@ -12059,6 +12278,7 @@
         </is>
       </c>
       <c r="F538" s="8" t="n"/>
+      <c r="T538" s="9" t="n"/>
     </row>
     <row r="539">
       <c r="A539" s="5" t="n">
@@ -12081,7 +12301,7 @@
       <c r="F539" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T539" t="inlineStr">
+      <c r="T539" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12100,7 +12320,7 @@
         </is>
       </c>
       <c r="F540" s="8" t="n"/>
-      <c r="T540" t="inlineStr">
+      <c r="T540" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -12131,7 +12351,7 @@
       <c r="K541" t="n">
         <v>40</v>
       </c>
-      <c r="T541" t="inlineStr">
+      <c r="T541" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -12153,7 +12373,7 @@
       <c r="K542" t="n">
         <v>50</v>
       </c>
-      <c r="T542" t="inlineStr">
+      <c r="T542" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -12176,6 +12396,7 @@
         </is>
       </c>
       <c r="F543" s="8" t="n"/>
+      <c r="T543" s="9" t="n"/>
     </row>
     <row r="544">
       <c r="A544" s="5" t="n">
@@ -12190,7 +12411,7 @@
         </is>
       </c>
       <c r="F544" s="8" t="n"/>
-      <c r="T544" t="inlineStr">
+      <c r="T544" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -12217,7 +12438,7 @@
       <c r="F545" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T545" t="inlineStr">
+      <c r="T545" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751 WITH ADJUSTABLE SHELF</t>
         </is>
@@ -12244,6 +12465,7 @@
       <c r="F546" s="8" t="n">
         <v>0.2</v>
       </c>
+      <c r="T546" s="9" t="n"/>
     </row>
     <row r="547">
       <c r="A547" s="5" t="n">
@@ -12258,7 +12480,7 @@
         </is>
       </c>
       <c r="F547" s="8" t="n"/>
-      <c r="T547" t="inlineStr">
+      <c r="T547" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -12279,6 +12501,7 @@
         </is>
       </c>
       <c r="F548" s="8" t="n"/>
+      <c r="T548" s="9" t="n"/>
     </row>
     <row r="549">
       <c r="A549" s="5" t="n">
@@ -12301,6 +12524,7 @@
       <c r="F549" s="8" t="n">
         <v>0.1</v>
       </c>
+      <c r="T549" s="9" t="n"/>
     </row>
     <row r="550">
       <c r="A550" s="5" t="n">
@@ -12332,7 +12556,7 @@
       <c r="S550" t="n">
         <v>15</v>
       </c>
-      <c r="T550" t="inlineStr">
+      <c r="T550" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION PART OF ITEM #751</t>
         </is>
@@ -12359,7 +12583,7 @@
       <c r="F551" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T551" t="inlineStr">
+      <c r="T551" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION</t>
         </is>
@@ -12380,6 +12604,7 @@
         </is>
       </c>
       <c r="F552" s="8" t="n"/>
+      <c r="T552" s="9" t="n"/>
     </row>
     <row r="553">
       <c r="A553" s="5" t="n">
@@ -12396,6 +12621,7 @@
         </is>
       </c>
       <c r="F553" s="8" t="n"/>
+      <c r="T553" s="9" t="n"/>
     </row>
     <row r="554">
       <c r="A554" s="5" t="n">
@@ -12410,7 +12636,7 @@
         </is>
       </c>
       <c r="F554" s="8" t="n"/>
-      <c r="T554" t="inlineStr">
+      <c r="T554" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
         </is>
@@ -12441,7 +12667,7 @@
       <c r="J555" t="n">
         <v>40</v>
       </c>
-      <c r="T555" t="inlineStr">
+      <c r="T555" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
         </is>
@@ -12477,7 +12703,7 @@
       <c r="S556" t="n">
         <v>15</v>
       </c>
-      <c r="T556" t="inlineStr">
+      <c r="T556" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION PART OF ITEM #751</t>
         </is>
@@ -12496,7 +12722,7 @@
         </is>
       </c>
       <c r="F557" s="8" t="n"/>
-      <c r="T557" t="inlineStr">
+      <c r="T557" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
         </is>
@@ -12517,6 +12743,7 @@
         </is>
       </c>
       <c r="F558" s="8" t="n"/>
+      <c r="T558" s="9" t="n"/>
     </row>
     <row r="559">
       <c r="A559" s="5" t="n">
@@ -12539,7 +12766,7 @@
       <c r="F559" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T559" t="inlineStr">
+      <c r="T559" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751 WITH ADJUSTABLE SHELF</t>
         </is>
@@ -12566,6 +12793,7 @@
       <c r="F560" s="8" t="n">
         <v>0.2</v>
       </c>
+      <c r="T560" s="9" t="n"/>
     </row>
     <row r="561">
       <c r="A561" s="5" t="n">
@@ -12580,7 +12808,7 @@
         </is>
       </c>
       <c r="F561" s="8" t="n"/>
-      <c r="T561" t="inlineStr">
+      <c r="T561" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -12601,6 +12829,7 @@
         </is>
       </c>
       <c r="F562" s="8" t="n"/>
+      <c r="T562" s="9" t="n"/>
     </row>
     <row r="563">
       <c r="A563" s="5" t="n">
@@ -12617,6 +12846,7 @@
         </is>
       </c>
       <c r="F563" s="8" t="n"/>
+      <c r="T563" s="9" t="n"/>
     </row>
     <row r="564">
       <c r="A564" s="5" t="n">
@@ -12639,6 +12869,7 @@
       <c r="F564" s="8" t="n">
         <v>0.1</v>
       </c>
+      <c r="T564" s="9" t="n"/>
     </row>
     <row r="565">
       <c r="A565" s="5" t="n">
@@ -12670,7 +12901,7 @@
       <c r="S565" t="n">
         <v>15</v>
       </c>
-      <c r="T565" t="inlineStr">
+      <c r="T565" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION WATER COOLED PART OF ITEM #751</t>
         </is>
@@ -12701,7 +12932,7 @@
       <c r="J566" t="n">
         <v>40</v>
       </c>
-      <c r="T566" t="inlineStr">
+      <c r="T566" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
         </is>
@@ -12737,7 +12968,7 @@
       <c r="S567" t="n">
         <v>15</v>
       </c>
-      <c r="T567" t="inlineStr">
+      <c r="T567" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION WATER COOLED PART OF ITEM #751</t>
         </is>
@@ -12758,6 +12989,7 @@
         </is>
       </c>
       <c r="F568" s="8" t="n"/>
+      <c r="T568" s="9" t="n"/>
     </row>
     <row r="569">
       <c r="A569" s="5" t="n">
@@ -12772,7 +13004,7 @@
         </is>
       </c>
       <c r="F569" s="8" t="n"/>
-      <c r="T569" t="inlineStr">
+      <c r="T569" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
         </is>
@@ -12799,7 +13031,7 @@
       <c r="F570" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T570" t="inlineStr">
+      <c r="T570" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751 WITH ADJUSTABLE SHELF</t>
         </is>
@@ -12826,6 +13058,7 @@
       <c r="F571" s="8" t="n">
         <v>0.2</v>
       </c>
+      <c r="T571" s="9" t="n"/>
     </row>
     <row r="572">
       <c r="A572" s="5" t="n">
@@ -12842,6 +13075,7 @@
         </is>
       </c>
       <c r="F572" s="8" t="n"/>
+      <c r="T572" s="9" t="n"/>
     </row>
     <row r="573">
       <c r="A573" s="5" t="n">
@@ -12858,6 +13092,7 @@
         </is>
       </c>
       <c r="F573" s="8" t="n"/>
+      <c r="T573" s="9" t="n"/>
     </row>
     <row r="574">
       <c r="A574" s="5" t="n">
@@ -12872,7 +13107,7 @@
         </is>
       </c>
       <c r="F574" s="8" t="n"/>
-      <c r="T574" t="inlineStr">
+      <c r="T574" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -12899,6 +13134,7 @@
       <c r="F575" s="8" t="n">
         <v>0.1</v>
       </c>
+      <c r="T575" s="9" t="n"/>
     </row>
     <row r="576">
       <c r="A576" s="5" t="n">
@@ -12930,7 +13166,7 @@
       <c r="S576" t="n">
         <v>15</v>
       </c>
-      <c r="T576" t="inlineStr">
+      <c r="T576" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION REMOTE REFRIGERATION WATER COOLED PART OF ITEM #751</t>
         </is>
@@ -12961,7 +13197,7 @@
       <c r="J577" t="n">
         <v>40</v>
       </c>
-      <c r="T577" t="inlineStr">
+      <c r="T577" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #751</t>
         </is>
@@ -12982,6 +13218,7 @@
         </is>
       </c>
       <c r="F578" s="8" t="n"/>
+      <c r="T578" s="9" t="n"/>
     </row>
     <row r="579">
       <c r="A579" s="5" t="n">
@@ -12996,7 +13233,7 @@
         </is>
       </c>
       <c r="F579" s="8" t="n"/>
-      <c r="T579" t="inlineStr">
+      <c r="T579" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER</t>
         </is>
@@ -13017,6 +13254,7 @@
         </is>
       </c>
       <c r="F580" s="8" t="n"/>
+      <c r="T580" s="9" t="n"/>
     </row>
     <row r="581">
       <c r="A581" s="5" t="n">
@@ -13033,6 +13271,7 @@
         </is>
       </c>
       <c r="F581" s="8" t="n"/>
+      <c r="T581" s="9" t="n"/>
     </row>
     <row r="582">
       <c r="A582" s="5" t="n">
@@ -13049,6 +13288,7 @@
         </is>
       </c>
       <c r="F582" s="8" t="n"/>
+      <c r="T582" s="9" t="n"/>
     </row>
     <row r="583">
       <c r="A583" s="5" t="inlineStr">
@@ -13067,6 +13307,7 @@
         </is>
       </c>
       <c r="F583" s="8" t="n"/>
+      <c r="T583" s="9" t="n"/>
     </row>
     <row r="584">
       <c r="A584" s="3" t="inlineStr">
@@ -13107,7 +13348,7 @@
         </is>
       </c>
       <c r="F585" s="8" t="n"/>
-      <c r="T585" t="inlineStr">
+      <c r="T585" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER WITH DRINK RAIL</t>
         </is>
@@ -13126,7 +13367,7 @@
         </is>
       </c>
       <c r="F586" s="8" t="n"/>
-      <c r="T586" t="inlineStr">
+      <c r="T586" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13157,7 +13398,7 @@
       <c r="J587" t="n">
         <v>40</v>
       </c>
-      <c r="T587" t="inlineStr">
+      <c r="T587" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH SOAP AND TOWEL DISPENSER PART OF ITEM #802</t>
         </is>
@@ -13193,7 +13434,7 @@
       <c r="S588" t="n">
         <v>15</v>
       </c>
-      <c r="T588" t="inlineStr">
+      <c r="T588" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -13215,7 +13456,7 @@
       <c r="K589" t="n">
         <v>50</v>
       </c>
-      <c r="T589" t="inlineStr">
+      <c r="T589" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -13242,7 +13483,7 @@
       <c r="F590" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T590" t="inlineStr">
+      <c r="T590" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -13269,7 +13510,7 @@
       <c r="F591" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T591" t="inlineStr">
+      <c r="T591" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -13300,7 +13541,7 @@
       <c r="J592" t="n">
         <v>40</v>
       </c>
-      <c r="T592" t="inlineStr">
+      <c r="T592" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -13321,6 +13562,7 @@
         </is>
       </c>
       <c r="F593" s="8" t="n"/>
+      <c r="T593" s="9" t="n"/>
     </row>
     <row r="594">
       <c r="A594" s="5" t="n">
@@ -13337,6 +13579,7 @@
         </is>
       </c>
       <c r="F594" s="8" t="n"/>
+      <c r="T594" s="9" t="n"/>
     </row>
     <row r="595">
       <c r="A595" s="5" t="n">
@@ -13351,7 +13594,7 @@
         </is>
       </c>
       <c r="F595" s="8" t="n"/>
-      <c r="T595" t="inlineStr">
+      <c r="T595" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -13370,7 +13613,7 @@
         </is>
       </c>
       <c r="F596" s="8" t="n"/>
-      <c r="T596" t="inlineStr">
+      <c r="T596" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -13389,7 +13632,7 @@
         </is>
       </c>
       <c r="F597" s="8" t="n"/>
-      <c r="T597" t="inlineStr">
+      <c r="T597" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -13416,7 +13659,7 @@
       <c r="F598" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="T598" t="inlineStr">
+      <c r="T598" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -13437,6 +13680,7 @@
         </is>
       </c>
       <c r="F599" s="8" t="n"/>
+      <c r="T599" s="9" t="n"/>
     </row>
     <row r="600">
       <c r="A600" s="5" t="n">
@@ -13451,7 +13695,7 @@
         </is>
       </c>
       <c r="F600" s="8" t="n"/>
-      <c r="T600" t="inlineStr">
+      <c r="T600" s="9" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
         </is>
@@ -13470,7 +13714,7 @@
         </is>
       </c>
       <c r="F601" s="8" t="n"/>
-      <c r="T601" t="inlineStr">
+      <c r="T601" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -13506,7 +13750,7 @@
       <c r="S602" t="n">
         <v>15</v>
       </c>
-      <c r="T602" t="inlineStr">
+      <c r="T602" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH ICE DIVIDERS WATER COOLED PART OF ITEM #802</t>
         </is>
@@ -13527,6 +13771,7 @@
         </is>
       </c>
       <c r="F603" s="8" t="n"/>
+      <c r="T603" s="9" t="n"/>
     </row>
     <row r="604">
       <c r="A604" s="5" t="n">
@@ -13543,6 +13788,7 @@
         </is>
       </c>
       <c r="F604" s="8" t="n"/>
+      <c r="T604" s="9" t="n"/>
     </row>
     <row r="605">
       <c r="A605" s="5" t="n">
@@ -13574,7 +13820,7 @@
       <c r="S605" t="n">
         <v>15</v>
       </c>
-      <c r="T605" t="inlineStr">
+      <c r="T605" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION DOUBLE HEIGHT WATER COOLED PART OF ITEM #802</t>
         </is>
@@ -13593,7 +13839,7 @@
         </is>
       </c>
       <c r="F606" s="8" t="n"/>
-      <c r="T606" t="inlineStr">
+      <c r="T606" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -13629,7 +13875,7 @@
       <c r="S607" t="n">
         <v>15</v>
       </c>
-      <c r="T607" t="inlineStr">
+      <c r="T607" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -13660,7 +13906,7 @@
       <c r="J608" t="n">
         <v>40</v>
       </c>
-      <c r="T608" t="inlineStr">
+      <c r="T608" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -13681,6 +13927,7 @@
         </is>
       </c>
       <c r="F609" s="8" t="n"/>
+      <c r="T609" s="9" t="n"/>
     </row>
     <row r="610">
       <c r="A610" s="5" t="n">
@@ -13695,7 +13942,7 @@
         </is>
       </c>
       <c r="F610" s="8" t="n"/>
-      <c r="T610" t="inlineStr">
+      <c r="T610" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -13714,7 +13961,7 @@
         </is>
       </c>
       <c r="F611" s="8" t="n"/>
-      <c r="T611" t="inlineStr">
+      <c r="T611" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -13733,7 +13980,7 @@
         </is>
       </c>
       <c r="F612" s="8" t="n"/>
-      <c r="T612" t="inlineStr">
+      <c r="T612" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -13754,6 +14001,7 @@
         </is>
       </c>
       <c r="F613" s="8" t="n"/>
+      <c r="T613" s="9" t="n"/>
     </row>
     <row r="614">
       <c r="A614" s="5" t="n">
@@ -13770,6 +14018,7 @@
         </is>
       </c>
       <c r="F614" s="8" t="n"/>
+      <c r="T614" s="9" t="n"/>
     </row>
     <row r="615">
       <c r="A615" s="5" t="n">
@@ -13792,7 +14041,7 @@
       <c r="F615" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="T615" t="inlineStr">
+      <c r="T615" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -13811,7 +14060,7 @@
         </is>
       </c>
       <c r="F616" s="8" t="n"/>
-      <c r="T616" t="inlineStr">
+      <c r="T616" s="9" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
         </is>
@@ -13830,7 +14079,7 @@
         </is>
       </c>
       <c r="F617" s="8" t="n"/>
-      <c r="T617" t="inlineStr">
+      <c r="T617" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -13866,7 +14115,7 @@
       <c r="S618" t="n">
         <v>15</v>
       </c>
-      <c r="T618" t="inlineStr">
+      <c r="T618" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH ICE DIVIDERSWATER COOLED PART OF ITEM #802</t>
         </is>
@@ -13887,6 +14136,7 @@
         </is>
       </c>
       <c r="F619" s="8" t="n"/>
+      <c r="T619" s="9" t="n"/>
     </row>
     <row r="620">
       <c r="A620" s="5" t="n">
@@ -13918,7 +14168,7 @@
       <c r="S620" t="n">
         <v>15</v>
       </c>
-      <c r="T620" t="inlineStr">
+      <c r="T620" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION DOUBLE HEIGHT WATER COOLED PART OF ITEM #802</t>
         </is>
@@ -13937,7 +14187,7 @@
         </is>
       </c>
       <c r="F621" s="8" t="n"/>
-      <c r="T621" t="inlineStr">
+      <c r="T621" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -13973,7 +14223,7 @@
       <c r="S622" t="n">
         <v>15</v>
       </c>
-      <c r="T622" t="inlineStr">
+      <c r="T622" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -13995,7 +14245,7 @@
       <c r="K623" t="n">
         <v>50</v>
       </c>
-      <c r="T623" t="inlineStr">
+      <c r="T623" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -14016,6 +14266,7 @@
         </is>
       </c>
       <c r="F624" s="8" t="n"/>
+      <c r="T624" s="9" t="n"/>
     </row>
     <row r="625">
       <c r="A625" s="5" t="n">
@@ -14047,7 +14298,7 @@
       <c r="S625" t="n">
         <v>15</v>
       </c>
-      <c r="T625" t="inlineStr">
+      <c r="T625" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -14083,7 +14334,7 @@
       <c r="S626" t="n">
         <v>15</v>
       </c>
-      <c r="T626" t="inlineStr">
+      <c r="T626" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH ICE DIVIDERS PART OF ITEM #802</t>
         </is>
@@ -14119,7 +14370,7 @@
       <c r="S627" t="n">
         <v>15</v>
       </c>
-      <c r="T627" t="inlineStr">
+      <c r="T627" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION DOUBLE HEIGHT WATER COOLED PART OF ITEM #802</t>
         </is>
@@ -14138,7 +14389,7 @@
         </is>
       </c>
       <c r="F628" s="8" t="n"/>
-      <c r="T628" t="inlineStr">
+      <c r="T628" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14159,6 +14410,7 @@
         </is>
       </c>
       <c r="F629" s="8" t="n"/>
+      <c r="T629" s="9" t="n"/>
     </row>
     <row r="630">
       <c r="A630" s="5" t="n">
@@ -14173,7 +14425,7 @@
         </is>
       </c>
       <c r="F630" s="8" t="n"/>
-      <c r="T630" t="inlineStr">
+      <c r="T630" s="9" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
         </is>
@@ -14192,7 +14444,7 @@
         </is>
       </c>
       <c r="F631" s="8" t="n"/>
-      <c r="T631" t="inlineStr">
+      <c r="T631" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -14211,7 +14463,7 @@
         </is>
       </c>
       <c r="F632" s="8" t="n"/>
-      <c r="T632" t="inlineStr">
+      <c r="T632" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14232,6 +14484,7 @@
         </is>
       </c>
       <c r="F633" s="8" t="n"/>
+      <c r="T633" s="9" t="n"/>
     </row>
     <row r="634">
       <c r="A634" s="5" t="n">
@@ -14248,6 +14501,7 @@
         </is>
       </c>
       <c r="F634" s="8" t="n"/>
+      <c r="T634" s="9" t="n"/>
     </row>
     <row r="635">
       <c r="A635" s="5" t="n">
@@ -14270,7 +14524,7 @@
       <c r="F635" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="T635" t="inlineStr">
+      <c r="T635" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -14301,7 +14555,7 @@
       <c r="J636" t="n">
         <v>40</v>
       </c>
-      <c r="T636" t="inlineStr">
+      <c r="T636" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14320,7 +14574,7 @@
         </is>
       </c>
       <c r="F637" s="8" t="n"/>
-      <c r="T637" t="inlineStr">
+      <c r="T637" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14339,7 +14593,7 @@
         </is>
       </c>
       <c r="F638" s="8" t="n"/>
-      <c r="T638" t="inlineStr">
+      <c r="T638" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -14360,6 +14614,7 @@
         </is>
       </c>
       <c r="F639" s="8" t="n"/>
+      <c r="T639" s="9" t="n"/>
     </row>
     <row r="640">
       <c r="A640" s="5" t="n">
@@ -14382,7 +14637,7 @@
       <c r="F640" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T640" t="inlineStr">
+      <c r="T640" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -14409,7 +14664,7 @@
       <c r="F641" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T641" t="inlineStr">
+      <c r="T641" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -14445,7 +14700,7 @@
       <c r="S642" t="n">
         <v>15</v>
       </c>
-      <c r="T642" t="inlineStr">
+      <c r="T642" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -14466,6 +14721,7 @@
         </is>
       </c>
       <c r="F643" s="8" t="n"/>
+      <c r="T643" s="9" t="n"/>
     </row>
     <row r="644">
       <c r="A644" s="5" t="n">
@@ -14482,6 +14738,7 @@
         </is>
       </c>
       <c r="F644" s="8" t="n"/>
+      <c r="T644" s="9" t="n"/>
     </row>
     <row r="645">
       <c r="A645" s="5" t="n">
@@ -14508,7 +14765,7 @@
       <c r="J645" t="n">
         <v>40</v>
       </c>
-      <c r="T645" t="inlineStr">
+      <c r="T645" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH SOAP AND TOWEL DISPENSER PART OF ITEM #802</t>
         </is>
@@ -14539,7 +14796,7 @@
       <c r="J646" t="n">
         <v>40</v>
       </c>
-      <c r="T646" t="inlineStr">
+      <c r="T646" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14558,7 +14815,7 @@
         </is>
       </c>
       <c r="F647" s="8" t="n"/>
-      <c r="T647" t="inlineStr">
+      <c r="T647" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14577,7 +14834,7 @@
         </is>
       </c>
       <c r="F648" s="8" t="n"/>
-      <c r="T648" t="inlineStr">
+      <c r="T648" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -14598,6 +14855,7 @@
         </is>
       </c>
       <c r="F649" s="8" t="n"/>
+      <c r="T649" s="9" t="n"/>
     </row>
     <row r="650">
       <c r="A650" s="5" t="n">
@@ -14612,7 +14870,7 @@
         </is>
       </c>
       <c r="F650" s="8" t="n"/>
-      <c r="T650" t="inlineStr">
+      <c r="T650" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14639,7 +14897,7 @@
       <c r="F651" s="8" t="n">
         <v>3.5</v>
       </c>
-      <c r="T651" t="inlineStr">
+      <c r="T651" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -14675,7 +14933,7 @@
       <c r="S652" t="n">
         <v>15</v>
       </c>
-      <c r="T652" t="inlineStr">
+      <c r="T652" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14696,6 +14954,7 @@
         </is>
       </c>
       <c r="F653" s="8" t="n"/>
+      <c r="T653" s="9" t="n"/>
     </row>
     <row r="654">
       <c r="A654" s="5" t="n">
@@ -14712,6 +14971,7 @@
         </is>
       </c>
       <c r="F654" s="8" t="n"/>
+      <c r="T654" s="9" t="n"/>
     </row>
     <row r="655">
       <c r="A655" s="5" t="n">
@@ -14726,7 +14986,7 @@
         </is>
       </c>
       <c r="F655" s="8" t="n"/>
-      <c r="T655" t="inlineStr">
+      <c r="T655" s="9" t="inlineStr">
         <is>
           <t>MOUNTED TO ITEM #802</t>
         </is>
@@ -14745,7 +15005,7 @@
         </is>
       </c>
       <c r="F656" s="8" t="n"/>
-      <c r="T656" t="inlineStr">
+      <c r="T656" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -14781,7 +15041,7 @@
       <c r="S657" t="n">
         <v>15</v>
       </c>
-      <c r="T657" t="inlineStr">
+      <c r="T657" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION DOUBLE HEIGHT WATER COOLED PART OF ITEM #802</t>
         </is>
@@ -14800,7 +15060,7 @@
         </is>
       </c>
       <c r="F658" s="8" t="n"/>
-      <c r="T658" t="inlineStr">
+      <c r="T658" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #802</t>
         </is>
@@ -14821,6 +15081,7 @@
         </is>
       </c>
       <c r="F659" s="8" t="n"/>
+      <c r="T659" s="9" t="n"/>
     </row>
     <row r="660">
       <c r="A660" s="5" t="n">
@@ -14852,7 +15113,7 @@
       <c r="S660" t="n">
         <v>15</v>
       </c>
-      <c r="T660" t="inlineStr">
+      <c r="T660" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -14888,7 +15149,7 @@
       <c r="S661" t="n">
         <v>15</v>
       </c>
-      <c r="T661" t="inlineStr">
+      <c r="T661" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -14924,7 +15185,7 @@
       <c r="S662" t="n">
         <v>15</v>
       </c>
-      <c r="T662" t="inlineStr">
+      <c r="T662" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -14945,6 +15206,7 @@
         </is>
       </c>
       <c r="F663" s="8" t="n"/>
+      <c r="T663" s="9" t="n"/>
     </row>
     <row r="664">
       <c r="A664" s="5" t="n">
@@ -14961,6 +15223,7 @@
         </is>
       </c>
       <c r="F664" s="8" t="n"/>
+      <c r="T664" s="9" t="n"/>
     </row>
     <row r="665">
       <c r="A665" s="5" t="n">
@@ -14992,7 +15255,7 @@
       <c r="S665" t="n">
         <v>15</v>
       </c>
-      <c r="T665" t="inlineStr">
+      <c r="T665" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOOR PART OF ITEM#802</t>
         </is>
@@ -15011,7 +15274,7 @@
         </is>
       </c>
       <c r="F666" s="8" t="n"/>
-      <c r="T666" t="inlineStr">
+      <c r="T666" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER PART OF ITEM#801</t>
         </is>
@@ -15032,6 +15295,7 @@
         </is>
       </c>
       <c r="F667" s="8" t="n"/>
+      <c r="T667" s="9" t="n"/>
     </row>
     <row r="668">
       <c r="A668" s="5" t="n">
@@ -15048,6 +15312,7 @@
         </is>
       </c>
       <c r="F668" s="8" t="n"/>
+      <c r="T668" s="9" t="n"/>
     </row>
     <row r="669">
       <c r="A669" s="5" t="n">
@@ -15064,6 +15329,7 @@
         </is>
       </c>
       <c r="F669" s="8" t="n"/>
+      <c r="T669" s="9" t="n"/>
     </row>
     <row r="670">
       <c r="A670" s="5" t="n">
@@ -15078,7 +15344,7 @@
         </is>
       </c>
       <c r="F670" s="8" t="n"/>
-      <c r="T670" t="inlineStr">
+      <c r="T670" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY INTERIOR DESIGNER</t>
         </is>
@@ -15114,7 +15380,7 @@
       <c r="S671" t="n">
         <v>15</v>
       </c>
-      <c r="T671" t="inlineStr">
+      <c r="T671" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WATER COOLED WITH DOORS PART OF ITEM #886</t>
         </is>
@@ -15135,6 +15401,7 @@
         </is>
       </c>
       <c r="F672" s="8" t="n"/>
+      <c r="T672" s="9" t="n"/>
     </row>
     <row r="673">
       <c r="A673" s="5" t="n">
@@ -15151,6 +15418,7 @@
         </is>
       </c>
       <c r="F673" s="8" t="n"/>
+      <c r="T673" s="9" t="n"/>
     </row>
     <row r="674">
       <c r="A674" s="5" t="n">
@@ -15167,6 +15435,7 @@
         </is>
       </c>
       <c r="F674" s="8" t="n"/>
+      <c r="T674" s="9" t="n"/>
     </row>
     <row r="675">
       <c r="A675" s="5" t="n">
@@ -15183,6 +15452,7 @@
         </is>
       </c>
       <c r="F675" s="8" t="n"/>
+      <c r="T675" s="9" t="n"/>
     </row>
     <row r="676">
       <c r="A676" s="5" t="n">
@@ -15199,6 +15469,7 @@
         </is>
       </c>
       <c r="F676" s="8" t="n"/>
+      <c r="T676" s="9" t="n"/>
     </row>
     <row r="677">
       <c r="A677" s="5" t="n">
@@ -15215,6 +15486,7 @@
         </is>
       </c>
       <c r="F677" s="8" t="n"/>
+      <c r="T677" s="9" t="n"/>
     </row>
     <row r="678">
       <c r="A678" s="5" t="n">
@@ -15231,6 +15503,7 @@
         </is>
       </c>
       <c r="F678" s="8" t="n"/>
+      <c r="T678" s="9" t="n"/>
     </row>
     <row r="679">
       <c r="A679" s="5" t="inlineStr">
@@ -15249,6 +15522,7 @@
         </is>
       </c>
       <c r="F679" s="8" t="n"/>
+      <c r="T679" s="9" t="n"/>
     </row>
     <row r="680">
       <c r="A680" s="3" t="inlineStr">
@@ -15289,7 +15563,7 @@
         </is>
       </c>
       <c r="F681" s="8" t="n"/>
-      <c r="T681" t="inlineStr">
+      <c r="T681" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR WITH GLASS TROUGH</t>
         </is>
@@ -15308,7 +15582,7 @@
         </is>
       </c>
       <c r="F682" s="8" t="n"/>
-      <c r="T682" t="inlineStr">
+      <c r="T682" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15339,7 +15613,7 @@
       <c r="J683" t="n">
         <v>40</v>
       </c>
-      <c r="T683" t="inlineStr">
+      <c r="T683" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH SOAP AND TOWEL DISPENSER PART OF ITEM #902</t>
         </is>
@@ -15369,7 +15643,7 @@
       <c r="J684" t="n">
         <v>25</v>
       </c>
-      <c r="T684" t="inlineStr">
+      <c r="T684" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS WATER COOLED</t>
         </is>
@@ -15390,6 +15664,7 @@
         </is>
       </c>
       <c r="F685" s="8" t="n"/>
+      <c r="T685" s="9" t="n"/>
     </row>
     <row r="686">
       <c r="A686" s="5" t="n">
@@ -15416,7 +15691,7 @@
       <c r="J686" t="n">
         <v>40</v>
       </c>
-      <c r="T686" t="inlineStr">
+      <c r="T686" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #902</t>
         </is>
@@ -15435,7 +15710,7 @@
         </is>
       </c>
       <c r="F687" s="8" t="n"/>
-      <c r="T687" t="inlineStr">
+      <c r="T687" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #902</t>
         </is>
@@ -15454,7 +15729,7 @@
         </is>
       </c>
       <c r="F688" s="8" t="n"/>
-      <c r="T688" t="inlineStr">
+      <c r="T688" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -15476,7 +15751,7 @@
       <c r="K689" t="n">
         <v>50</v>
       </c>
-      <c r="T689" t="inlineStr">
+      <c r="T689" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -15497,6 +15772,7 @@
         </is>
       </c>
       <c r="F690" s="8" t="n"/>
+      <c r="T690" s="9" t="n"/>
     </row>
     <row r="691">
       <c r="A691" s="5" t="n">
@@ -15528,7 +15804,7 @@
       <c r="S691" t="n">
         <v>15</v>
       </c>
-      <c r="T691" t="inlineStr">
+      <c r="T691" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH ICE DIVIDERS WATER COOLED PART OF ITEM #902</t>
         </is>
@@ -15564,7 +15840,7 @@
       <c r="S692" t="n">
         <v>15</v>
       </c>
-      <c r="T692" t="inlineStr">
+      <c r="T692" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION DOUBLE HEIGHT WATER COOLED PART OF ITEM #902</t>
         </is>
@@ -15583,7 +15859,7 @@
         </is>
       </c>
       <c r="F693" s="8" t="n"/>
-      <c r="T693" t="inlineStr">
+      <c r="T693" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #902</t>
         </is>
@@ -15610,7 +15886,7 @@
       <c r="F694" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T694" t="inlineStr">
+      <c r="T694" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -15631,6 +15907,7 @@
         </is>
       </c>
       <c r="F695" s="8" t="n"/>
+      <c r="T695" s="9" t="n"/>
     </row>
     <row r="696">
       <c r="A696" s="5" t="n">
@@ -15653,7 +15930,7 @@
       <c r="F696" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T696" t="inlineStr">
+      <c r="T696" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -15674,6 +15951,7 @@
         </is>
       </c>
       <c r="F697" s="8" t="n"/>
+      <c r="T697" s="9" t="n"/>
     </row>
     <row r="698">
       <c r="A698" s="5" t="n">
@@ -15690,6 +15968,7 @@
         </is>
       </c>
       <c r="F698" s="8" t="n"/>
+      <c r="T698" s="9" t="n"/>
     </row>
     <row r="699">
       <c r="A699" s="5" t="n">
@@ -15706,6 +15985,7 @@
         </is>
       </c>
       <c r="F699" s="8" t="n"/>
+      <c r="T699" s="9" t="n"/>
     </row>
     <row r="700">
       <c r="A700" s="5" t="n">
@@ -15722,6 +16002,7 @@
         </is>
       </c>
       <c r="F700" s="8" t="n"/>
+      <c r="T700" s="9" t="n"/>
     </row>
     <row r="701">
       <c r="A701" s="5" t="n">
@@ -15736,7 +16017,7 @@
         </is>
       </c>
       <c r="F701" s="8" t="n"/>
-      <c r="T701" t="inlineStr">
+      <c r="T701" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15755,7 +16036,7 @@
         </is>
       </c>
       <c r="F702" s="8" t="n"/>
-      <c r="T702" t="inlineStr">
+      <c r="T702" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -15782,7 +16063,7 @@
       <c r="F703" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T703" t="inlineStr">
+      <c r="T703" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -15812,7 +16093,7 @@
       <c r="J704" t="n">
         <v>25</v>
       </c>
-      <c r="T704" t="inlineStr">
+      <c r="T704" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS WATER COOLED</t>
         </is>
@@ -15833,6 +16114,7 @@
         </is>
       </c>
       <c r="F705" s="8" t="n"/>
+      <c r="T705" s="9" t="n"/>
     </row>
     <row r="706">
       <c r="A706" s="5" t="n">
@@ -15855,7 +16137,7 @@
       <c r="F706" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T706" t="inlineStr">
+      <c r="T706" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -15874,7 +16156,7 @@
         </is>
       </c>
       <c r="F707" s="8" t="n"/>
-      <c r="T707" t="inlineStr">
+      <c r="T707" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -15895,6 +16177,7 @@
         </is>
       </c>
       <c r="F708" s="8" t="n"/>
+      <c r="T708" s="9" t="n"/>
     </row>
     <row r="709">
       <c r="A709" s="5" t="n">
@@ -15911,6 +16194,7 @@
         </is>
       </c>
       <c r="F709" s="8" t="n"/>
+      <c r="T709" s="9" t="n"/>
     </row>
     <row r="710">
       <c r="A710" s="5" t="inlineStr">
@@ -15929,6 +16213,7 @@
         </is>
       </c>
       <c r="F710" s="8" t="n"/>
+      <c r="T710" s="9" t="n"/>
     </row>
     <row r="711">
       <c r="A711" s="3" t="inlineStr">
@@ -15969,7 +16254,7 @@
         </is>
       </c>
       <c r="F712" s="8" t="n"/>
-      <c r="T712" t="inlineStr">
+      <c r="T712" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR WITH GLASS TROUGH</t>
         </is>
@@ -15988,7 +16273,7 @@
         </is>
       </c>
       <c r="F713" s="8" t="n"/>
-      <c r="T713" t="inlineStr">
+      <c r="T713" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -16019,7 +16304,7 @@
       <c r="J714" t="n">
         <v>40</v>
       </c>
-      <c r="T714" t="inlineStr">
+      <c r="T714" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH SOAP AND TOWEL DISPENSER PART OF ITEM #952</t>
         </is>
@@ -16049,7 +16334,7 @@
       <c r="J715" t="n">
         <v>25</v>
       </c>
-      <c r="T715" t="inlineStr">
+      <c r="T715" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS WATER COOLED</t>
         </is>
@@ -16070,6 +16355,7 @@
         </is>
       </c>
       <c r="F716" s="8" t="n"/>
+      <c r="T716" s="9" t="n"/>
     </row>
     <row r="717">
       <c r="A717" s="5" t="n">
@@ -16096,7 +16382,7 @@
       <c r="J717" t="n">
         <v>40</v>
       </c>
-      <c r="T717" t="inlineStr">
+      <c r="T717" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #952</t>
         </is>
@@ -16115,7 +16401,7 @@
         </is>
       </c>
       <c r="F718" s="8" t="n"/>
-      <c r="T718" t="inlineStr">
+      <c r="T718" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #952</t>
         </is>
@@ -16134,7 +16420,7 @@
         </is>
       </c>
       <c r="F719" s="8" t="n"/>
-      <c r="T719" t="inlineStr">
+      <c r="T719" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -16156,7 +16442,7 @@
       <c r="K720" t="n">
         <v>50</v>
       </c>
-      <c r="T720" t="inlineStr">
+      <c r="T720" s="9" t="inlineStr">
         <is>
           <t>BY MEP</t>
         </is>
@@ -16177,6 +16463,7 @@
         </is>
       </c>
       <c r="F721" s="8" t="n"/>
+      <c r="T721" s="9" t="n"/>
     </row>
     <row r="722">
       <c r="A722" s="5" t="n">
@@ -16208,7 +16495,7 @@
       <c r="S722" t="n">
         <v>15</v>
       </c>
-      <c r="T722" t="inlineStr">
+      <c r="T722" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH ICE DIVIDERS WATER COOLED PART OF ITEM #952</t>
         </is>
@@ -16244,7 +16531,7 @@
       <c r="S723" t="n">
         <v>15</v>
       </c>
-      <c r="T723" t="inlineStr">
+      <c r="T723" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION DOUBLE HEIGHT WATER COOLED PART OF ITEM #952</t>
         </is>
@@ -16263,7 +16550,7 @@
         </is>
       </c>
       <c r="F724" s="8" t="n"/>
-      <c r="T724" t="inlineStr">
+      <c r="T724" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #952</t>
         </is>
@@ -16290,7 +16577,7 @@
       <c r="F725" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="T725" t="inlineStr">
+      <c r="T725" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -16311,6 +16598,7 @@
         </is>
       </c>
       <c r="F726" s="8" t="n"/>
+      <c r="T726" s="9" t="n"/>
     </row>
     <row r="727">
       <c r="A727" s="5" t="n">
@@ -16333,7 +16621,7 @@
       <c r="F727" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="T727" t="inlineStr">
+      <c r="T727" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -16354,6 +16642,7 @@
         </is>
       </c>
       <c r="F728" s="8" t="n"/>
+      <c r="T728" s="9" t="n"/>
     </row>
     <row r="729">
       <c r="A729" s="5" t="n">
@@ -16370,6 +16659,7 @@
         </is>
       </c>
       <c r="F729" s="8" t="n"/>
+      <c r="T729" s="9" t="n"/>
     </row>
     <row r="730">
       <c r="A730" s="5" t="n">
@@ -16386,6 +16676,7 @@
         </is>
       </c>
       <c r="F730" s="8" t="n"/>
+      <c r="T730" s="9" t="n"/>
     </row>
     <row r="731">
       <c r="A731" s="5" t="n">
@@ -16402,6 +16693,7 @@
         </is>
       </c>
       <c r="F731" s="8" t="n"/>
+      <c r="T731" s="9" t="n"/>
     </row>
     <row r="732">
       <c r="A732" s="5" t="n">
@@ -16418,6 +16710,7 @@
         </is>
       </c>
       <c r="F732" s="8" t="n"/>
+      <c r="T732" s="9" t="n"/>
     </row>
     <row r="733">
       <c r="A733" s="5" t="n">
@@ -16434,6 +16727,7 @@
         </is>
       </c>
       <c r="F733" s="8" t="n"/>
+      <c r="T733" s="9" t="n"/>
     </row>
     <row r="734">
       <c r="A734" s="5" t="n">
@@ -16448,7 +16742,7 @@
         </is>
       </c>
       <c r="F734" s="8" t="n"/>
-      <c r="T734" t="inlineStr">
+      <c r="T734" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -16478,7 +16772,7 @@
       <c r="J735" t="n">
         <v>25</v>
       </c>
-      <c r="T735" t="inlineStr">
+      <c r="T735" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS WATER COOLED</t>
         </is>
@@ -16499,6 +16793,7 @@
         </is>
       </c>
       <c r="F736" s="8" t="n"/>
+      <c r="T736" s="9" t="n"/>
     </row>
     <row r="737">
       <c r="A737" s="5" t="n">
@@ -16513,7 +16808,7 @@
         </is>
       </c>
       <c r="F737" s="8" t="n"/>
-      <c r="T737" t="inlineStr">
+      <c r="T737" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -16532,7 +16827,7 @@
         </is>
       </c>
       <c r="F738" s="8" t="n"/>
-      <c r="T738" t="inlineStr">
+      <c r="T738" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -16553,6 +16848,7 @@
         </is>
       </c>
       <c r="F739" s="8" t="n"/>
+      <c r="T739" s="9" t="n"/>
     </row>
     <row r="740">
       <c r="A740" s="5" t="n">
@@ -16569,6 +16865,7 @@
         </is>
       </c>
       <c r="F740" s="8" t="n"/>
+      <c r="T740" s="9" t="n"/>
     </row>
     <row r="741">
       <c r="A741" s="5" t="inlineStr">
@@ -16587,43 +16884,45 @@
         </is>
       </c>
       <c r="F741" s="8" t="n"/>
+      <c r="T741" s="9" t="n"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr"/>
     </row>
     <row r="743">
-      <c r="A743" s="9" t="inlineStr">
+      <c r="A743" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F743" s="10">
+      <c r="F743" s="11">
         <f>SUM(F7:F742)</f>
         <v/>
       </c>
-      <c r="I743" s="10">
+      <c r="I743" s="11">
         <f>SUM(I7:I742)</f>
         <v/>
       </c>
-      <c r="L743" s="10">
+      <c r="L743" s="11">
         <f>SUM(L7:L742)</f>
         <v/>
       </c>
-      <c r="M743" s="10">
+      <c r="M743" s="11">
         <f>SUM(M7:M742)</f>
         <v/>
       </c>
-      <c r="O743" s="10">
+      <c r="O743" s="11">
         <f>SUM(O7:O742)</f>
         <v/>
       </c>
-      <c r="Q743" s="10">
+      <c r="Q743" s="11">
         <f>SUM(Q7:Q742)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>